--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743281CC-5474-C845-8B23-9D9D5D27A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5254A-F0DB-6D47-A53C-0704F8F815EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="740" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="240">
   <si>
     <t>Full</t>
   </si>
@@ -461,13 +461,292 @@
   </si>
   <si>
     <t>btwn</t>
+  </si>
+  <si>
+    <t>supp</t>
+  </si>
+  <si>
+    <t>suppression</t>
+  </si>
+  <si>
+    <t>wtr</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys </t>
+  </si>
+  <si>
+    <t>cntmt</t>
+  </si>
+  <si>
+    <t>containment</t>
+  </si>
+  <si>
+    <t>mods</t>
+  </si>
+  <si>
+    <t>modifications</t>
+  </si>
+  <si>
+    <t>tech-specs</t>
+  </si>
+  <si>
+    <t>technical specifications</t>
+  </si>
+  <si>
+    <t>aux</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>mngmt</t>
+  </si>
+  <si>
+    <t>mgmt</t>
+  </si>
+  <si>
+    <t>mgt</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>directorate</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>reinf</t>
+  </si>
+  <si>
+    <t>reqd</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>pzr</t>
+  </si>
+  <si>
+    <t>pressurizer</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>recirculation</t>
+  </si>
+  <si>
+    <t>recirc</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>w/</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>preparations</t>
+  </si>
+  <si>
+    <t>preps</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>reactor</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>pwr</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>sect</t>
+  </si>
+  <si>
+    <t>chap</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>vlv</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>bldg</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>s/g</t>
+  </si>
+  <si>
+    <t>steam generator</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>rmv</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>remv</t>
+  </si>
+  <si>
+    <t>insul</t>
+  </si>
+  <si>
+    <t>insulation</t>
+  </si>
+  <si>
+    <t>unk</t>
+  </si>
+  <si>
+    <t>unkw</t>
+  </si>
+  <si>
+    <t>hyd</t>
+  </si>
+  <si>
+    <t>instl</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>re-inst</t>
+  </si>
+  <si>
+    <t>reinstall</t>
+  </si>
+  <si>
+    <t>insp</t>
+  </si>
+  <si>
+    <t>inspection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,6 +877,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -946,10 +1233,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1305,648 +1592,1088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>231</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5254A-F0DB-6D47-A53C-0704F8F815EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE9464-4A6A-C346-B76F-D950AFE6C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="245">
   <si>
     <t>Full</t>
   </si>
@@ -740,6 +740,21 @@
   </si>
   <si>
     <t>inspection</t>
+  </si>
+  <si>
+    <t>pmp</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>determ</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>det</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,6 +2691,30 @@
         <v>239</v>
       </c>
     </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>242</v>
+      </c>
+      <c r="B136" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE9464-4A6A-C346-B76F-D950AFE6C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88325A9-694F-9348-BA39-7A58EE20AF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44900" yWindow="5500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="number" sheetId="3" r:id="rId1"/>
+    <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
+    <sheet name="other_acronyms" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="683">
   <si>
     <t>Full</t>
   </si>
@@ -755,13 +756,1327 @@
   </si>
   <si>
     <t>det</t>
+  </si>
+  <si>
+    <t>afl</t>
+  </si>
+  <si>
+    <t>Above Floor Level </t>
+  </si>
+  <si>
+    <t>Above Ground Level</t>
+  </si>
+  <si>
+    <t>agl</t>
+  </si>
+  <si>
+    <t>bof</t>
+  </si>
+  <si>
+    <t>Bottom of Foundation</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>downpipe</t>
+  </si>
+  <si>
+    <t>dwg</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>floor level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elec </t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>far side</t>
+  </si>
+  <si>
+    <t>ftg</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce </t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>as built</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>communications</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>each way</t>
+  </si>
+  <si>
+    <t>fos</t>
+  </si>
+  <si>
+    <t>factor of safety</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>high pressure</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>inspection opening</t>
+  </si>
+  <si>
+    <t>i/o</t>
+  </si>
+  <si>
+    <t>input and output</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>key joint</t>
+  </si>
+  <si>
+    <t>mfr</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>Material Requirements Planning</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>npr</t>
+  </si>
+  <si>
+    <t>New Product Release</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>Numerical Control</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>outer diameter</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>inner diameter</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pcd</t>
+  </si>
+  <si>
+    <t>Pitch Circle Diameter</t>
+  </si>
+  <si>
+    <t>pfc</t>
+  </si>
+  <si>
+    <t>Parallel Flange Channel</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>top off</t>
+  </si>
+  <si>
+    <t>uon</t>
+  </si>
+  <si>
+    <t>Unless Otherwise Noted</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>Unless Noted Otherwise</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>cfw</t>
+  </si>
+  <si>
+    <t>continuous fillet weld</t>
+  </si>
+  <si>
+    <t>fsbw</t>
+  </si>
+  <si>
+    <t>Full Strength Butt Weld</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>Fibre Termination Panel</t>
+  </si>
+  <si>
+    <t>file transfer protocol</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>fillet weld</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>hot rolled</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>human resources</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>mild steep</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>stainless steel</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tungsten carbide</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>Unequal Angle</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>Universal Beam</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>Welded Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approx </t>
+  </si>
+  <si>
+    <t>Approximately</t>
+  </si>
+  <si>
+    <t>btm</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>center line</t>
+  </si>
+  <si>
+    <t>clr</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clr </t>
+  </si>
+  <si>
+    <t>clearance</t>
+  </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t>Cement Masonry Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center </t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>Diameter Nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq </t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>horiz</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>left hand</t>
+  </si>
+  <si>
+    <t>rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right hand </t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>near side</t>
+  </si>
+  <si>
+    <t>thk</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>w/o</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>amer</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>anneal</t>
+  </si>
+  <si>
+    <t>aql</t>
+  </si>
+  <si>
+    <t>acceptable quality level</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>as required</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>bolt circle</t>
+  </si>
+  <si>
+    <t>bolt hole circle</t>
+  </si>
+  <si>
+    <t>bhc</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>bill of materials</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>blueprint</t>
+  </si>
+  <si>
+    <t>brz</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>computer-aided design</t>
+  </si>
+  <si>
+    <t>c-c</t>
+  </si>
+  <si>
+    <t>center to center</t>
+  </si>
+  <si>
+    <t>cda</t>
+  </si>
+  <si>
+    <t>current design activity</t>
+  </si>
+  <si>
+    <t>cert</t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>controlled radius</t>
+  </si>
+  <si>
+    <t>eql</t>
+  </si>
+  <si>
+    <t>fitting</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>general note</t>
+  </si>
+  <si>
+    <t>iaw</t>
+  </si>
+  <si>
+    <t>in accordance with</t>
+  </si>
+  <si>
+    <t>indentity</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>list of material</t>
+  </si>
+  <si>
+    <t>mach</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mbp</t>
+  </si>
+  <si>
+    <t>mbw</t>
+  </si>
+  <si>
+    <t>measurement between pins</t>
+  </si>
+  <si>
+    <t>measurement between wires</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>make from</t>
+  </si>
+  <si>
+    <t>mfd</t>
+  </si>
+  <si>
+    <t>manufactured</t>
+  </si>
+  <si>
+    <t>mfg</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>mop</t>
+  </si>
+  <si>
+    <t>mow</t>
+  </si>
+  <si>
+    <t>ncm</t>
+  </si>
+  <si>
+    <t>nonconforming material</t>
+  </si>
+  <si>
+    <t>nonconformance report</t>
+  </si>
+  <si>
+    <t>ncr</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>note list</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>normalized</t>
+  </si>
+  <si>
+    <t>normd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc </t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>part list</t>
+  </si>
+  <si>
+    <t>plm</t>
+  </si>
+  <si>
+    <t>plant lifecycle management</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>part number</t>
+  </si>
+  <si>
+    <t>poi</t>
+  </si>
+  <si>
+    <t>point of intersection</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>root mean square</t>
+  </si>
+  <si>
+    <t>shn</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>SHCS</t>
+  </si>
+  <si>
+    <t>socket head cap screw</t>
+  </si>
+  <si>
+    <t>shss</t>
+  </si>
+  <si>
+    <t>socket head set screw</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>tdp</t>
+  </si>
+  <si>
+    <t>technical data package</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>total indicator reading</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>uai</t>
+  </si>
+  <si>
+    <t>use as is</t>
+  </si>
+  <si>
+    <t>ull</t>
+  </si>
+  <si>
+    <t>under low limit</t>
+  </si>
+  <si>
+    <t>unless otherwise noted</t>
+  </si>
+  <si>
+    <t>uos</t>
+  </si>
+  <si>
+    <t>unless otherwise specified</t>
+  </si>
+  <si>
+    <t>w/i</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chem </t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coef </t>
+  </si>
+  <si>
+    <t>conc</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>cndct</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diameter </t>
+  </si>
+  <si>
+    <t>doz</t>
+  </si>
+  <si>
+    <t>dozen</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>elv</t>
+  </si>
+  <si>
+    <t>engr</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>engrg</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>fob</t>
+  </si>
+  <si>
+    <t>free on board</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>intl</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>low pressure</t>
+  </si>
+  <si>
+    <t>rnd</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>After Hours</t>
+  </si>
+  <si>
+    <t>arrgt</t>
+  </si>
+  <si>
+    <t>Arrangement</t>
+  </si>
+  <si>
+    <t>assy</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>brg</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>both ways</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>cham</t>
+  </si>
+  <si>
+    <t>Chamfer</t>
+  </si>
+  <si>
+    <t>chcl</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>chan</t>
+  </si>
+  <si>
+    <t>circ</t>
+  </si>
+  <si>
+    <t>Circumference</t>
+  </si>
+  <si>
+    <t>cnr</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>comm</t>
+  </si>
+  <si>
+    <t>conn</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctr </t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>cvr</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>cyl</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>equiv</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>fig</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>flg</t>
+  </si>
+  <si>
+    <t>flange</t>
+  </si>
+  <si>
+    <t>galv</t>
+  </si>
+  <si>
+    <t>galvanized</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>high strength</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>International Standard Organisation</t>
+  </si>
+  <si>
+    <t>jt</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>junc</t>
+  </si>
+  <si>
+    <t>junction</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>matl</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>m/c</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>modification</t>
+  </si>
+  <si>
+    <t>mtg</t>
+  </si>
+  <si>
+    <t>mounting</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>nominal size</t>
+  </si>
+  <si>
+    <t>nts</t>
+  </si>
+  <si>
+    <t>not to scale</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>octagon</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>posn</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>thd</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>ucut</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>yield point</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>prog</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vis </t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>decon</t>
+  </si>
+  <si>
+    <t>decontamination</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>rpls</t>
+  </si>
+  <si>
+    <t>islt</t>
+  </si>
+  <si>
+    <t>ldhx</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>trh</t>
+  </si>
+  <si>
+    <t>cntmnt</t>
+  </si>
+  <si>
+    <t>llrt</t>
+  </si>
+  <si>
+    <t>ctmt</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>ist</t>
+  </si>
+  <si>
+    <t>ugs</t>
+  </si>
+  <si>
+    <t>In Service Leak Test </t>
+  </si>
+  <si>
+    <t>noz</t>
+  </si>
+  <si>
+    <t>nozzle</t>
+  </si>
+  <si>
+    <t>surf</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>osf</t>
+  </si>
+  <si>
+    <t>nop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -900,6 +2215,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1246,12 +2568,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1607,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2715,7 +4038,2263 @@
         <v>243</v>
       </c>
     </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>270</v>
+      </c>
+      <c r="B153" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>288</v>
+      </c>
+      <c r="B162" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>290</v>
+      </c>
+      <c r="B163" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>292</v>
+      </c>
+      <c r="B164" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>294</v>
+      </c>
+      <c r="B165" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>296</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>298</v>
+      </c>
+      <c r="B167" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>300</v>
+      </c>
+      <c r="B168" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>306</v>
+      </c>
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>308</v>
+      </c>
+      <c r="B172" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>310</v>
+      </c>
+      <c r="B173" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>312</v>
+      </c>
+      <c r="B174" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>314</v>
+      </c>
+      <c r="B175" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>318</v>
+      </c>
+      <c r="B177" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>320</v>
+      </c>
+      <c r="B178" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B179" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>324</v>
+      </c>
+      <c r="B180" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>326</v>
+      </c>
+      <c r="B181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>328</v>
+      </c>
+      <c r="B182" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>330</v>
+      </c>
+      <c r="B183" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>332</v>
+      </c>
+      <c r="B184" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B185" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>334</v>
+      </c>
+      <c r="B186" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>337</v>
+      </c>
+      <c r="B187" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>341</v>
+      </c>
+      <c r="B189" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>343</v>
+      </c>
+      <c r="B190" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>345</v>
+      </c>
+      <c r="B191" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>347</v>
+      </c>
+      <c r="B192" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>349</v>
+      </c>
+      <c r="B193" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>353</v>
+      </c>
+      <c r="B195" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>355</v>
+      </c>
+      <c r="B196" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>357</v>
+      </c>
+      <c r="B197" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>359</v>
+      </c>
+      <c r="B198" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>361</v>
+      </c>
+      <c r="B199" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>363</v>
+      </c>
+      <c r="B200" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>365</v>
+      </c>
+      <c r="B201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>367</v>
+      </c>
+      <c r="B202" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>278</v>
+      </c>
+      <c r="B203" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>370</v>
+      </c>
+      <c r="B204" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>372</v>
+      </c>
+      <c r="B205" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>374</v>
+      </c>
+      <c r="B206" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>256</v>
+      </c>
+      <c r="B207" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>377</v>
+      </c>
+      <c r="B208" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>378</v>
+      </c>
+      <c r="B209" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>380</v>
+      </c>
+      <c r="B210" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>384</v>
+      </c>
+      <c r="B212" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>386</v>
+      </c>
+      <c r="B213" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>388</v>
+      </c>
+      <c r="B214" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>203</v>
+      </c>
+      <c r="B215" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>390</v>
+      </c>
+      <c r="B216" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>392</v>
+      </c>
+      <c r="B217" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>394</v>
+      </c>
+      <c r="B218" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>395</v>
+      </c>
+      <c r="B219" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>63</v>
+      </c>
+      <c r="B220" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>191</v>
+      </c>
+      <c r="B221" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>398</v>
+      </c>
+      <c r="B222" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>400</v>
+      </c>
+      <c r="B223" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>402</v>
+      </c>
+      <c r="B224" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>404</v>
+      </c>
+      <c r="B225" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>406</v>
+      </c>
+      <c r="B226" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>408</v>
+      </c>
+      <c r="B227" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>410</v>
+      </c>
+      <c r="B228" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>411</v>
+      </c>
+      <c r="B229" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>413</v>
+      </c>
+      <c r="B230" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>416</v>
+      </c>
+      <c r="B231" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>417</v>
+      </c>
+      <c r="B232" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>419</v>
+      </c>
+      <c r="B233" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>421</v>
+      </c>
+      <c r="B234" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>423</v>
+      </c>
+      <c r="B235" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>423</v>
+      </c>
+      <c r="B236" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>425</v>
+      </c>
+      <c r="B237" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>427</v>
+      </c>
+      <c r="B238" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>429</v>
+      </c>
+      <c r="B239" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>431</v>
+      </c>
+      <c r="B240" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>431</v>
+      </c>
+      <c r="B241" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>433</v>
+      </c>
+      <c r="B242" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>435</v>
+      </c>
+      <c r="B243" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>260</v>
+      </c>
+      <c r="B244" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>262</v>
+      </c>
+      <c r="B245" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>437</v>
+      </c>
+      <c r="B246" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>439</v>
+      </c>
+      <c r="B247" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>310</v>
+      </c>
+      <c r="B248" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>442</v>
+      </c>
+      <c r="B249" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>444</v>
+      </c>
+      <c r="B250" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>446</v>
+      </c>
+      <c r="B251" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>448</v>
+      </c>
+      <c r="B252" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>449</v>
+      </c>
+      <c r="B253" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>452</v>
+      </c>
+      <c r="B254" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>454</v>
+      </c>
+      <c r="B255" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>456</v>
+      </c>
+      <c r="B256" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>294</v>
+      </c>
+      <c r="B257" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>458</v>
+      </c>
+      <c r="B258" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>459</v>
+      </c>
+      <c r="B259" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>460</v>
+      </c>
+      <c r="B260" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>463</v>
+      </c>
+      <c r="B261" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>464</v>
+      </c>
+      <c r="B262" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>302</v>
+      </c>
+      <c r="B263" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>466</v>
+      </c>
+      <c r="B264" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>468</v>
+      </c>
+      <c r="B265" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>469</v>
+      </c>
+      <c r="B266" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>471</v>
+      </c>
+      <c r="B267" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>345</v>
+      </c>
+      <c r="B268" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>474</v>
+      </c>
+      <c r="B269" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>476</v>
+      </c>
+      <c r="B270" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>478</v>
+      </c>
+      <c r="B271" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>320</v>
+      </c>
+      <c r="B272" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>480</v>
+      </c>
+      <c r="B273" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>482</v>
+      </c>
+      <c r="B274" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>484</v>
+      </c>
+      <c r="B275" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>486</v>
+      </c>
+      <c r="B276" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>488</v>
+      </c>
+      <c r="B277" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>490</v>
+      </c>
+      <c r="B278" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>492</v>
+      </c>
+      <c r="B279" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>494</v>
+      </c>
+      <c r="B280" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>496</v>
+      </c>
+      <c r="B281" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>498</v>
+      </c>
+      <c r="B282" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>500</v>
+      </c>
+      <c r="B283" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>502</v>
+      </c>
+      <c r="B284" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>504</v>
+      </c>
+      <c r="B285" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>506</v>
+      </c>
+      <c r="B286" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>508</v>
+      </c>
+      <c r="B287" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>324</v>
+      </c>
+      <c r="B288" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>511</v>
+      </c>
+      <c r="B289" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>513</v>
+      </c>
+      <c r="B290" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>515</v>
+      </c>
+      <c r="B291" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>517</v>
+      </c>
+      <c r="B292" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>520</v>
+      </c>
+      <c r="B293" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>521</v>
+      </c>
+      <c r="B294" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>522</v>
+      </c>
+      <c r="B295" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>524</v>
+      </c>
+      <c r="B296" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>526</v>
+      </c>
+      <c r="B297" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>528</v>
+      </c>
+      <c r="B298" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>530</v>
+      </c>
+      <c r="B299" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>532</v>
+      </c>
+      <c r="B300" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>534</v>
+      </c>
+      <c r="B301" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>535</v>
+      </c>
+      <c r="B302" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>536</v>
+      </c>
+      <c r="B303" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>538</v>
+      </c>
+      <c r="B304" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>540</v>
+      </c>
+      <c r="B305" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>256</v>
+      </c>
+      <c r="B306" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>542</v>
+      </c>
+      <c r="B307" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>544</v>
+      </c>
+      <c r="B308" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>286</v>
+      </c>
+      <c r="B309" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>546</v>
+      </c>
+      <c r="B310" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>548</v>
+      </c>
+      <c r="B311" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>549</v>
+      </c>
+      <c r="B312" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>551</v>
+      </c>
+      <c r="B313" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>490</v>
+      </c>
+      <c r="B314" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>553</v>
+      </c>
+      <c r="B315" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>555</v>
+      </c>
+      <c r="B316" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>557</v>
+      </c>
+      <c r="B317" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>270</v>
+      </c>
+      <c r="B318" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>245</v>
+      </c>
+      <c r="B319" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>248</v>
+      </c>
+      <c r="B320" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>559</v>
+      </c>
+      <c r="B321" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>561</v>
+      </c>
+      <c r="B322" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>562</v>
+      </c>
+      <c r="B323" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>221</v>
+      </c>
+      <c r="B324" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>564</v>
+      </c>
+      <c r="B325" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>565</v>
+      </c>
+      <c r="B326" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>359</v>
+      </c>
+      <c r="B327" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>567</v>
+      </c>
+      <c r="B328" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>569</v>
+      </c>
+      <c r="B329" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>571</v>
+      </c>
+      <c r="B330" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>573</v>
+      </c>
+      <c r="B331" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>575</v>
+      </c>
+      <c r="B332" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>576</v>
+      </c>
+      <c r="B333" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>363</v>
+      </c>
+      <c r="B334" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>367</v>
+      </c>
+      <c r="B335" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>578</v>
+      </c>
+      <c r="B336" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>580</v>
+      </c>
+      <c r="B337" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>522</v>
+      </c>
+      <c r="B338" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>581</v>
+      </c>
+      <c r="B339" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>220</v>
+      </c>
+      <c r="B340" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>583</v>
+      </c>
+      <c r="B341" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>585</v>
+      </c>
+      <c r="B342" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>587</v>
+      </c>
+      <c r="B343" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>280</v>
+      </c>
+      <c r="B344" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>589</v>
+      </c>
+      <c r="B345" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>282</v>
+      </c>
+      <c r="B346" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>591</v>
+      </c>
+      <c r="B347" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>593</v>
+      </c>
+      <c r="B348" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>260</v>
+      </c>
+      <c r="B349" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>595</v>
+      </c>
+      <c r="B350" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>599</v>
+      </c>
+      <c r="B352" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>377</v>
+      </c>
+      <c r="B353" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>601</v>
+      </c>
+      <c r="B354" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>603</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>605</v>
+      </c>
+      <c r="B356" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>607</v>
+      </c>
+      <c r="B357" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>609</v>
+      </c>
+      <c r="B358" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>611</v>
+      </c>
+      <c r="B359" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>612</v>
+      </c>
+      <c r="B360" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>614</v>
+      </c>
+      <c r="B361" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>264</v>
+      </c>
+      <c r="B362" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>616</v>
+      </c>
+      <c r="B363" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>618</v>
+      </c>
+      <c r="B364" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>620</v>
+      </c>
+      <c r="B365" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>388</v>
+      </c>
+      <c r="B366" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>388</v>
+      </c>
+      <c r="B367" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>623</v>
+      </c>
+      <c r="B368" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>625</v>
+      </c>
+      <c r="B369" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>627</v>
+      </c>
+      <c r="B370" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>629</v>
+      </c>
+      <c r="B371" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>631</v>
+      </c>
+      <c r="B372" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>320</v>
+      </c>
+      <c r="B373" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>633</v>
+      </c>
+      <c r="B374" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>635</v>
+      </c>
+      <c r="B375" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>636</v>
+      </c>
+      <c r="B376" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>211</v>
+      </c>
+      <c r="B377" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>638</v>
+      </c>
+      <c r="B378" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>640</v>
+      </c>
+      <c r="B379" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>268</v>
+      </c>
+      <c r="B380" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>642</v>
+      </c>
+      <c r="B381" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>490</v>
+      </c>
+      <c r="B382" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>182</v>
+      </c>
+      <c r="B383" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>645</v>
+      </c>
+      <c r="B384" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>390</v>
+      </c>
+      <c r="B385" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>500</v>
+      </c>
+      <c r="B386" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>504</v>
+      </c>
+      <c r="B387" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>647</v>
+      </c>
+      <c r="B388" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>394</v>
+      </c>
+      <c r="B390" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>649</v>
+      </c>
+      <c r="B391" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>650</v>
+      </c>
+      <c r="B392" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>652</v>
+      </c>
+      <c r="B393" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>238</v>
+      </c>
+      <c r="B394" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>63</v>
+      </c>
+      <c r="B395" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>654</v>
+      </c>
+      <c r="B396" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>656</v>
+      </c>
+      <c r="B397" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>658</v>
+      </c>
+      <c r="B398" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>203</v>
+      </c>
+      <c r="B399" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>242</v>
+      </c>
+      <c r="B400" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>193</v>
+      </c>
+      <c r="B401" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>662</v>
+      </c>
+      <c r="B403" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>664</v>
+      </c>
+      <c r="B405" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>152</v>
+      </c>
+      <c r="B407" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>668</v>
+      </c>
+      <c r="B408" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>180</v>
+      </c>
+      <c r="B409" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>649</v>
+      </c>
+      <c r="B417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>677</v>
+      </c>
+      <c r="B418" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>587</v>
+      </c>
+      <c r="B419" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>679</v>
+      </c>
+      <c r="B420" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EAFCB-F453-0C47-8DF6-0C6967CCCED6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88325A9-694F-9348-BA39-7A58EE20AF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B533B-1AC0-AE43-8F64-3D561F710B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44900" yWindow="5500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
-    <sheet name="other_acronyms" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="681">
   <si>
     <t>Full</t>
   </si>
@@ -1757,9 +1756,6 @@
     <t>Circumference</t>
   </si>
   <si>
-    <t>cnr</t>
-  </si>
-  <si>
     <t>corner</t>
   </si>
   <si>
@@ -1832,12 +1828,6 @@
     <t>high strength</t>
   </si>
   <si>
-    <t>ISO</t>
-  </si>
-  <si>
-    <t>International Standard Organisation</t>
-  </si>
-  <si>
     <t>jt</t>
   </si>
   <si>
@@ -2070,13 +2060,16 @@
   </si>
   <si>
     <t>nop</t>
+  </si>
+  <si>
+    <t>crnr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2215,13 +2208,6 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2568,13 +2554,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2930,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355:XFD355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5624,15 +5609,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>680</v>
+      </c>
+      <c r="B336" t="s">
         <v>578</v>
-      </c>
-      <c r="B336" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B337" t="s">
         <v>275</v>
@@ -5648,10 +5633,10 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>580</v>
+      </c>
+      <c r="B339" t="s">
         <v>581</v>
-      </c>
-      <c r="B339" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -5664,26 +5649,26 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>582</v>
+      </c>
+      <c r="B341" t="s">
         <v>583</v>
-      </c>
-      <c r="B341" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>584</v>
+      </c>
+      <c r="B342" t="s">
         <v>585</v>
-      </c>
-      <c r="B342" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>586</v>
+      </c>
+      <c r="B343" t="s">
         <v>587</v>
-      </c>
-      <c r="B343" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -5696,10 +5681,10 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
+        <v>588</v>
+      </c>
+      <c r="B345" t="s">
         <v>589</v>
-      </c>
-      <c r="B345" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -5712,18 +5697,18 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>590</v>
+      </c>
+      <c r="B347" t="s">
         <v>591</v>
-      </c>
-      <c r="B347" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>592</v>
+      </c>
+      <c r="B348" t="s">
         <v>593</v>
-      </c>
-      <c r="B348" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -5736,26 +5721,26 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>594</v>
+      </c>
+      <c r="B350" t="s">
         <v>595</v>
-      </c>
-      <c r="B350" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>596</v>
+      </c>
+      <c r="B351" t="s">
         <v>597</v>
-      </c>
-      <c r="B351" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>598</v>
+      </c>
+      <c r="B352" t="s">
         <v>599</v>
-      </c>
-      <c r="B352" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -5768,98 +5753,98 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>600</v>
+      </c>
+      <c r="B354" t="s">
         <v>601</v>
-      </c>
-      <c r="B354" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>602</v>
+      </c>
+      <c r="B355" t="s">
         <v>603</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>604</v>
+      </c>
+      <c r="B356" t="s">
         <v>605</v>
-      </c>
-      <c r="B356" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>606</v>
+      </c>
+      <c r="B357" t="s">
         <v>607</v>
-      </c>
-      <c r="B357" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B358" t="s">
-        <v>610</v>
+        <v>381</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B359" t="s">
-        <v>381</v>
+        <v>610</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B360" t="s">
-        <v>613</v>
+        <v>445</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>614</v>
+        <v>264</v>
       </c>
       <c r="B361" t="s">
-        <v>445</v>
+        <v>612</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>264</v>
+        <v>613</v>
       </c>
       <c r="B362" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>615</v>
+      </c>
+      <c r="B363" t="s">
         <v>616</v>
-      </c>
-      <c r="B363" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>617</v>
+      </c>
+      <c r="B364" t="s">
         <v>618</v>
-      </c>
-      <c r="B364" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>620</v>
+        <v>388</v>
       </c>
       <c r="B365" t="s">
-        <v>621</v>
+        <v>389</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -5867,188 +5852,188 @@
         <v>388</v>
       </c>
       <c r="B366" t="s">
-        <v>389</v>
+        <v>619</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>388</v>
+        <v>620</v>
       </c>
       <c r="B367" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>622</v>
+      </c>
+      <c r="B368" t="s">
         <v>623</v>
-      </c>
-      <c r="B368" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
+        <v>624</v>
+      </c>
+      <c r="B369" t="s">
         <v>625</v>
-      </c>
-      <c r="B369" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>626</v>
+      </c>
+      <c r="B370" t="s">
         <v>627</v>
-      </c>
-      <c r="B370" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
+        <v>628</v>
+      </c>
+      <c r="B371" t="s">
         <v>629</v>
-      </c>
-      <c r="B371" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>631</v>
+        <v>320</v>
       </c>
       <c r="B372" t="s">
-        <v>632</v>
+        <v>321</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>320</v>
+        <v>630</v>
       </c>
       <c r="B373" t="s">
-        <v>321</v>
+        <v>631</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B374" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B375" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>636</v>
+        <v>211</v>
       </c>
       <c r="B376" t="s">
-        <v>637</v>
+        <v>210</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>211</v>
+        <v>635</v>
       </c>
       <c r="B377" t="s">
-        <v>210</v>
+        <v>636</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>637</v>
+      </c>
+      <c r="B378" t="s">
         <v>638</v>
-      </c>
-      <c r="B378" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>640</v>
+        <v>268</v>
       </c>
       <c r="B379" t="s">
-        <v>641</v>
+        <v>269</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>268</v>
+        <v>639</v>
       </c>
       <c r="B380" t="s">
-        <v>269</v>
+        <v>640</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>642</v>
+        <v>490</v>
       </c>
       <c r="B381" t="s">
-        <v>643</v>
+        <v>491</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>490</v>
+        <v>182</v>
       </c>
       <c r="B382" t="s">
-        <v>491</v>
+        <v>641</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>182</v>
+        <v>642</v>
       </c>
       <c r="B383" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>645</v>
+        <v>390</v>
       </c>
       <c r="B384" t="s">
-        <v>646</v>
+        <v>391</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="B385" t="s">
-        <v>391</v>
+        <v>501</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B386" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>504</v>
+        <v>644</v>
       </c>
       <c r="B387" t="s">
-        <v>505</v>
+        <v>645</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>647</v>
+        <v>392</v>
       </c>
       <c r="B388" t="s">
-        <v>648</v>
+        <v>393</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B389" t="s">
         <v>393</v>
@@ -6056,134 +6041,134 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>394</v>
+        <v>646</v>
       </c>
       <c r="B390" t="s">
-        <v>393</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B391" t="s">
-        <v>132</v>
+        <v>648</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>649</v>
+      </c>
+      <c r="B392" t="s">
         <v>650</v>
-      </c>
-      <c r="B392" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>652</v>
+        <v>238</v>
       </c>
       <c r="B393" t="s">
-        <v>653</v>
+        <v>239</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="B394" t="s">
-        <v>239</v>
+        <v>537</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>63</v>
+        <v>651</v>
       </c>
       <c r="B395" t="s">
-        <v>537</v>
+        <v>652</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
+        <v>653</v>
+      </c>
+      <c r="B396" t="s">
         <v>654</v>
-      </c>
-      <c r="B396" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
+        <v>655</v>
+      </c>
+      <c r="B397" t="s">
         <v>656</v>
-      </c>
-      <c r="B397" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>658</v>
+        <v>203</v>
       </c>
       <c r="B398" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B399" t="s">
-        <v>660</v>
+        <v>243</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="B400" t="s">
-        <v>243</v>
+        <v>663</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>193</v>
-      </c>
-      <c r="B401" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>661</v>
+        <v>659</v>
+      </c>
+      <c r="B402" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>662</v>
-      </c>
-      <c r="B403" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>663</v>
+        <v>661</v>
+      </c>
+      <c r="B404" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>664</v>
       </c>
-      <c r="B405" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>667</v>
+        <v>152</v>
+      </c>
+      <c r="B406" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>152</v>
+        <v>665</v>
       </c>
       <c r="B407" t="s">
         <v>153</v>
@@ -6191,110 +6176,90 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>668</v>
+        <v>180</v>
       </c>
       <c r="B408" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>180</v>
-      </c>
-      <c r="B409" t="s">
-        <v>181</v>
+        <v>666</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>675</v>
+        <v>646</v>
+      </c>
+      <c r="B416" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="B417" t="s">
-        <v>132</v>
+        <v>675</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>677</v>
+        <v>586</v>
       </c>
       <c r="B418" t="s">
-        <v>678</v>
+        <v>587</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>587</v>
+        <v>676</v>
       </c>
       <c r="B419" t="s">
-        <v>588</v>
+        <v>677</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>679</v>
-      </c>
-      <c r="B420" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EAFCB-F453-0C47-8DF6-0C6967CCCED6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B533B-1AC0-AE43-8F64-3D561F710B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EC54A4-7F50-824A-A2B0-346F84DA492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44900" yWindow="5500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
@@ -20,44 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="917">
   <si>
     <t>Full</t>
   </si>
   <si>
-    <t>approx. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> approximately</t>
-  </si>
-  <si>
     <t>appt. </t>
   </si>
   <si>
     <t xml:space="preserve"> appointment</t>
   </si>
   <si>
-    <t>A.S.A.P. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> as soon as possible</t>
   </si>
   <si>
     <t>c/o </t>
   </si>
   <si>
-    <t xml:space="preserve"> care of</t>
-  </si>
-  <si>
-    <t>dept. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> department</t>
-  </si>
-  <si>
-    <t>D.I.Y. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Do it yourself</t>
   </si>
   <si>
@@ -67,33 +46,12 @@
     <t xml:space="preserve"> established</t>
   </si>
   <si>
-    <t>E.T.A. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> estimated time of arrival</t>
   </si>
   <si>
     <t>min. </t>
   </si>
   <si>
-    <t>misc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> miscellaneous</t>
-  </si>
-  <si>
-    <t>no. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> number</t>
-  </si>
-  <si>
-    <t>tel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telephone</t>
-  </si>
-  <si>
     <t>vs. </t>
   </si>
   <si>
@@ -121,33 +79,15 @@
     <t>etcetera</t>
   </si>
   <si>
-    <t xml:space="preserve"> minute ; minimum</t>
-  </si>
-  <si>
     <t>Accept</t>
   </si>
   <si>
     <t>acceptance</t>
   </si>
   <si>
-    <t>Anal.</t>
-  </si>
-  <si>
     <t>analysis</t>
   </si>
   <si>
-    <t>Analyt.</t>
-  </si>
-  <si>
-    <t>analytic(al)</t>
-  </si>
-  <si>
-    <t>Apr.</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>betw.</t>
   </si>
   <si>
@@ -160,9 +100,6 @@
     <t>catalogue</t>
   </si>
   <si>
-    <t>Cert.</t>
-  </si>
-  <si>
     <t>certificate</t>
   </si>
   <si>
@@ -172,12 +109,6 @@
     <t>Chem.</t>
   </si>
   <si>
-    <t>chemistry; chemical</t>
-  </si>
-  <si>
-    <t>Classif.</t>
-  </si>
-  <si>
     <t>classification</t>
   </si>
   <si>
@@ -202,9 +133,6 @@
     <t>Electr.</t>
   </si>
   <si>
-    <t>electricity; electric; electrical</t>
-  </si>
-  <si>
     <t>Elem.</t>
   </si>
   <si>
@@ -214,9 +142,6 @@
     <t>eng</t>
   </si>
   <si>
-    <t>engineering; engineer</t>
-  </si>
-  <si>
     <t>Hydraul.</t>
   </si>
   <si>
@@ -238,9 +163,6 @@
     <t>metallurgy</t>
   </si>
   <si>
-    <t>Nat.</t>
-  </si>
-  <si>
     <t>natural</t>
   </si>
   <si>
@@ -250,9 +172,6 @@
     <t>November</t>
   </si>
   <si>
-    <t>Nucl.</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -271,9 +190,6 @@
     <t>observation</t>
   </si>
   <si>
-    <t>Observ</t>
-  </si>
-  <si>
     <t>Oct.</t>
   </si>
   <si>
@@ -289,15 +205,9 @@
     <t>organization</t>
   </si>
   <si>
-    <t>perh.</t>
-  </si>
-  <si>
     <t>perhaps</t>
   </si>
   <si>
-    <t>perf.</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -307,21 +217,12 @@
     <t>prefix</t>
   </si>
   <si>
-    <t>prob.</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
     <t>Probab.</t>
   </si>
   <si>
-    <t>probability; probabilities</t>
-  </si>
-  <si>
-    <t>rel.</t>
-  </si>
-  <si>
     <t>relative</t>
   </si>
   <si>
@@ -352,9 +253,6 @@
     <t>specimen</t>
   </si>
   <si>
-    <t>Stat.</t>
-  </si>
-  <si>
     <t>statistical</t>
   </si>
   <si>
@@ -370,18 +268,12 @@
     <t>system</t>
   </si>
   <si>
-    <t>techn.</t>
-  </si>
-  <si>
     <t>technical</t>
   </si>
   <si>
     <t>tech</t>
   </si>
   <si>
-    <t>Telecomm.</t>
-  </si>
-  <si>
     <t>telecommunications</t>
   </si>
   <si>
@@ -391,15 +283,9 @@
     <t>technology</t>
   </si>
   <si>
-    <t>Transl.</t>
-  </si>
-  <si>
     <t>translation</t>
   </si>
   <si>
-    <t>Treatm.</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -421,15 +307,9 @@
     <t>volume</t>
   </si>
   <si>
-    <t>Yr.</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>Yrs.</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
@@ -475,21 +355,12 @@
     <t>water</t>
   </si>
   <si>
-    <t xml:space="preserve">sys </t>
-  </si>
-  <si>
     <t>cntmt</t>
   </si>
   <si>
     <t>containment</t>
   </si>
   <si>
-    <t>mods</t>
-  </si>
-  <si>
-    <t>modifications</t>
-  </si>
-  <si>
     <t>tech-specs</t>
   </si>
   <si>
@@ -922,9 +793,6 @@
     <t>network</t>
   </si>
   <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -988,18 +856,9 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>top off</t>
-  </si>
-  <si>
     <t>uon</t>
   </si>
   <si>
-    <t>Unless Otherwise Noted</t>
-  </si>
-  <si>
     <t>uno</t>
   </si>
   <si>
@@ -1117,9 +976,6 @@
     <t>clear</t>
   </si>
   <si>
-    <t xml:space="preserve">clr </t>
-  </si>
-  <si>
     <t>clearance</t>
   </si>
   <si>
@@ -1213,9 +1069,6 @@
     <t>yard</t>
   </si>
   <si>
-    <t>engineer</t>
-  </si>
-  <si>
     <t>w/o</t>
   </si>
   <si>
@@ -1468,15 +1321,9 @@
     <t>root mean square</t>
   </si>
   <si>
-    <t>shn</t>
-  </si>
-  <si>
     <t>shown</t>
   </si>
   <si>
-    <t>SHCS</t>
-  </si>
-  <si>
     <t>socket head cap screw</t>
   </si>
   <si>
@@ -1573,12 +1420,6 @@
     <t>absolute</t>
   </si>
   <si>
-    <t xml:space="preserve">chem </t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
     <t>coefficient</t>
   </si>
   <si>
@@ -1639,9 +1480,6 @@
     <t>engrg</t>
   </si>
   <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>ext</t>
   </si>
   <si>
@@ -1768,12 +1606,6 @@
     <t>connection</t>
   </si>
   <si>
-    <t xml:space="preserve">ctr </t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
     <t>cvr</t>
   </si>
   <si>
@@ -1858,9 +1690,6 @@
     <t>m/c</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>mod</t>
   </si>
   <si>
@@ -1960,9 +1789,6 @@
     <t>undercut</t>
   </si>
   <si>
-    <t>vol</t>
-  </si>
-  <si>
     <t>yp</t>
   </si>
   <si>
@@ -1996,15 +1822,6 @@
     <t>temporary</t>
   </si>
   <si>
-    <t>rpls</t>
-  </si>
-  <si>
-    <t>islt</t>
-  </si>
-  <si>
-    <t>ldhx</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -2014,36 +1831,12 @@
     <t>prepare</t>
   </si>
   <si>
-    <t>trh</t>
-  </si>
-  <si>
     <t>cntmnt</t>
   </si>
   <si>
-    <t>llrt</t>
-  </si>
-  <si>
     <t>ctmt</t>
   </si>
   <si>
-    <t>pch</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>fac</t>
-  </si>
-  <si>
-    <t>ist</t>
-  </si>
-  <si>
-    <t>ugs</t>
-  </si>
-  <si>
-    <t>In Service Leak Test </t>
-  </si>
-  <si>
     <t>noz</t>
   </si>
   <si>
@@ -2056,13 +1849,928 @@
     <t>surface</t>
   </si>
   <si>
-    <t>osf</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
     <t>crnr</t>
+  </si>
+  <si>
+    <t>shcs</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>ctr</t>
+  </si>
+  <si>
+    <t>abl</t>
+  </si>
+  <si>
+    <t>ablative</t>
+  </si>
+  <si>
+    <t>abol</t>
+  </si>
+  <si>
+    <t>abolition</t>
+  </si>
+  <si>
+    <t>absol</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>abst</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>accom</t>
+  </si>
+  <si>
+    <t>accomodation</t>
+  </si>
+  <si>
+    <t>accomm</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>agst</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>anal</t>
+  </si>
+  <si>
+    <t>analyt</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>answ</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>apperently</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>artic</t>
+  </si>
+  <si>
+    <t>articulation</t>
+  </si>
+  <si>
+    <t>assem</t>
+  </si>
+  <si>
+    <t>attrib</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>bef</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>btw</t>
+  </si>
+  <si>
+    <t>bord</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>certif</t>
+  </si>
+  <si>
+    <t>chamb</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>circular</t>
+  </si>
+  <si>
+    <t>classif</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>communic</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>concerning</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>concr</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>discov</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>distill</t>
+  </si>
+  <si>
+    <t>distillation</t>
+  </si>
+  <si>
+    <t>econ</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>engin</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>establ</t>
+  </si>
+  <si>
+    <t>established</t>
+  </si>
+  <si>
+    <t>evid</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>expl</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>expaln</t>
+  </si>
+  <si>
+    <t>fam</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>famil</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>geog</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>glossary</t>
+  </si>
+  <si>
+    <t>gov</t>
+  </si>
+  <si>
+    <t>govt</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist </t>
+  </si>
+  <si>
+    <t>imit</t>
+  </si>
+  <si>
+    <t>imitation</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>imperfect</t>
+  </si>
+  <si>
+    <t>impf</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>indicative</t>
+  </si>
+  <si>
+    <t>indef</t>
+  </si>
+  <si>
+    <t>indefinite</t>
+  </si>
+  <si>
+    <t>indic</t>
+  </si>
+  <si>
+    <t>indir</t>
+  </si>
+  <si>
+    <t>industr</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>indust</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>infl</t>
+  </si>
+  <si>
+    <t>influenced</t>
+  </si>
+  <si>
+    <t>inorg</t>
+  </si>
+  <si>
+    <t>inorganic</t>
+  </si>
+  <si>
+    <t>inq</t>
+  </si>
+  <si>
+    <t>inquiry</t>
+  </si>
+  <si>
+    <t>instr</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>inst</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>interj</t>
+  </si>
+  <si>
+    <t>interjection</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>introd</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>meas</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>measurem</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>mech</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>metall</t>
+  </si>
+  <si>
+    <t>meth</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nucl</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>observ</t>
+  </si>
+  <si>
+    <t>occas</t>
+  </si>
+  <si>
+    <t>occasionally</t>
+  </si>
+  <si>
+    <t>occ</t>
+  </si>
+  <si>
+    <t>occurr</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>optics</t>
+  </si>
+  <si>
+    <t>opp</t>
+  </si>
+  <si>
+    <t>opposed</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>perh</t>
+  </si>
+  <si>
+    <t>pers</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>plur</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>pract</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>pred</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>predic</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>probl</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>reas</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>regr</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>statist</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>structural</t>
+  </si>
+  <si>
+    <t>subj</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>symm</t>
+  </si>
+  <si>
+    <t>symmetrical</t>
+  </si>
+  <si>
+    <t>symmetry</t>
+  </si>
+  <si>
+    <t>techn</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>telecomm</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>theor</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>theoret</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>transf</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>transl</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>treatm</t>
+  </si>
+  <si>
+    <t>vb</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>yrs</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>wks</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>asap</t>
+  </si>
+  <si>
+    <t>diy</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>abstr</t>
+  </si>
+  <si>
+    <t>analytic, analytic</t>
+  </si>
+  <si>
+    <t>inspec</t>
+  </si>
+  <si>
+    <t>mngt</t>
+  </si>
+  <si>
+    <t>mngmnt</t>
+  </si>
+  <si>
+    <t>qnty</t>
+  </si>
+  <si>
+    <t>refr</t>
+  </si>
+  <si>
+    <t>register; regression</t>
+  </si>
+  <si>
+    <t>shwn</t>
+  </si>
+  <si>
+    <t>stdrd</t>
+  </si>
+  <si>
+    <t>wgt</t>
+  </si>
+  <si>
+    <t>hydr</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>displ</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>prox</t>
+  </si>
+  <si>
+    <t>proximity</t>
+  </si>
+  <si>
+    <t>approximate</t>
+  </si>
+  <si>
+    <t>approx</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>probability, probabilities</t>
+  </si>
+  <si>
+    <t>minute , minimum</t>
+  </si>
+  <si>
+    <t>engineering , engineer</t>
+  </si>
+  <si>
+    <t>electricity, electric, electrical</t>
+  </si>
+  <si>
+    <t>chemistry, chemical</t>
+  </si>
+  <si>
+    <t>care of</t>
+  </si>
+  <si>
+    <t>circulating</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>switchyard</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>vsl</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>condenser</t>
+  </si>
+  <si>
+    <t>transm</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>centrifugal</t>
+  </si>
+  <si>
+    <t>sens</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>swch</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>batt</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>optical, option</t>
+  </si>
+  <si>
+    <t>parab</t>
+  </si>
+  <si>
+    <t>parabolic</t>
+  </si>
+  <si>
+    <t>centrif</t>
+  </si>
+  <si>
+    <t>diaphragm</t>
+  </si>
+  <si>
+    <t>diaph</t>
+  </si>
+  <si>
+    <t>coupl</t>
+  </si>
+  <si>
+    <t>coupling</t>
+  </si>
+  <si>
+    <t>computer, compressor, composite</t>
+  </si>
+  <si>
+    <t>cylinder, cylindrical</t>
+  </si>
+  <si>
+    <t>magn</t>
+  </si>
+  <si>
+    <t>magnetic</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>susp</t>
+  </si>
+  <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>induction</t>
+  </si>
+  <si>
+    <t>fitt</t>
   </si>
 </sst>
 </file>
@@ -2205,12 +2913,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2554,11 +3260,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2915,10 +3622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A355" sqref="A355:XFD355"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2928,3338 +3636,4281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>614</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>616</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>618</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>618</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>846</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>622</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>624</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>877</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>627</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>146</v>
+      <c r="A23" t="s">
+        <v>630</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>632</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>868</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>635</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>505</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>637</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>843</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>639</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>640</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>508</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>895</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>642</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>645</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>644</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>116</v>
+      <c r="A65" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>515</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>888</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>902</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>647</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>151</v>
+      <c r="A82" t="s">
+        <v>648</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>521</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>874</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>651</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>603</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>468</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>467</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>652</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>653</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>525</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>655</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>656</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>657</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>656</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>907</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>469</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>658</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>660</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>661</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>862</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>862</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>885</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>526</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>473</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>905</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>906</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>609</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>604</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>613</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>228</v>
+        <v>528</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>530</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>531</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>530</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>597</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>662</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>475</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>591</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>592</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>245</v>
-      </c>
-      <c r="B138" t="s">
-        <v>246</v>
+        <v>904</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>664</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>665</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>220</v>
+        <v>859</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>860</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>861</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>860</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>666</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>667</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>844</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>260</v>
+        <v>477</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>668</v>
       </c>
       <c r="B149" t="s">
-        <v>175</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>479</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>480</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>481</v>
+      </c>
+      <c r="B151" t="s">
         <v>174</v>
-      </c>
-      <c r="B151" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
+        <v>873</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>872</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>670</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>611</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>483</v>
       </c>
       <c r="B159" t="s">
-        <v>283</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="B161" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="B162" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>294</v>
+        <v>532</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>671</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>300</v>
+        <v>673</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>674</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>845</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>675</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>676</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="B172" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>125</v>
       </c>
       <c r="B173" t="s">
-        <v>311</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="B174" t="s">
-        <v>313</v>
+        <v>677</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>680</v>
       </c>
       <c r="B175" t="s">
-        <v>315</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>678</v>
       </c>
       <c r="B176" t="s">
-        <v>317</v>
+        <v>679</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>318</v>
+        <v>486</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>681</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>682</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>322</v>
+        <v>683</v>
       </c>
       <c r="B179" t="s">
-        <v>323</v>
+        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>324</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
-        <v>325</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>326</v>
+        <v>534</v>
       </c>
       <c r="B181" t="s">
-        <v>327</v>
+        <v>535</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>328</v>
+        <v>916</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>536</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s">
-        <v>336</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="B187" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>339</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s">
-        <v>340</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="B189" t="s">
-        <v>342</v>
+        <v>858</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>344</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B191" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="B192" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="B193" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="B194" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="B195" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>355</v>
+        <v>684</v>
       </c>
       <c r="B196" t="s">
-        <v>356</v>
+        <v>685</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>359</v>
+        <v>538</v>
       </c>
       <c r="B198" t="s">
-        <v>360</v>
+        <v>539</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>361</v>
+        <v>686</v>
       </c>
       <c r="B199" t="s">
-        <v>362</v>
+        <v>687</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>363</v>
+        <v>688</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>689</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>365</v>
+        <v>690</v>
       </c>
       <c r="B201" t="s">
-        <v>366</v>
+        <v>689</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>691</v>
       </c>
       <c r="B202" t="s">
-        <v>368</v>
+        <v>692</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="B203" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>372</v>
+        <v>694</v>
       </c>
       <c r="B205" t="s">
-        <v>373</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>374</v>
+        <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>375</v>
+        <v>541</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>697</v>
       </c>
       <c r="B208" t="s">
-        <v>379</v>
+        <v>696</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B209" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="B210" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="B211" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="B212" t="s">
-        <v>385</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="B214" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>203</v>
+        <v>544</v>
       </c>
       <c r="B215" t="s">
-        <v>204</v>
+        <v>545</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="B216" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="B217" t="s">
-        <v>393</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="B218" t="s">
-        <v>393</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>395</v>
+        <v>857</v>
       </c>
       <c r="B219" t="s">
-        <v>396</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B220" t="s">
-        <v>397</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="B221" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
-        <v>399</v>
+        <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B223" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="B224" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>404</v>
+        <v>266</v>
       </c>
       <c r="B225" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>406</v>
+        <v>698</v>
       </c>
       <c r="B226" t="s">
-        <v>407</v>
+        <v>699</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>408</v>
+        <v>700</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>701</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>410</v>
+        <v>702</v>
       </c>
       <c r="B228" t="s">
-        <v>115</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>413</v>
+        <v>703</v>
       </c>
       <c r="B230" t="s">
-        <v>414</v>
+        <v>704</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>416</v>
+        <v>703</v>
       </c>
       <c r="B231" t="s">
-        <v>415</v>
+        <v>915</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>417</v>
+        <v>706</v>
       </c>
       <c r="B232" t="s">
-        <v>418</v>
+        <v>707</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>419</v>
+        <v>708</v>
       </c>
       <c r="B233" t="s">
-        <v>420</v>
+        <v>705</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>421</v>
+        <v>709</v>
       </c>
       <c r="B234" t="s">
-        <v>422</v>
+        <v>704</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>423</v>
+        <v>712</v>
       </c>
       <c r="B235" t="s">
-        <v>424</v>
+        <v>711</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="B236" t="s">
-        <v>424</v>
+        <v>711</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>425</v>
+        <v>713</v>
       </c>
       <c r="B237" t="s">
-        <v>426</v>
+        <v>714</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>427</v>
+        <v>715</v>
       </c>
       <c r="B238" t="s">
-        <v>428</v>
+        <v>716</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>429</v>
+        <v>117</v>
       </c>
       <c r="B239" t="s">
-        <v>430</v>
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>431</v>
+        <v>717</v>
       </c>
       <c r="B240" t="s">
-        <v>47</v>
+        <v>718</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>431</v>
+        <v>719</v>
       </c>
       <c r="B241" t="s">
-        <v>432</v>
+        <v>720</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>433</v>
+        <v>195</v>
       </c>
       <c r="B242" t="s">
-        <v>434</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>435</v>
+        <v>848</v>
       </c>
       <c r="B243" t="s">
-        <v>375</v>
+        <v>196</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>260</v>
+        <v>869</v>
       </c>
       <c r="B244" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>262</v>
+        <v>723</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="B246" t="s">
-        <v>438</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>439</v>
+        <v>721</v>
       </c>
       <c r="B247" t="s">
-        <v>440</v>
+        <v>722</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>310</v>
+        <v>721</v>
       </c>
       <c r="B248" t="s">
-        <v>441</v>
+        <v>724</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>186</v>
       </c>
       <c r="B249" t="s">
-        <v>443</v>
+        <v>187</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="B250" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>446</v>
+        <v>725</v>
       </c>
       <c r="B251" t="s">
-        <v>447</v>
+        <v>726</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="B252" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>449</v>
+        <v>727</v>
       </c>
       <c r="B253" t="s">
-        <v>451</v>
+        <v>728</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>452</v>
+        <v>729</v>
       </c>
       <c r="B254" t="s">
-        <v>453</v>
+        <v>728</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>454</v>
+        <v>883</v>
       </c>
       <c r="B255" t="s">
-        <v>455</v>
+        <v>884</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="B257" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>458</v>
+        <v>546</v>
       </c>
       <c r="B258" t="s">
-        <v>450</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>459</v>
+        <v>548</v>
       </c>
       <c r="B259" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>460</v>
+        <v>249</v>
       </c>
       <c r="B260" t="s">
-        <v>461</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>463</v>
+        <v>730</v>
       </c>
       <c r="B261" t="s">
-        <v>462</v>
+        <v>731</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>464</v>
+        <v>730</v>
       </c>
       <c r="B262" t="s">
-        <v>465</v>
+        <v>731</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B263" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="B264" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>468</v>
+        <v>552</v>
       </c>
       <c r="B265" t="s">
-        <v>467</v>
+        <v>333</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>469</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>470</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>471</v>
+        <v>393</v>
       </c>
       <c r="B267" t="s">
-        <v>472</v>
+        <v>394</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B268" t="s">
-        <v>473</v>
+        <v>323</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B269" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>476</v>
+        <v>555</v>
       </c>
       <c r="B270" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="B271" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>320</v>
+        <v>911</v>
       </c>
       <c r="B272" t="s">
-        <v>321</v>
+        <v>910</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>480</v>
+        <v>909</v>
       </c>
       <c r="B273" t="s">
-        <v>481</v>
+        <v>910</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="B274" t="s">
-        <v>483</v>
+        <v>398</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>484</v>
+        <v>732</v>
       </c>
       <c r="B275" t="s">
-        <v>485</v>
+        <v>733</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="B276" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>488</v>
+        <v>336</v>
       </c>
       <c r="B277" t="s">
-        <v>489</v>
+        <v>337</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
       <c r="B278" t="s">
-        <v>491</v>
+        <v>401</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="B279" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>494</v>
+        <v>734</v>
       </c>
       <c r="B280" t="s">
-        <v>495</v>
+        <v>735</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>496</v>
+        <v>736</v>
       </c>
       <c r="B281" t="s">
-        <v>497</v>
+        <v>737</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>498</v>
+        <v>738</v>
       </c>
       <c r="B282" t="s">
-        <v>499</v>
+        <v>739</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>500</v>
+        <v>897</v>
       </c>
       <c r="B283" t="s">
-        <v>501</v>
+        <v>898</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>502</v>
+        <v>740</v>
       </c>
       <c r="B284" t="s">
-        <v>503</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>504</v>
+        <v>45</v>
       </c>
       <c r="B285" t="s">
-        <v>505</v>
+        <v>46</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>506</v>
+        <v>741</v>
       </c>
       <c r="B286" t="s">
-        <v>507</v>
+        <v>742</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="B287" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="B288" t="s">
-        <v>510</v>
+        <v>406</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>511</v>
+        <v>407</v>
       </c>
       <c r="B289" t="s">
-        <v>512</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>513</v>
+        <v>251</v>
       </c>
       <c r="B290" t="s">
-        <v>514</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="B291" t="s">
-        <v>516</v>
+        <v>121</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>517</v>
+        <v>124</v>
       </c>
       <c r="B292" t="s">
-        <v>518</v>
+        <v>121</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="B293" t="s">
-        <v>519</v>
+        <v>339</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>521</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>519</v>
+        <v>871</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>522</v>
+        <v>221</v>
       </c>
       <c r="B295" t="s">
-        <v>523</v>
+        <v>222</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>524</v>
+        <v>850</v>
       </c>
       <c r="B296" t="s">
-        <v>525</v>
+        <v>121</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>526</v>
+        <v>122</v>
       </c>
       <c r="B297" t="s">
-        <v>527</v>
+        <v>121</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>528</v>
+        <v>122</v>
       </c>
       <c r="B298" t="s">
-        <v>529</v>
+        <v>121</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>530</v>
+        <v>122</v>
       </c>
       <c r="B299" t="s">
-        <v>531</v>
+        <v>121</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="B300" t="s">
-        <v>533</v>
+        <v>121</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="B301" t="s">
-        <v>217</v>
+        <v>557</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>535</v>
+        <v>863</v>
       </c>
       <c r="B302" t="s">
-        <v>217</v>
+        <v>864</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>536</v>
+        <v>409</v>
       </c>
       <c r="B303" t="s">
-        <v>537</v>
+        <v>401</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="B304" t="s">
-        <v>539</v>
+        <v>402</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>540</v>
+        <v>253</v>
       </c>
       <c r="B305" t="s">
-        <v>541</v>
+        <v>254</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="B306" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B307" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="B308" t="s">
-        <v>545</v>
+        <v>743</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="B309" t="s">
-        <v>287</v>
+        <v>53</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>546</v>
+        <v>51</v>
       </c>
       <c r="B310" t="s">
-        <v>547</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>548</v>
+        <v>744</v>
       </c>
       <c r="B311" t="s">
-        <v>547</v>
+        <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>549</v>
+        <v>262</v>
       </c>
       <c r="B312" t="s">
-        <v>550</v>
+        <v>263</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>551</v>
+        <v>411</v>
       </c>
       <c r="B313" t="s">
-        <v>552</v>
+        <v>412</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="B314" t="s">
-        <v>491</v>
+        <v>413</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B315" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>555</v>
+        <v>255</v>
       </c>
       <c r="B316" t="s">
-        <v>556</v>
+        <v>256</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="B317" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>270</v>
+        <v>745</v>
       </c>
       <c r="B318" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B319" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="B320" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>559</v>
+        <v>419</v>
       </c>
       <c r="B321" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>561</v>
+        <v>105</v>
       </c>
       <c r="B322" t="s">
-        <v>409</v>
+        <v>49</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="B323" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="B324" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>564</v>
+        <v>340</v>
       </c>
       <c r="B325" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>565</v>
+        <v>340</v>
       </c>
       <c r="B326" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>359</v>
+        <v>563</v>
       </c>
       <c r="B327" t="s">
-        <v>360</v>
+        <v>564</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>567</v>
+        <v>747</v>
       </c>
       <c r="B328" t="s">
-        <v>568</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>569</v>
+        <v>746</v>
       </c>
       <c r="B329" t="s">
-        <v>570</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>571</v>
+        <v>748</v>
       </c>
       <c r="B330" t="s">
-        <v>572</v>
+        <v>749</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>573</v>
+        <v>54</v>
       </c>
       <c r="B331" t="s">
-        <v>574</v>
+        <v>55</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="B332" t="s">
-        <v>574</v>
+        <v>751</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>576</v>
+        <v>752</v>
       </c>
       <c r="B333" t="s">
-        <v>577</v>
+        <v>55</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>363</v>
+        <v>755</v>
       </c>
       <c r="B334" t="s">
-        <v>366</v>
+        <v>754</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>367</v>
+        <v>753</v>
       </c>
       <c r="B335" t="s">
-        <v>368</v>
+        <v>754</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="B336" t="s">
-        <v>578</v>
+        <v>757</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>275</v>
+        <v>566</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>522</v>
+        <v>56</v>
       </c>
       <c r="B338" t="s">
-        <v>523</v>
+        <v>57</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>580</v>
+        <v>264</v>
       </c>
       <c r="B339" t="s">
-        <v>581</v>
+        <v>265</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="B340" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>582</v>
+        <v>759</v>
       </c>
       <c r="B341" t="s">
-        <v>583</v>
+        <v>760</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>584</v>
+        <v>171</v>
       </c>
       <c r="B342" t="s">
-        <v>585</v>
+        <v>172</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>586</v>
+        <v>268</v>
       </c>
       <c r="B343" t="s">
-        <v>587</v>
+        <v>269</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B344" t="s">
-        <v>281</v>
+        <v>758</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>588</v>
+        <v>268</v>
       </c>
       <c r="B345" t="s">
-        <v>589</v>
+        <v>899</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>282</v>
+        <v>761</v>
       </c>
       <c r="B346" t="s">
-        <v>283</v>
+        <v>762</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>590</v>
+        <v>763</v>
       </c>
       <c r="B347" t="s">
-        <v>591</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>592</v>
+        <v>58</v>
       </c>
       <c r="B348" t="s">
-        <v>593</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>260</v>
+        <v>764</v>
       </c>
       <c r="B349" t="s">
-        <v>261</v>
+        <v>765</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>594</v>
+        <v>764</v>
       </c>
       <c r="B350" t="s">
-        <v>595</v>
+        <v>766</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>596</v>
+        <v>900</v>
       </c>
       <c r="B351" t="s">
-        <v>597</v>
+        <v>901</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="B352" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="B353" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="B354" t="s">
-        <v>601</v>
+        <v>271</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>602</v>
+        <v>422</v>
       </c>
       <c r="B355" t="s">
-        <v>603</v>
+        <v>423</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>604</v>
+        <v>767</v>
       </c>
       <c r="B356" t="s">
-        <v>605</v>
+        <v>62</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>606</v>
+        <v>768</v>
       </c>
       <c r="B357" t="s">
-        <v>607</v>
+        <v>61</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>608</v>
+        <v>769</v>
       </c>
       <c r="B358" t="s">
-        <v>381</v>
+        <v>770</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>609</v>
+        <v>272</v>
       </c>
       <c r="B359" t="s">
-        <v>610</v>
+        <v>273</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>611</v>
+        <v>298</v>
       </c>
       <c r="B360" t="s">
-        <v>445</v>
+        <v>299</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="B361" t="s">
-        <v>612</v>
+        <v>424</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>613</v>
+        <v>298</v>
       </c>
       <c r="B362" t="s">
-        <v>614</v>
+        <v>772</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>615</v>
+        <v>425</v>
       </c>
       <c r="B363" t="s">
-        <v>616</v>
+        <v>426</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>617</v>
+        <v>771</v>
       </c>
       <c r="B364" t="s">
-        <v>618</v>
+        <v>772</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>388</v>
+        <v>197</v>
       </c>
       <c r="B365" t="s">
-        <v>389</v>
+        <v>198</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="B366" t="s">
-        <v>619</v>
+        <v>428</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>620</v>
+        <v>429</v>
       </c>
       <c r="B367" t="s">
-        <v>621</v>
+        <v>430</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>622</v>
+        <v>773</v>
       </c>
       <c r="B368" t="s">
-        <v>623</v>
+        <v>774</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="B369" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="B370" t="s">
-        <v>627</v>
+        <v>572</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>628</v>
+        <v>776</v>
       </c>
       <c r="B371" t="s">
-        <v>629</v>
+        <v>777</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>320</v>
+        <v>776</v>
       </c>
       <c r="B372" t="s">
-        <v>321</v>
+        <v>775</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>630</v>
+        <v>778</v>
       </c>
       <c r="B373" t="s">
-        <v>631</v>
+        <v>779</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>632</v>
+        <v>780</v>
       </c>
       <c r="B374" t="s">
-        <v>552</v>
+        <v>779</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>633</v>
+        <v>781</v>
       </c>
       <c r="B375" t="s">
-        <v>634</v>
+        <v>779</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="B376" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>635</v>
+        <v>150</v>
       </c>
       <c r="B377" t="s">
-        <v>636</v>
+        <v>151</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>637</v>
+        <v>150</v>
       </c>
       <c r="B378" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="B379" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>639</v>
+        <v>782</v>
       </c>
       <c r="B380" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>490</v>
+        <v>162</v>
       </c>
       <c r="B381" t="s">
-        <v>491</v>
+        <v>163</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B382" t="s">
-        <v>641</v>
+        <v>163</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>642</v>
+        <v>784</v>
       </c>
       <c r="B383" t="s">
-        <v>643</v>
+        <v>65</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="B384" t="s">
-        <v>391</v>
+        <v>870</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>500</v>
+        <v>785</v>
       </c>
       <c r="B385" t="s">
-        <v>501</v>
+        <v>786</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>504</v>
+        <v>593</v>
       </c>
       <c r="B386" t="s">
-        <v>505</v>
+        <v>594</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>644</v>
+        <v>787</v>
       </c>
       <c r="B387" t="s">
-        <v>645</v>
+        <v>788</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>392</v>
+        <v>865</v>
       </c>
       <c r="B388" t="s">
-        <v>393</v>
+        <v>866</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>394</v>
+        <v>158</v>
       </c>
       <c r="B389" t="s">
-        <v>393</v>
+        <v>159</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>646</v>
+        <v>137</v>
       </c>
       <c r="B390" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>647</v>
+        <v>274</v>
       </c>
       <c r="B391" t="s">
-        <v>648</v>
+        <v>275</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>649</v>
+        <v>851</v>
       </c>
       <c r="B392" t="s">
-        <v>650</v>
+        <v>277</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B393" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>63</v>
+        <v>573</v>
       </c>
       <c r="B394" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="B395" t="s">
-        <v>652</v>
+        <v>498</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>653</v>
+        <v>193</v>
       </c>
       <c r="B396" t="s">
-        <v>654</v>
+        <v>194</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>655</v>
+        <v>789</v>
       </c>
       <c r="B397" t="s">
-        <v>656</v>
+        <v>790</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="B398" t="s">
-        <v>657</v>
+        <v>144</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="B399" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>193</v>
+        <v>576</v>
       </c>
       <c r="B400" t="s">
-        <v>663</v>
+        <v>577</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>658</v>
+        <v>600</v>
+      </c>
+      <c r="B401" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>659</v>
+        <v>129</v>
       </c>
       <c r="B402" t="s">
-        <v>673</v>
+        <v>132</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>660</v>
+        <v>852</v>
+      </c>
+      <c r="B403" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>661</v>
+        <v>791</v>
       </c>
       <c r="B404" t="s">
-        <v>662</v>
+        <v>793</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>664</v>
+        <v>792</v>
+      </c>
+      <c r="B405" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B406" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>665</v>
+        <v>223</v>
       </c>
       <c r="B407" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>180</v>
+        <v>794</v>
       </c>
       <c r="B408" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>666</v>
+        <v>185</v>
+      </c>
+      <c r="B409" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>667</v>
+        <v>795</v>
+      </c>
+      <c r="B410" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>668</v>
+        <v>68</v>
+      </c>
+      <c r="B411" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>669</v>
+        <v>612</v>
+      </c>
+      <c r="B412" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>670</v>
+        <v>131</v>
+      </c>
+      <c r="B413" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>671</v>
+        <v>796</v>
+      </c>
+      <c r="B414" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>672</v>
+        <v>136</v>
+      </c>
+      <c r="B415" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>646</v>
+        <v>798</v>
       </c>
       <c r="B416" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>674</v>
+        <v>70</v>
       </c>
       <c r="B417" t="s">
-        <v>675</v>
+        <v>72</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>586</v>
+        <v>334</v>
       </c>
       <c r="B418" t="s">
-        <v>587</v>
+        <v>335</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>676</v>
+        <v>15</v>
       </c>
       <c r="B419" t="s">
-        <v>677</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>678</v>
+        <v>431</v>
+      </c>
+      <c r="B420" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>679</v>
+        <v>183</v>
+      </c>
+      <c r="B421" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>497</v>
+      </c>
+      <c r="B422" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>154</v>
+      </c>
+      <c r="B423" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>180</v>
+      </c>
+      <c r="B424" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>166</v>
+      </c>
+      <c r="B425" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>168</v>
+      </c>
+      <c r="B426" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>799</v>
+      </c>
+      <c r="B427" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>799</v>
+      </c>
+      <c r="B428" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>802</v>
+      </c>
+      <c r="B429" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>890</v>
+      </c>
+      <c r="B430" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>73</v>
+      </c>
+      <c r="B431" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>182</v>
+      </c>
+      <c r="B432" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>578</v>
+      </c>
+      <c r="B433" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>610</v>
+      </c>
+      <c r="B434" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>854</v>
+      </c>
+      <c r="B436" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>225</v>
+      </c>
+      <c r="B437" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>225</v>
+      </c>
+      <c r="B438" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>580</v>
+      </c>
+      <c r="B439" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>437</v>
+      </c>
+      <c r="B440" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>803</v>
+      </c>
+      <c r="B441" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>75</v>
+      </c>
+      <c r="B442" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>582</v>
+      </c>
+      <c r="B443" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>300</v>
+      </c>
+      <c r="B444" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>805</v>
+      </c>
+      <c r="B445" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>806</v>
+      </c>
+      <c r="B446" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>439</v>
+      </c>
+      <c r="B447" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>855</v>
+      </c>
+      <c r="B448" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>441</v>
+      </c>
+      <c r="B449" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>807</v>
+      </c>
+      <c r="B450" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>809</v>
+      </c>
+      <c r="B451" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>809</v>
+      </c>
+      <c r="B452" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>812</v>
+      </c>
+      <c r="B453" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>107</v>
+      </c>
+      <c r="B454" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>107</v>
+      </c>
+      <c r="B455" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>814</v>
+      </c>
+      <c r="B456" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>607</v>
+      </c>
+      <c r="B457" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>607</v>
+      </c>
+      <c r="B458" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>78</v>
+      </c>
+      <c r="B459" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>912</v>
+      </c>
+      <c r="B460" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>139</v>
+      </c>
+      <c r="B461" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>139</v>
+      </c>
+      <c r="B462" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>139</v>
+      </c>
+      <c r="B463" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>892</v>
+      </c>
+      <c r="B464" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>815</v>
+      </c>
+      <c r="B465" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>815</v>
+      </c>
+      <c r="B466" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>361</v>
+      </c>
+      <c r="B467" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>80</v>
+      </c>
+      <c r="B468" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>302</v>
+      </c>
+      <c r="B469" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>443</v>
+      </c>
+      <c r="B470" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>83</v>
+      </c>
+      <c r="B471" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>83</v>
+      </c>
+      <c r="B472" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>113</v>
+      </c>
+      <c r="B473" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>818</v>
+      </c>
+      <c r="B474" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>85</v>
+      </c>
+      <c r="B475" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>819</v>
+      </c>
+      <c r="B476" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>822</v>
+      </c>
+      <c r="B477" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>821</v>
+      </c>
+      <c r="B478" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>160</v>
+      </c>
+      <c r="B479" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>160</v>
+      </c>
+      <c r="B480" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>585</v>
+      </c>
+      <c r="B481" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>823</v>
+      </c>
+      <c r="B482" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>825</v>
+      </c>
+      <c r="B483" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>342</v>
+      </c>
+      <c r="B484" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>445</v>
+      </c>
+      <c r="B485" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>447</v>
+      </c>
+      <c r="B486" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>449</v>
+      </c>
+      <c r="B487" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>826</v>
+      </c>
+      <c r="B488" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>828</v>
+      </c>
+      <c r="B489" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>828</v>
+      </c>
+      <c r="B490" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>830</v>
+      </c>
+      <c r="B491" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>886</v>
+      </c>
+      <c r="B492" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>831</v>
+      </c>
+      <c r="B493" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>832</v>
+      </c>
+      <c r="B494" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>89</v>
+      </c>
+      <c r="B495" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>451</v>
+      </c>
+      <c r="B496" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>453</v>
+      </c>
+      <c r="B497" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>304</v>
+      </c>
+      <c r="B498" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>455</v>
+      </c>
+      <c r="B499" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>306</v>
+      </c>
+      <c r="B500" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>587</v>
+      </c>
+      <c r="B501" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>457</v>
+      </c>
+      <c r="B502" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>188</v>
+      </c>
+      <c r="B503" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>91</v>
+      </c>
+      <c r="B504" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>189</v>
+      </c>
+      <c r="B505" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>279</v>
+      </c>
+      <c r="B506" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>278</v>
+      </c>
+      <c r="B507" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>460</v>
+      </c>
+      <c r="B508" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>893</v>
+      </c>
+      <c r="B509" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>835</v>
+      </c>
+      <c r="B510" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>833</v>
+      </c>
+      <c r="B511" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>344</v>
+      </c>
+      <c r="B512" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>346</v>
+      </c>
+      <c r="B513" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>346</v>
+      </c>
+      <c r="B514" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>595</v>
+      </c>
+      <c r="B515" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>175</v>
+      </c>
+      <c r="B516" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>93</v>
+      </c>
+      <c r="B517" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B518" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>881</v>
+      </c>
+      <c r="B519" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>148</v>
+      </c>
+      <c r="B520" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>462</v>
+      </c>
+      <c r="B521" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>349</v>
+      </c>
+      <c r="B522" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>308</v>
+      </c>
+      <c r="B523" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>856</v>
+      </c>
+      <c r="B524" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>499</v>
+      </c>
+      <c r="B525" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>499</v>
+      </c>
+      <c r="B526" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>841</v>
+      </c>
+      <c r="B527" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>841</v>
+      </c>
+      <c r="B528" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>501</v>
+      </c>
+      <c r="B529" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>109</v>
+      </c>
+      <c r="B530" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>347</v>
+      </c>
+      <c r="B531" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>589</v>
+      </c>
+      <c r="B532" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>838</v>
+      </c>
+      <c r="B533" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>839</v>
+      </c>
+      <c r="B534" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B534">
+    <sortCondition ref="A1:A534"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,105 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE9464-4A6A-C346-B76F-D950AFE6C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CCFD89-D932-4842-961C-DE7FB933B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54700" yWindow="1640" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="number" sheetId="3" r:id="rId1"/>
+    <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="914">
   <si>
     <t>Full</t>
   </si>
   <si>
-    <t>approx. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> approximately</t>
-  </si>
-  <si>
-    <t>appt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> appointment</t>
-  </si>
-  <si>
-    <t>A.S.A.P. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> as soon as possible</t>
-  </si>
-  <si>
     <t>c/o </t>
   </si>
   <si>
-    <t xml:space="preserve"> care of</t>
-  </si>
-  <si>
-    <t>dept. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> department</t>
-  </si>
-  <si>
-    <t>D.I.Y. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Do it yourself</t>
-  </si>
-  <si>
-    <t>est. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> established</t>
-  </si>
-  <si>
-    <t>E.T.A. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> estimated time of arrival</t>
-  </si>
-  <si>
-    <t>min. </t>
-  </si>
-  <si>
-    <t>misc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> miscellaneous</t>
-  </si>
-  <si>
-    <t>no. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> number</t>
-  </si>
-  <si>
-    <t>tel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telephone</t>
-  </si>
-  <si>
-    <t>vs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> versus</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -121,144 +49,57 @@
     <t>etcetera</t>
   </si>
   <si>
-    <t xml:space="preserve"> minute ; minimum</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
     <t>acceptance</t>
   </si>
   <si>
-    <t>Anal.</t>
-  </si>
-  <si>
     <t>analysis</t>
   </si>
   <si>
-    <t>Analyt.</t>
-  </si>
-  <si>
-    <t>analytic(al)</t>
-  </si>
-  <si>
-    <t>Apr.</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>betw.</t>
-  </si>
-  <si>
     <t>between</t>
   </si>
   <si>
-    <t>Catal.</t>
-  </si>
-  <si>
     <t>catalogue</t>
   </si>
   <si>
-    <t>Cert.</t>
-  </si>
-  <si>
     <t>certificate</t>
   </si>
   <si>
-    <t>Certif.</t>
-  </si>
-  <si>
-    <t>Chem.</t>
-  </si>
-  <si>
-    <t>chemistry; chemical</t>
-  </si>
-  <si>
-    <t>Classif.</t>
-  </si>
-  <si>
     <t>classification</t>
   </si>
   <si>
-    <t>Dec.</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>def.</t>
-  </si>
-  <si>
     <t>definition</t>
   </si>
   <si>
-    <t>Dept.</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
-    <t>Electr.</t>
-  </si>
-  <si>
-    <t>electricity; electric; electrical</t>
-  </si>
-  <si>
-    <t>Elem.</t>
-  </si>
-  <si>
     <t>element</t>
   </si>
   <si>
     <t>eng</t>
   </si>
   <si>
-    <t>engineering; engineer</t>
-  </si>
-  <si>
-    <t>Hydraul.</t>
-  </si>
-  <si>
     <t>hydraulic</t>
   </si>
   <si>
     <t xml:space="preserve">hydr </t>
   </si>
   <si>
-    <t>Impr.</t>
-  </si>
-  <si>
     <t>improved</t>
   </si>
   <si>
-    <t>Metall.</t>
-  </si>
-  <si>
     <t>metallurgy</t>
   </si>
   <si>
-    <t>Nat.</t>
-  </si>
-  <si>
     <t>natural</t>
   </si>
   <si>
-    <t>N.E.</t>
-  </si>
-  <si>
     <t>November</t>
   </si>
   <si>
-    <t>Nucl.</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
-    <t>N.W.</t>
-  </si>
-  <si>
     <t>north-west</t>
   </si>
   <si>
@@ -271,195 +112,78 @@
     <t>observation</t>
   </si>
   <si>
-    <t>Observ</t>
-  </si>
-  <si>
-    <t>Oct.</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Org.</t>
-  </si>
-  <si>
     <t>organic</t>
   </si>
   <si>
     <t>organization</t>
   </si>
   <si>
-    <t>perh.</t>
-  </si>
-  <si>
     <t>perhaps</t>
   </si>
   <si>
-    <t>perf.</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pref.</t>
-  </si>
-  <si>
     <t>prefix</t>
   </si>
   <si>
-    <t>prob.</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>Probab.</t>
-  </si>
-  <si>
-    <t>probability; probabilities</t>
-  </si>
-  <si>
-    <t>rel.</t>
-  </si>
-  <si>
     <t>relative</t>
   </si>
   <si>
-    <t>Rept.</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
-    <t>Rev.</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
     <t>revised</t>
   </si>
   <si>
-    <t>Sept.</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Spec.</t>
-  </si>
-  <si>
     <t>specimen</t>
   </si>
   <si>
-    <t>Stat.</t>
-  </si>
-  <si>
     <t>statistical</t>
   </si>
   <si>
-    <t>Surv.</t>
-  </si>
-  <si>
-    <t>survey; surveying</t>
-  </si>
-  <si>
-    <t>Syst.</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
-    <t>techn.</t>
-  </si>
-  <si>
     <t>technical</t>
   </si>
   <si>
     <t>tech</t>
   </si>
   <si>
-    <t>Telecomm.</t>
-  </si>
-  <si>
     <t>telecommunications</t>
   </si>
   <si>
-    <t>Technol.</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
-    <t>Transl.</t>
-  </si>
-  <si>
     <t>translation</t>
   </si>
   <si>
-    <t>Treatm.</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Troub.	</t>
-  </si>
-  <si>
-    <t>Troublesome</t>
-  </si>
-  <si>
-    <t>unkn.</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>Vol.</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
-    <t>Yr.</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>Yrs.</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Jannuary</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
     <t>february</t>
   </si>
   <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>april</t>
   </si>
   <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
     <t>btwn</t>
   </si>
   <si>
@@ -475,24 +199,12 @@
     <t>water</t>
   </si>
   <si>
-    <t xml:space="preserve">sys </t>
-  </si>
-  <si>
     <t>cntmt</t>
   </si>
   <si>
     <t>containment</t>
   </si>
   <si>
-    <t>mods</t>
-  </si>
-  <si>
-    <t>modifications</t>
-  </si>
-  <si>
-    <t>tech-specs</t>
-  </si>
-  <si>
     <t>technical specifications</t>
   </si>
   <si>
@@ -559,9 +271,6 @@
     <t>revision</t>
   </si>
   <si>
-    <t>Rev</t>
-  </si>
-  <si>
     <t>pzr</t>
   </si>
   <si>
@@ -730,9 +439,6 @@
     <t>install</t>
   </si>
   <si>
-    <t>re-inst</t>
-  </si>
-  <si>
     <t>reinstall</t>
   </si>
   <si>
@@ -755,6 +461,2307 @@
   </si>
   <si>
     <t>det</t>
+  </si>
+  <si>
+    <t>afl</t>
+  </si>
+  <si>
+    <t>agl</t>
+  </si>
+  <si>
+    <t>bof</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>downpipe</t>
+  </si>
+  <si>
+    <t>dwg</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>floor level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elec </t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>far side</t>
+  </si>
+  <si>
+    <t>ftg</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce </t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>as built</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>communications</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>each way</t>
+  </si>
+  <si>
+    <t>fos</t>
+  </si>
+  <si>
+    <t>factor of safety</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>high pressure</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>inspection opening</t>
+  </si>
+  <si>
+    <t>i/o</t>
+  </si>
+  <si>
+    <t>input and output</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>key joint</t>
+  </si>
+  <si>
+    <t>mfr</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>npr</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>outer diameter</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>inner diameter</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pcd</t>
+  </si>
+  <si>
+    <t>pfc</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>uon</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>cfw</t>
+  </si>
+  <si>
+    <t>continuous fillet weld</t>
+  </si>
+  <si>
+    <t>fsbw</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>file transfer protocol</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>fillet weld</t>
+  </si>
+  <si>
+    <t>hot rolled</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>human resources</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>mild steep</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>stainless steel</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tungsten carbide</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>btm</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>center line</t>
+  </si>
+  <si>
+    <t>clr</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>clearance</t>
+  </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center </t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq </t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>horiz</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>left hand</t>
+  </si>
+  <si>
+    <t>rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right hand </t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>near side</t>
+  </si>
+  <si>
+    <t>thk</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>w/o</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>amer</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>anneal</t>
+  </si>
+  <si>
+    <t>aql</t>
+  </si>
+  <si>
+    <t>acceptable quality level</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>as required</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>bolt circle</t>
+  </si>
+  <si>
+    <t>bolt hole circle</t>
+  </si>
+  <si>
+    <t>bhc</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>bill of materials</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>blueprint</t>
+  </si>
+  <si>
+    <t>brz</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>computer-aided design</t>
+  </si>
+  <si>
+    <t>c-c</t>
+  </si>
+  <si>
+    <t>center to center</t>
+  </si>
+  <si>
+    <t>cda</t>
+  </si>
+  <si>
+    <t>current design activity</t>
+  </si>
+  <si>
+    <t>cert</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>controlled radius</t>
+  </si>
+  <si>
+    <t>eql</t>
+  </si>
+  <si>
+    <t>fitting</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>general note</t>
+  </si>
+  <si>
+    <t>iaw</t>
+  </si>
+  <si>
+    <t>in accordance with</t>
+  </si>
+  <si>
+    <t>indentity</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>list of material</t>
+  </si>
+  <si>
+    <t>mach</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mbp</t>
+  </si>
+  <si>
+    <t>mbw</t>
+  </si>
+  <si>
+    <t>measurement between pins</t>
+  </si>
+  <si>
+    <t>measurement between wires</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>make from</t>
+  </si>
+  <si>
+    <t>mfd</t>
+  </si>
+  <si>
+    <t>manufactured</t>
+  </si>
+  <si>
+    <t>mfg</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>mop</t>
+  </si>
+  <si>
+    <t>mow</t>
+  </si>
+  <si>
+    <t>ncm</t>
+  </si>
+  <si>
+    <t>nonconforming material</t>
+  </si>
+  <si>
+    <t>nonconformance report</t>
+  </si>
+  <si>
+    <t>ncr</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>note list</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>normalized</t>
+  </si>
+  <si>
+    <t>normd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc </t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>part list</t>
+  </si>
+  <si>
+    <t>plm</t>
+  </si>
+  <si>
+    <t>plant lifecycle management</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>part number</t>
+  </si>
+  <si>
+    <t>poi</t>
+  </si>
+  <si>
+    <t>point of intersection</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>root mean square</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>socket head cap screw</t>
+  </si>
+  <si>
+    <t>shss</t>
+  </si>
+  <si>
+    <t>socket head set screw</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>tdp</t>
+  </si>
+  <si>
+    <t>technical data package</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>total indicator reading</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>uai</t>
+  </si>
+  <si>
+    <t>use as is</t>
+  </si>
+  <si>
+    <t>ull</t>
+  </si>
+  <si>
+    <t>under low limit</t>
+  </si>
+  <si>
+    <t>unless otherwise noted</t>
+  </si>
+  <si>
+    <t>uos</t>
+  </si>
+  <si>
+    <t>unless otherwise specified</t>
+  </si>
+  <si>
+    <t>w/i</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coef </t>
+  </si>
+  <si>
+    <t>conc</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>cndct</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diameter </t>
+  </si>
+  <si>
+    <t>doz</t>
+  </si>
+  <si>
+    <t>dozen</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>elv</t>
+  </si>
+  <si>
+    <t>engr</t>
+  </si>
+  <si>
+    <t>engrg</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>fob</t>
+  </si>
+  <si>
+    <t>free on board</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>intl</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>low pressure</t>
+  </si>
+  <si>
+    <t>rnd</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>arrgt</t>
+  </si>
+  <si>
+    <t>assy</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>brg</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>both ways</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>cham</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>chan</t>
+  </si>
+  <si>
+    <t>circ</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>comm</t>
+  </si>
+  <si>
+    <t>conn</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>cvr</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>cyl</t>
+  </si>
+  <si>
+    <t>equiv</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>fig</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>flg</t>
+  </si>
+  <si>
+    <t>flange</t>
+  </si>
+  <si>
+    <t>galv</t>
+  </si>
+  <si>
+    <t>galvanized</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>high strength</t>
+  </si>
+  <si>
+    <t>jt</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>junc</t>
+  </si>
+  <si>
+    <t>junction</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>matl</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>m/c</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>modification</t>
+  </si>
+  <si>
+    <t>mtg</t>
+  </si>
+  <si>
+    <t>mounting</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>nominal size</t>
+  </si>
+  <si>
+    <t>nts</t>
+  </si>
+  <si>
+    <t>not to scale</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>octagon</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>posn</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>thd</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>ucut</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>yield point</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>prog</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vis </t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>decon</t>
+  </si>
+  <si>
+    <t>decontamination</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>cntmnt</t>
+  </si>
+  <si>
+    <t>ctmt</t>
+  </si>
+  <si>
+    <t>noz</t>
+  </si>
+  <si>
+    <t>nozzle</t>
+  </si>
+  <si>
+    <t>surf</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>crnr</t>
+  </si>
+  <si>
+    <t>shcs</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>ctr</t>
+  </si>
+  <si>
+    <t>abl</t>
+  </si>
+  <si>
+    <t>ablative</t>
+  </si>
+  <si>
+    <t>abol</t>
+  </si>
+  <si>
+    <t>abolition</t>
+  </si>
+  <si>
+    <t>absol</t>
+  </si>
+  <si>
+    <t>abst</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>accom</t>
+  </si>
+  <si>
+    <t>accomodation</t>
+  </si>
+  <si>
+    <t>accomm</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>agst</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>anal</t>
+  </si>
+  <si>
+    <t>analyt</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>answ</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>apperently</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>artic</t>
+  </si>
+  <si>
+    <t>articulation</t>
+  </si>
+  <si>
+    <t>assem</t>
+  </si>
+  <si>
+    <t>attrib</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>bef</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>btw</t>
+  </si>
+  <si>
+    <t>bord</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>certif</t>
+  </si>
+  <si>
+    <t>chamb</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>circular</t>
+  </si>
+  <si>
+    <t>classif</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>communic</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>concerning</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>concr</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>discov</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>distill</t>
+  </si>
+  <si>
+    <t>distillation</t>
+  </si>
+  <si>
+    <t>econ</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>engin</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>establ</t>
+  </si>
+  <si>
+    <t>established</t>
+  </si>
+  <si>
+    <t>evid</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>expl</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>fam</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>famil</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>geog</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>glossary</t>
+  </si>
+  <si>
+    <t>gov</t>
+  </si>
+  <si>
+    <t>govt</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist </t>
+  </si>
+  <si>
+    <t>imit</t>
+  </si>
+  <si>
+    <t>imitation</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>imperfect</t>
+  </si>
+  <si>
+    <t>impf</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>indicative</t>
+  </si>
+  <si>
+    <t>indef</t>
+  </si>
+  <si>
+    <t>indefinite</t>
+  </si>
+  <si>
+    <t>indic</t>
+  </si>
+  <si>
+    <t>indir</t>
+  </si>
+  <si>
+    <t>industr</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>indust</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>infl</t>
+  </si>
+  <si>
+    <t>inorg</t>
+  </si>
+  <si>
+    <t>inorganic</t>
+  </si>
+  <si>
+    <t>inq</t>
+  </si>
+  <si>
+    <t>inquiry</t>
+  </si>
+  <si>
+    <t>instr</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>inst</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>interj</t>
+  </si>
+  <si>
+    <t>interjection</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>introd</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>meas</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>measurem</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>mech</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>metall</t>
+  </si>
+  <si>
+    <t>meth</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nucl</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>observ</t>
+  </si>
+  <si>
+    <t>occas</t>
+  </si>
+  <si>
+    <t>occasionally</t>
+  </si>
+  <si>
+    <t>occ</t>
+  </si>
+  <si>
+    <t>occurr</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>optics</t>
+  </si>
+  <si>
+    <t>opp</t>
+  </si>
+  <si>
+    <t>opposed</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>perh</t>
+  </si>
+  <si>
+    <t>pers</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>plur</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>pract</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>pred</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>predic</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>probl</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>reas</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>regr</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>statist</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>structural</t>
+  </si>
+  <si>
+    <t>subj</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>symm</t>
+  </si>
+  <si>
+    <t>symmetrical</t>
+  </si>
+  <si>
+    <t>symmetry</t>
+  </si>
+  <si>
+    <t>techn</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>telecomm</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>theor</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>theoret</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>transf</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>transl</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>treatm</t>
+  </si>
+  <si>
+    <t>vb</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>yrs</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>wks</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>asap</t>
+  </si>
+  <si>
+    <t>diy</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>abstr</t>
+  </si>
+  <si>
+    <t>inspec</t>
+  </si>
+  <si>
+    <t>mngt</t>
+  </si>
+  <si>
+    <t>mngmnt</t>
+  </si>
+  <si>
+    <t>qnty</t>
+  </si>
+  <si>
+    <t>refr</t>
+  </si>
+  <si>
+    <t>shwn</t>
+  </si>
+  <si>
+    <t>stdrd</t>
+  </si>
+  <si>
+    <t>wgt</t>
+  </si>
+  <si>
+    <t>hydr</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>displ</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>prox</t>
+  </si>
+  <si>
+    <t>proximity</t>
+  </si>
+  <si>
+    <t>approximate</t>
+  </si>
+  <si>
+    <t>approx</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>care of</t>
+  </si>
+  <si>
+    <t>circulating</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>switchyard</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>vsl</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>condenser</t>
+  </si>
+  <si>
+    <t>transm</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>centrifugal</t>
+  </si>
+  <si>
+    <t>sens</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>swch</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>batt</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>parab</t>
+  </si>
+  <si>
+    <t>parabolic</t>
+  </si>
+  <si>
+    <t>centrif</t>
+  </si>
+  <si>
+    <t>diaphragm</t>
+  </si>
+  <si>
+    <t>diaph</t>
+  </si>
+  <si>
+    <t>coupl</t>
+  </si>
+  <si>
+    <t>coupling</t>
+  </si>
+  <si>
+    <t>magn</t>
+  </si>
+  <si>
+    <t>magnetic</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>susp</t>
+  </si>
+  <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>induction</t>
+  </si>
+  <si>
+    <t>fitt</t>
+  </si>
+  <si>
+    <t>betw</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>pref</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>technol</t>
+  </si>
+  <si>
+    <t>troub</t>
+  </si>
+  <si>
+    <t>unkn</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>unless noted otherwise</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>rept</t>
+  </si>
+  <si>
+    <t>parallel flange channel</t>
+  </si>
+  <si>
+    <t>pitch circle diameter</t>
+  </si>
+  <si>
+    <t>new product release</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>numerical control</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>jannuary</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>hydraul</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>fibre termination panel</t>
+  </si>
+  <si>
+    <t>full strength butt weld</t>
+  </si>
+  <si>
+    <t>estimated time of arrival</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>electr</t>
+  </si>
+  <si>
+    <t>elem</t>
+  </si>
+  <si>
+    <t>diameter nominal</t>
+  </si>
+  <si>
+    <t>do it yourself</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>circumference</t>
+  </si>
+  <si>
+    <t>chem</t>
+  </si>
+  <si>
+    <t>chamfer</t>
+  </si>
+  <si>
+    <t>catal</t>
+  </si>
+  <si>
+    <t>bottom of foundation</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>arrangement</t>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>after hours</t>
+  </si>
+  <si>
+    <t>above ground level</t>
+  </si>
+  <si>
+    <t>above floor level </t>
+  </si>
+  <si>
+    <t>accep</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>appt</t>
+  </si>
+  <si>
+    <t>impr</t>
+  </si>
+  <si>
+    <t>probab</t>
+  </si>
+  <si>
+    <t>reinst</t>
+  </si>
+  <si>
+    <t>surv</t>
+  </si>
+  <si>
+    <t>tech specs</t>
+  </si>
+  <si>
+    <t>welded column</t>
+  </si>
+  <si>
+    <t>universal beam</t>
+  </si>
+  <si>
+    <t>unequal angle</t>
+  </si>
+  <si>
+    <t>troublesome</t>
+  </si>
+  <si>
+    <t>material requirements planning</t>
+  </si>
+  <si>
+    <t>cement masonry unit</t>
+  </si>
+  <si>
+    <t>as soon as possible</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>calib</t>
+  </si>
+  <si>
+    <t>calibr</t>
+  </si>
+  <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>periodic</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>analytic</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineering </t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>concent</t>
+  </si>
+  <si>
+    <t>optical</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>chann</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>explan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>tollerance</t>
+  </si>
+  <si>
+    <t>unkwn</t>
   </si>
 </sst>
 </file>
@@ -897,12 +2904,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1246,11 +3251,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1607,10 +3613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,1102 +3627,4201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>757</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>867</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>781</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>865</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>540</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>864</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>542</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>146</v>
+      <c r="A23" t="s">
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>545</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>777</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>870</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>905</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>548</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>424</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>550</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>754</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>882</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>552</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>860</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>861</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>799</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>555</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>818</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>859</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>558</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>557</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>114</v>
+      <c r="A61" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>779</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>885</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>886</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>868</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>869</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>858</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>792</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>805</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>560</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>435</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>857</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>561</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>906</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>151</v>
+      <c r="A82" t="s">
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>856</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>780</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>564</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>565</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>569</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>898</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>569</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>897</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>569</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>899</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>902</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>573</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>771</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>771</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>789</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>771</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>907</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>441</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>808</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>809</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>518</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>527</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>443</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>228</v>
+        <v>445</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>895</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>853</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>854</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>511</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>819</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>852</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>575</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>576</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>505</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>242</v>
-      </c>
-      <c r="B136" t="s">
-        <v>243</v>
+        <v>807</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>577</v>
+      </c>
+      <c r="B138" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>768</v>
+      </c>
+      <c r="B139" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>770</v>
+      </c>
+      <c r="B140" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>579</v>
+      </c>
+      <c r="B141" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>399</v>
+      </c>
+      <c r="B144" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>581</v>
+      </c>
+      <c r="B147" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>848</v>
+      </c>
+      <c r="B150" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>849</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>403</v>
+      </c>
+      <c r="B153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>583</v>
+      </c>
+      <c r="B156" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>404</v>
+      </c>
+      <c r="B157" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>405</v>
+      </c>
+      <c r="B158" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>250</v>
+      </c>
+      <c r="B159" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>308</v>
+      </c>
+      <c r="B160" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>446</v>
+      </c>
+      <c r="B162" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>584</v>
+      </c>
+      <c r="B163" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>846</v>
+      </c>
+      <c r="B164" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>586</v>
+      </c>
+      <c r="B165" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>756</v>
+      </c>
+      <c r="B166" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>588</v>
+      </c>
+      <c r="B168" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>72</v>
+      </c>
+      <c r="B170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>591</v>
+      </c>
+      <c r="B172" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>908</v>
+      </c>
+      <c r="B173" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>406</v>
+      </c>
+      <c r="B174" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>593</v>
+      </c>
+      <c r="B175" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>595</v>
+      </c>
+      <c r="B176" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>909</v>
+      </c>
+      <c r="B177" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>448</v>
+      </c>
+      <c r="B178" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>817</v>
+      </c>
+      <c r="B179" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>450</v>
+      </c>
+      <c r="B182" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>408</v>
+      </c>
+      <c r="B183" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>410</v>
+      </c>
+      <c r="B185" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>410</v>
+      </c>
+      <c r="B186" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>159</v>
+      </c>
+      <c r="B187" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>221</v>
+      </c>
+      <c r="B188" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>222</v>
+      </c>
+      <c r="B191" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>596</v>
+      </c>
+      <c r="B193" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>452</v>
+      </c>
+      <c r="B195" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>598</v>
+      </c>
+      <c r="B196" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>600</v>
+      </c>
+      <c r="B197" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>602</v>
+      </c>
+      <c r="B198" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>603</v>
+      </c>
+      <c r="B199" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>310</v>
+      </c>
+      <c r="B200" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>605</v>
+      </c>
+      <c r="B201" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>606</v>
+      </c>
+      <c r="B202" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>454</v>
+      </c>
+      <c r="B203" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>456</v>
+      </c>
+      <c r="B204" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>609</v>
+      </c>
+      <c r="B205" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>253</v>
+      </c>
+      <c r="B206" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>254</v>
+      </c>
+      <c r="B207" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>185</v>
+      </c>
+      <c r="B208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>227</v>
+      </c>
+      <c r="B209" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>227</v>
+      </c>
+      <c r="B210" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>458</v>
+      </c>
+      <c r="B211" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>87</v>
+      </c>
+      <c r="B212" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>136</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>766</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>841</v>
+      </c>
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>189</v>
+      </c>
+      <c r="B217" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>312</v>
+      </c>
+      <c r="B218" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>205</v>
+      </c>
+      <c r="B219" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>205</v>
+      </c>
+      <c r="B220" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>610</v>
+      </c>
+      <c r="B221" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>612</v>
+      </c>
+      <c r="B222" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>614</v>
+      </c>
+      <c r="B223" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>871</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>615</v>
+      </c>
+      <c r="B225" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>615</v>
+      </c>
+      <c r="B226" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>618</v>
+      </c>
+      <c r="B227" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>620</v>
+      </c>
+      <c r="B228" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>621</v>
+      </c>
+      <c r="B229" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>624</v>
+      </c>
+      <c r="B230" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>622</v>
+      </c>
+      <c r="B231" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>625</v>
+      </c>
+      <c r="B232" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>627</v>
+      </c>
+      <c r="B233" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>64</v>
+      </c>
+      <c r="B234" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>628</v>
+      </c>
+      <c r="B235" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>630</v>
+      </c>
+      <c r="B236" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>140</v>
+      </c>
+      <c r="B237" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>758</v>
+      </c>
+      <c r="B238" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>778</v>
+      </c>
+      <c r="B239" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>634</v>
+      </c>
+      <c r="B240" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>137</v>
+      </c>
+      <c r="B241" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>632</v>
+      </c>
+      <c r="B242" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>632</v>
+      </c>
+      <c r="B243" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>132</v>
+      </c>
+      <c r="B244" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>414</v>
+      </c>
+      <c r="B245" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>636</v>
+      </c>
+      <c r="B246" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>412</v>
+      </c>
+      <c r="B247" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>638</v>
+      </c>
+      <c r="B248" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>640</v>
+      </c>
+      <c r="B249" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>787</v>
+      </c>
+      <c r="B250" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>187</v>
+      </c>
+      <c r="B251" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>840</v>
+      </c>
+      <c r="B252" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>460</v>
+      </c>
+      <c r="B253" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>462</v>
+      </c>
+      <c r="B254" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>191</v>
+      </c>
+      <c r="B255" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>641</v>
+      </c>
+      <c r="B256" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>464</v>
+      </c>
+      <c r="B258" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>466</v>
+      </c>
+      <c r="B259" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>315</v>
+      </c>
+      <c r="B261" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>248</v>
+      </c>
+      <c r="B262" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>415</v>
+      </c>
+      <c r="B263" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>469</v>
+      </c>
+      <c r="B264" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>317</v>
+      </c>
+      <c r="B265" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>812</v>
+      </c>
+      <c r="B266" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>810</v>
+      </c>
+      <c r="B267" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>319</v>
+      </c>
+      <c r="B268" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>643</v>
+      </c>
+      <c r="B269" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>467</v>
+      </c>
+      <c r="B270" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>259</v>
+      </c>
+      <c r="B271" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>321</v>
+      </c>
+      <c r="B272" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>322</v>
+      </c>
+      <c r="B273" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>645</v>
+      </c>
+      <c r="B274" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>647</v>
+      </c>
+      <c r="B275" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>649</v>
+      </c>
+      <c r="B276" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>801</v>
+      </c>
+      <c r="B277" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>651</v>
+      </c>
+      <c r="B278" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>652</v>
+      </c>
+      <c r="B279" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>325</v>
+      </c>
+      <c r="B280" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>327</v>
+      </c>
+      <c r="B281" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>329</v>
+      </c>
+      <c r="B282" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>193</v>
+      </c>
+      <c r="B283" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>70</v>
+      </c>
+      <c r="B284" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>71</v>
+      </c>
+      <c r="B285" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>261</v>
+      </c>
+      <c r="B286" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>163</v>
+      </c>
+      <c r="B287" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>760</v>
+      </c>
+      <c r="B288" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>69</v>
+      </c>
+      <c r="B289" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>759</v>
+      </c>
+      <c r="B290" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>470</v>
+      </c>
+      <c r="B291" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>772</v>
+      </c>
+      <c r="B292" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>331</v>
+      </c>
+      <c r="B293" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>332</v>
+      </c>
+      <c r="B294" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>195</v>
+      </c>
+      <c r="B295" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>229</v>
+      </c>
+      <c r="B296" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>472</v>
+      </c>
+      <c r="B297" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>472</v>
+      </c>
+      <c r="B298" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>655</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>202</v>
+      </c>
+      <c r="B300" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>333</v>
+      </c>
+      <c r="B301" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>336</v>
+      </c>
+      <c r="B302" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>836</v>
+      </c>
+      <c r="B303" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>474</v>
+      </c>
+      <c r="B304" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>196</v>
+      </c>
+      <c r="B305" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>337</v>
+      </c>
+      <c r="B306" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>656</v>
+      </c>
+      <c r="B307" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>199</v>
+      </c>
+      <c r="B308" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>339</v>
+      </c>
+      <c r="B309" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>341</v>
+      </c>
+      <c r="B310" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>834</v>
+      </c>
+      <c r="B311" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>519</v>
+      </c>
+      <c r="B312" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>201</v>
+      </c>
+      <c r="B313" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>263</v>
+      </c>
+      <c r="B314" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>263</v>
+      </c>
+      <c r="B315" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>477</v>
+      </c>
+      <c r="B316" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>658</v>
+      </c>
+      <c r="B317" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>657</v>
+      </c>
+      <c r="B318" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>837</v>
+      </c>
+      <c r="B319" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>659</v>
+      </c>
+      <c r="B320" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>28</v>
+      </c>
+      <c r="B321" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>661</v>
+      </c>
+      <c r="B322" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>663</v>
+      </c>
+      <c r="B323" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>666</v>
+      </c>
+      <c r="B324" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>664</v>
+      </c>
+      <c r="B325" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>667</v>
+      </c>
+      <c r="B326" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>479</v>
+      </c>
+      <c r="B327" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>203</v>
+      </c>
+      <c r="B328" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>92</v>
+      </c>
+      <c r="B329" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>670</v>
+      </c>
+      <c r="B330" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>117</v>
+      </c>
+      <c r="B331" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>207</v>
+      </c>
+      <c r="B332" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>207</v>
+      </c>
+      <c r="B333" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>207</v>
+      </c>
+      <c r="B334" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>207</v>
+      </c>
+      <c r="B335" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>672</v>
+      </c>
+      <c r="B336" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>674</v>
+      </c>
+      <c r="B337" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>675</v>
+      </c>
+      <c r="B339" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>675</v>
+      </c>
+      <c r="B340" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>803</v>
+      </c>
+      <c r="B341" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>481</v>
+      </c>
+      <c r="B342" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>209</v>
+      </c>
+      <c r="B344" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>678</v>
+      </c>
+      <c r="B346" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>679</v>
+      </c>
+      <c r="B347" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>888</v>
+      </c>
+      <c r="B348" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>680</v>
+      </c>
+      <c r="B349" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>210</v>
+      </c>
+      <c r="B350" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>231</v>
+      </c>
+      <c r="B351" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>231</v>
+      </c>
+      <c r="B352" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>231</v>
+      </c>
+      <c r="B353" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>347</v>
+      </c>
+      <c r="B354" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>682</v>
+      </c>
+      <c r="B355" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>142</v>
+      </c>
+      <c r="B356" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>349</v>
+      </c>
+      <c r="B357" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>351</v>
+      </c>
+      <c r="B358" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>684</v>
+      </c>
+      <c r="B359" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>483</v>
+      </c>
+      <c r="B360" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>485</v>
+      </c>
+      <c r="B361" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>687</v>
+      </c>
+      <c r="B362" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>687</v>
+      </c>
+      <c r="B363" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>689</v>
+      </c>
+      <c r="B364" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>691</v>
+      </c>
+      <c r="B365" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>692</v>
+      </c>
+      <c r="B366" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>820</v>
+      </c>
+      <c r="B367" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>96</v>
+      </c>
+      <c r="B368" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>96</v>
+      </c>
+      <c r="B369" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>99</v>
+      </c>
+      <c r="B370" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>693</v>
+      </c>
+      <c r="B371" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>108</v>
+      </c>
+      <c r="B372" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>695</v>
+      </c>
+      <c r="B373" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>872</v>
+      </c>
+      <c r="B374" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>696</v>
+      </c>
+      <c r="B375" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>507</v>
+      </c>
+      <c r="B376" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>698</v>
+      </c>
+      <c r="B377" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>774</v>
+      </c>
+      <c r="B378" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>104</v>
+      </c>
+      <c r="B379" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>211</v>
+      </c>
+      <c r="B381" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>761</v>
+      </c>
+      <c r="B382" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>213</v>
+      </c>
+      <c r="B383" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>487</v>
+      </c>
+      <c r="B384" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>489</v>
+      </c>
+      <c r="B385" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>700</v>
+      </c>
+      <c r="B386" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>89</v>
+      </c>
+      <c r="B387" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>91</v>
+      </c>
+      <c r="B388" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>490</v>
+      </c>
+      <c r="B389" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>514</v>
+      </c>
+      <c r="B390" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>76</v>
+      </c>
+      <c r="B391" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>762</v>
+      </c>
+      <c r="B392" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>702</v>
+      </c>
+      <c r="B393" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>703</v>
+      </c>
+      <c r="B394" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>77</v>
+      </c>
+      <c r="B395" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>165</v>
+      </c>
+      <c r="B396" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>873</v>
+      </c>
+      <c r="B397" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>705</v>
+      </c>
+      <c r="B398" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>131</v>
+      </c>
+      <c r="B399" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>706</v>
+      </c>
+      <c r="B400" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>830</v>
+      </c>
+      <c r="B401" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>526</v>
+      </c>
+      <c r="B402" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>78</v>
+      </c>
+      <c r="B403" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>707</v>
+      </c>
+      <c r="B404" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>709</v>
+      </c>
+      <c r="B405" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>709</v>
+      </c>
+      <c r="B406" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>709</v>
+      </c>
+      <c r="B407" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>257</v>
+      </c>
+      <c r="B408" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>353</v>
+      </c>
+      <c r="B410" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>129</v>
+      </c>
+      <c r="B411" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>417</v>
+      </c>
+      <c r="B412" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>100</v>
+      </c>
+      <c r="B413" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>126</v>
+      </c>
+      <c r="B414" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>112</v>
+      </c>
+      <c r="B415" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>114</v>
+      </c>
+      <c r="B416" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>710</v>
+      </c>
+      <c r="B417" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>710</v>
+      </c>
+      <c r="B418" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>713</v>
+      </c>
+      <c r="B419" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>794</v>
+      </c>
+      <c r="B420" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>821</v>
+      </c>
+      <c r="B421" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>128</v>
+      </c>
+      <c r="B422" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>492</v>
+      </c>
+      <c r="B423" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>524</v>
+      </c>
+      <c r="B424" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>357</v>
+      </c>
+      <c r="B425" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>763</v>
+      </c>
+      <c r="B426" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>167</v>
+      </c>
+      <c r="B427" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>167</v>
+      </c>
+      <c r="B428" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>494</v>
+      </c>
+      <c r="B429" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>359</v>
+      </c>
+      <c r="B430" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>714</v>
+      </c>
+      <c r="B431" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>714</v>
+      </c>
+      <c r="B432" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>496</v>
+      </c>
+      <c r="B433" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>829</v>
+      </c>
+      <c r="B434" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>716</v>
+      </c>
+      <c r="B435" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>717</v>
+      </c>
+      <c r="B436" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>361</v>
+      </c>
+      <c r="B437" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>764</v>
+      </c>
+      <c r="B438" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>363</v>
+      </c>
+      <c r="B439" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>718</v>
+      </c>
+      <c r="B440" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>720</v>
+      </c>
+      <c r="B441" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>720</v>
+      </c>
+      <c r="B442" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>723</v>
+      </c>
+      <c r="B443" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>55</v>
+      </c>
+      <c r="B444" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>55</v>
+      </c>
+      <c r="B445" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>725</v>
+      </c>
+      <c r="B446" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>521</v>
+      </c>
+      <c r="B447" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>874</v>
+      </c>
+      <c r="B448" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>813</v>
+      </c>
+      <c r="B449" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>85</v>
+      </c>
+      <c r="B450" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>85</v>
+      </c>
+      <c r="B451" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>85</v>
+      </c>
+      <c r="B452" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>796</v>
+      </c>
+      <c r="B453" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>726</v>
+      </c>
+      <c r="B454" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>726</v>
+      </c>
+      <c r="B455" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>284</v>
+      </c>
+      <c r="B456" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>822</v>
+      </c>
+      <c r="B457" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>234</v>
+      </c>
+      <c r="B458" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>365</v>
+      </c>
+      <c r="B459" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>43</v>
+      </c>
+      <c r="B460" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>43</v>
+      </c>
+      <c r="B461" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>875</v>
+      </c>
+      <c r="B462" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>729</v>
+      </c>
+      <c r="B463" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>823</v>
+      </c>
+      <c r="B464" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>730</v>
+      </c>
+      <c r="B465" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>733</v>
+      </c>
+      <c r="B466" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>732</v>
+      </c>
+      <c r="B467" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>106</v>
+      </c>
+      <c r="B468" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>106</v>
+      </c>
+      <c r="B469" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>499</v>
+      </c>
+      <c r="B470" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>734</v>
+      </c>
+      <c r="B471" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>736</v>
+      </c>
+      <c r="B472" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>265</v>
+      </c>
+      <c r="B473" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>367</v>
+      </c>
+      <c r="B474" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>369</v>
+      </c>
+      <c r="B475" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>371</v>
+      </c>
+      <c r="B476" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>911</v>
+      </c>
+      <c r="B477" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>737</v>
+      </c>
+      <c r="B478" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>739</v>
+      </c>
+      <c r="B479" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>739</v>
+      </c>
+      <c r="B480" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>741</v>
+      </c>
+      <c r="B481" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>790</v>
+      </c>
+      <c r="B482" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>742</v>
+      </c>
+      <c r="B483" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>743</v>
+      </c>
+      <c r="B484" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>824</v>
+      </c>
+      <c r="B485" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>373</v>
+      </c>
+      <c r="B486" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>375</v>
+      </c>
+      <c r="B487" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>236</v>
+      </c>
+      <c r="B488" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>377</v>
+      </c>
+      <c r="B489" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>237</v>
+      </c>
+      <c r="B490" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>501</v>
+      </c>
+      <c r="B491" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>379</v>
+      </c>
+      <c r="B492" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>134</v>
+      </c>
+      <c r="B493" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>825</v>
+      </c>
+      <c r="B494" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>135</v>
+      </c>
+      <c r="B495" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>913</v>
+      </c>
+      <c r="B496" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>216</v>
+      </c>
+      <c r="B497" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>215</v>
+      </c>
+      <c r="B498" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>382</v>
+      </c>
+      <c r="B499" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>797</v>
+      </c>
+      <c r="B500" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>746</v>
+      </c>
+      <c r="B501" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>744</v>
+      </c>
+      <c r="B502" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>267</v>
+      </c>
+      <c r="B503" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>269</v>
+      </c>
+      <c r="B504" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>509</v>
+      </c>
+      <c r="B505" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>121</v>
+      </c>
+      <c r="B506" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>826</v>
+      </c>
+      <c r="B507" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>827</v>
+      </c>
+      <c r="B508" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>785</v>
+      </c>
+      <c r="B509" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>94</v>
+      </c>
+      <c r="B510" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>384</v>
+      </c>
+      <c r="B511" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>272</v>
+      </c>
+      <c r="B512" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>238</v>
+      </c>
+      <c r="B513" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>765</v>
+      </c>
+      <c r="B514" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>419</v>
+      </c>
+      <c r="B515" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>419</v>
+      </c>
+      <c r="B516" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>752</v>
+      </c>
+      <c r="B517" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>752</v>
+      </c>
+      <c r="B518" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>421</v>
+      </c>
+      <c r="B519" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>57</v>
+      </c>
+      <c r="B520" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>270</v>
+      </c>
+      <c r="B521" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>503</v>
+      </c>
+      <c r="B522" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>749</v>
+      </c>
+      <c r="B523" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>750</v>
+      </c>
+      <c r="B524" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B527">
+    <sortCondition ref="A1:A527"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CCFD89-D932-4842-961C-DE7FB933B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308AC83-46DA-6F4E-9900-5AE402D8BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54700" yWindow="1640" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40600" yWindow="-420" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="934">
   <si>
     <t>Full</t>
   </si>
@@ -1486,9 +1486,6 @@
     <t>rad</t>
   </si>
   <si>
-    <t>radius</t>
-  </si>
-  <si>
     <t>rd</t>
   </si>
   <si>
@@ -1873,9 +1870,6 @@
     <t>indirect</t>
   </si>
   <si>
-    <t>indicative</t>
-  </si>
-  <si>
     <t>indef</t>
   </si>
   <si>
@@ -2762,6 +2756,72 @@
   </si>
   <si>
     <t>unkwn</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>pck</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>oper</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>repck</t>
+  </si>
+  <si>
+    <t>repack</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>refurb</t>
+  </si>
+  <si>
+    <t>refurbish</t>
+  </si>
+  <si>
+    <t>rsvr</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>resrvr</t>
+  </si>
+  <si>
+    <t>reterm</t>
+  </si>
+  <si>
+    <t>retermination</t>
+  </si>
+  <si>
+    <t>flng</t>
+  </si>
+  <si>
+    <t>flnge</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>flngs</t>
+  </si>
+  <si>
+    <t>flanges</t>
+  </si>
+  <si>
+    <t>obsrv</t>
   </si>
 </sst>
 </file>
@@ -3613,11 +3673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A539" sqref="A539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3652,18 +3712,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" t="s">
         <v>528</v>
-      </c>
-      <c r="B4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" t="s">
         <v>530</v>
-      </c>
-      <c r="B5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3676,7 +3736,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>387</v>
@@ -3684,23 +3744,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" t="s">
         <v>533</v>
-      </c>
-      <c r="B8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3708,34 +3768,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B11" t="s">
         <v>535</v>
-      </c>
-      <c r="B11" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" t="s">
         <v>538</v>
-      </c>
-      <c r="B14" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3803,7 @@
         <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,15 +3811,15 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" t="s">
         <v>540</v>
-      </c>
-      <c r="B17" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3780,7 +3840,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -3788,10 +3848,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,15 +3867,15 @@
         <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B24" t="s">
         <v>545</v>
-      </c>
-      <c r="B24" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,28 +3891,28 @@
         <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B27" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B28" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -3876,10 +3936,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" t="s">
         <v>548</v>
-      </c>
-      <c r="B32" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,23 +3947,23 @@
         <v>424</v>
       </c>
       <c r="B33" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>549</v>
+      </c>
+      <c r="B34" t="s">
         <v>550</v>
-      </c>
-      <c r="B34" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B35" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3916,7 +3976,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B37" t="s">
         <v>283</v>
@@ -3932,18 +3992,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>552</v>
+      </c>
+      <c r="B39" t="s">
         <v>553</v>
-      </c>
-      <c r="B39" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B40" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3972,10 +4032,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B44" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3988,15 +4048,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" t="s">
         <v>555</v>
-      </c>
-      <c r="B46" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4031,7 +4091,7 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4044,10 +4104,10 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>557</v>
+      </c>
+      <c r="B53" t="s">
         <v>558</v>
-      </c>
-      <c r="B53" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4100,7 +4160,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -4135,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4156,7 +4216,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -4164,7 +4224,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -4180,15 +4240,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B70" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -4204,18 +4264,18 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B73" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B74" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4228,7 +4288,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -4247,15 +4307,15 @@
         <v>435</v>
       </c>
       <c r="B78" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>560</v>
+      </c>
+      <c r="B79" t="s">
         <v>561</v>
-      </c>
-      <c r="B79" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4268,7 +4328,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B81" t="s">
         <v>436</v>
@@ -4284,10 +4344,10 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B83" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4355,7 @@
         <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4363,7 @@
         <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4371,7 @@
         <v>438</v>
       </c>
       <c r="B86" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4324,7 +4384,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
@@ -4351,7 +4411,7 @@
         <v>246</v>
       </c>
       <c r="B91" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +4424,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B93" t="s">
         <v>60</v>
@@ -4404,10 +4464,10 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>564</v>
+      </c>
+      <c r="B98" t="s">
         <v>565</v>
-      </c>
-      <c r="B98" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4428,42 +4488,42 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>568</v>
+      </c>
+      <c r="B102" t="s">
         <v>569</v>
-      </c>
-      <c r="B102" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B103" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B104" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B105" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4539,7 @@
         <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,28 +4547,28 @@
         <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B109" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>572</v>
+      </c>
+      <c r="B110" t="s">
         <v>573</v>
-      </c>
-      <c r="B110" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B111" t="s">
         <v>394</v>
@@ -4516,18 +4576,18 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B112" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B113" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,10 +4624,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B118" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,7 +4640,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B120" t="s">
         <v>439</v>
@@ -4596,7 +4656,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
@@ -4604,7 +4664,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B123" t="s">
         <v>247</v>
@@ -4631,28 +4691,28 @@
         <v>445</v>
       </c>
       <c r="B126" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B127" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>510</v>
+      </c>
+      <c r="B128" t="s">
         <v>511</v>
-      </c>
-      <c r="B128" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
@@ -4660,7 +4720,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -4668,10 +4728,10 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>574</v>
+      </c>
+      <c r="B131" t="s">
         <v>575</v>
-      </c>
-      <c r="B131" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4700,18 +4760,18 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>504</v>
+      </c>
+      <c r="B135" t="s">
         <v>505</v>
-      </c>
-      <c r="B135" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4724,42 +4784,42 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>576</v>
+      </c>
+      <c r="B138" t="s">
         <v>577</v>
-      </c>
-      <c r="B138" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B139" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B140" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>578</v>
+      </c>
+      <c r="B141" t="s">
         <v>579</v>
-      </c>
-      <c r="B141" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B142" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4827,7 @@
         <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4796,10 +4856,10 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>580</v>
+      </c>
+      <c r="B147" t="s">
         <v>581</v>
-      </c>
-      <c r="B147" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4820,15 +4880,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B150" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -4855,7 +4915,7 @@
         <v>18</v>
       </c>
       <c r="B154" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,15 +4923,15 @@
         <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B156" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4939,7 @@
         <v>404</v>
       </c>
       <c r="B157" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4947,7 @@
         <v>405</v>
       </c>
       <c r="B158" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4924,34 +4984,34 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>583</v>
+      </c>
+      <c r="B163" t="s">
         <v>584</v>
-      </c>
-      <c r="B163" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B164" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>585</v>
+      </c>
+      <c r="B165" t="s">
         <v>586</v>
-      </c>
-      <c r="B165" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B166" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4964,10 +5024,10 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>587</v>
+      </c>
+      <c r="B168" t="s">
         <v>588</v>
-      </c>
-      <c r="B168" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,23 +5051,23 @@
         <v>72</v>
       </c>
       <c r="B171" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>590</v>
+      </c>
+      <c r="B172" t="s">
         <v>591</v>
-      </c>
-      <c r="B172" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B173" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -5020,23 +5080,23 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>592</v>
+      </c>
+      <c r="B175" t="s">
         <v>593</v>
-      </c>
-      <c r="B175" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B176" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B177" t="s">
         <v>52</v>
@@ -5052,7 +5112,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B179" t="s">
         <v>309</v>
@@ -5111,7 +5171,7 @@
         <v>410</v>
       </c>
       <c r="B186" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5187,7 @@
         <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5211,7 @@
         <v>222</v>
       </c>
       <c r="B191" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5164,10 +5224,10 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>595</v>
+      </c>
+      <c r="B193" t="s">
         <v>596</v>
-      </c>
-      <c r="B193" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5188,34 +5248,34 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>597</v>
+      </c>
+      <c r="B196" t="s">
         <v>598</v>
-      </c>
-      <c r="B196" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>599</v>
+      </c>
+      <c r="B197" t="s">
         <v>600</v>
-      </c>
-      <c r="B197" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B198" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>602</v>
+      </c>
+      <c r="B199" t="s">
         <v>603</v>
-      </c>
-      <c r="B199" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5228,18 +5288,18 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B201" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>605</v>
+      </c>
+      <c r="B202" t="s">
         <v>606</v>
-      </c>
-      <c r="B202" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5260,10 +5320,10 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B205" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5331,7 @@
         <v>253</v>
       </c>
       <c r="B206" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5339,7 @@
         <v>254</v>
       </c>
       <c r="B207" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5332,7 +5392,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B214" t="s">
         <v>19</v>
@@ -5348,7 +5408,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B216" t="s">
         <v>19</v>
@@ -5388,31 +5448,31 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>609</v>
+      </c>
+      <c r="B221" t="s">
         <v>610</v>
-      </c>
-      <c r="B221" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>611</v>
+      </c>
+      <c r="B222" t="s">
         <v>612</v>
-      </c>
-      <c r="B222" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B223" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B224" t="s">
         <v>21</v>
@@ -5420,74 +5480,74 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>614</v>
+      </c>
+      <c r="B225" t="s">
         <v>615</v>
-      </c>
-      <c r="B225" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B226" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B227" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B228" t="s">
-        <v>617</v>
+        <v>912</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B229" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B230" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B231" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B232" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B233" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,18 +5560,18 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B235" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B236" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5524,7 +5584,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B238" t="s">
         <v>141</v>
@@ -5532,7 +5592,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B239" t="s">
         <v>141</v>
@@ -5540,10 +5600,10 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B240" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5556,18 +5616,18 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B242" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B243" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5588,10 +5648,10 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B246" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5604,26 +5664,26 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B248" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B249" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B250" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5636,10 +5696,10 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B252" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5668,10 +5728,10 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B256" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5779,7 @@
         <v>248</v>
       </c>
       <c r="B262" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5748,18 +5808,18 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B266" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B267" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5772,10 +5832,10 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B269" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5812,39 +5872,39 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B274" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B275" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B276" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B277" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B278" t="s">
         <v>22</v>
@@ -5852,10 +5912,10 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B279" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5924,7 +5984,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B288" t="s">
         <v>68</v>
@@ -5940,7 +6000,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B290" t="s">
         <v>68</v>
@@ -5956,10 +6016,10 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B292" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +6043,7 @@
         <v>195</v>
       </c>
       <c r="B295" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,12 +6067,12 @@
         <v>472</v>
       </c>
       <c r="B298" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B299" t="s">
         <v>23</v>
@@ -6023,7 +6083,7 @@
         <v>202</v>
       </c>
       <c r="B300" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -6044,7 +6104,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B303" t="s">
         <v>27</v>
@@ -6076,7 +6136,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B307" t="s">
         <v>198</v>
@@ -6108,7 +6168,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B311" t="s">
         <v>24</v>
@@ -6116,10 +6176,10 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>518</v>
+      </c>
+      <c r="B312" t="s">
         <v>519</v>
-      </c>
-      <c r="B312" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6187,7 @@
         <v>201</v>
       </c>
       <c r="B313" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6156,7 +6216,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B317" t="s">
         <v>25</v>
@@ -6164,7 +6224,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B318" t="s">
         <v>25</v>
@@ -6172,7 +6232,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B319" t="s">
         <v>26</v>
@@ -6180,10 +6240,10 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B320" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6196,15 +6256,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B322" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B323" t="s">
         <v>29</v>
@@ -6212,26 +6272,26 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>664</v>
+      </c>
+      <c r="B324" t="s">
         <v>666</v>
-      </c>
-      <c r="B324" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B325" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B326" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6260,10 +6320,10 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B330" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6347,7 @@
         <v>207</v>
       </c>
       <c r="B333" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6355,7 @@
         <v>207</v>
       </c>
       <c r="B334" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,20 +6363,20 @@
         <v>207</v>
       </c>
       <c r="B335" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B336" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B337" t="s">
         <v>30</v>
@@ -6324,7 +6384,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B338" t="s">
         <v>31</v>
@@ -6332,26 +6392,26 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B339" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>673</v>
+      </c>
+      <c r="B340" t="s">
         <v>675</v>
-      </c>
-      <c r="B340" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B341" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6435,7 @@
         <v>209</v>
       </c>
       <c r="B344" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6388,15 +6448,15 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B346" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B347" t="s">
         <v>32</v>
@@ -6404,18 +6464,18 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B348" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B349" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6483,7 @@
         <v>210</v>
       </c>
       <c r="B350" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6507,7 @@
         <v>231</v>
       </c>
       <c r="B353" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6460,10 +6520,10 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B355" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6492,10 +6552,10 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B359" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6516,47 +6576,47 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B362" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B363" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B364" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B365" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B366" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B367" t="s">
         <v>33</v>
@@ -6575,7 +6635,7 @@
         <v>96</v>
       </c>
       <c r="B369" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6588,10 +6648,10 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B371" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6604,7 +6664,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B373" t="s">
         <v>34</v>
@@ -6612,42 +6672,42 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B374" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B375" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>506</v>
+      </c>
+      <c r="B376" t="s">
         <v>507</v>
-      </c>
-      <c r="B376" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B377" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B378" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6676,7 +6736,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B382" t="s">
         <v>214</v>
@@ -6695,12 +6755,12 @@
         <v>487</v>
       </c>
       <c r="B384" t="s">
-        <v>488</v>
+        <v>920</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B385" t="s">
         <v>418</v>
@@ -6708,10 +6768,10 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B386" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6732,18 +6792,18 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>489</v>
+      </c>
+      <c r="B389" t="s">
         <v>490</v>
-      </c>
-      <c r="B389" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
+        <v>513</v>
+      </c>
+      <c r="B390" t="s">
         <v>514</v>
-      </c>
-      <c r="B390" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6756,7 +6816,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B392" t="s">
         <v>79</v>
@@ -6764,18 +6824,18 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>700</v>
+      </c>
+      <c r="B393" t="s">
         <v>702</v>
-      </c>
-      <c r="B393" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B394" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6796,7 +6856,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B397" t="s">
         <v>139</v>
@@ -6804,7 +6864,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B398" t="s">
         <v>35</v>
@@ -6820,7 +6880,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B400" t="s">
         <v>36</v>
@@ -6828,7 +6888,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B401" t="s">
         <v>36</v>
@@ -6836,7 +6896,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B402" t="s">
         <v>81</v>
@@ -6852,15 +6912,15 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B404" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B405" t="s">
         <v>82</v>
@@ -6868,7 +6928,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B406" t="s">
         <v>37</v>
@@ -6876,7 +6936,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B407" t="s">
         <v>38</v>
@@ -6956,42 +7016,42 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B417" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>708</v>
+      </c>
+      <c r="B418" t="s">
         <v>710</v>
-      </c>
-      <c r="B418" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B419" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B420" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B421" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -7004,15 +7064,15 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>491</v>
+      </c>
+      <c r="B423" t="s">
         <v>492</v>
-      </c>
-      <c r="B423" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B424" t="s">
         <v>356</v>
@@ -7028,7 +7088,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B426" t="s">
         <v>355</v>
@@ -7047,15 +7107,15 @@
         <v>167</v>
       </c>
       <c r="B428" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>493</v>
+      </c>
+      <c r="B429" t="s">
         <v>494</v>
-      </c>
-      <c r="B429" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -7068,15 +7128,15 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B431" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B432" t="s">
         <v>39</v>
@@ -7084,15 +7144,15 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
+        <v>495</v>
+      </c>
+      <c r="B433" t="s">
         <v>496</v>
-      </c>
-      <c r="B433" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B434" t="s">
         <v>233</v>
@@ -7100,7 +7160,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B435" t="s">
         <v>40</v>
@@ -7108,7 +7168,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B436" t="s">
         <v>40</v>
@@ -7124,7 +7184,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B438" t="s">
         <v>362</v>
@@ -7140,34 +7200,34 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B440" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B441" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>718</v>
+      </c>
+      <c r="B442" t="s">
         <v>720</v>
-      </c>
-      <c r="B442" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B443" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,12 +7243,12 @@
         <v>55</v>
       </c>
       <c r="B445" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B446" t="s">
         <v>56</v>
@@ -7196,26 +7256,26 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
+        <v>520</v>
+      </c>
+      <c r="B447" t="s">
         <v>521</v>
-      </c>
-      <c r="B447" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B448" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B449" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7291,7 @@
         <v>85</v>
       </c>
       <c r="B451" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,31 +7299,31 @@
         <v>85</v>
       </c>
       <c r="B452" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B453" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B454" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>724</v>
+      </c>
+      <c r="B455" t="s">
         <v>726</v>
-      </c>
-      <c r="B455" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7276,7 +7336,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B457" t="s">
         <v>41</v>
@@ -7316,7 +7376,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B462" t="s">
         <v>61</v>
@@ -7324,7 +7384,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B463" t="s">
         <v>42</v>
@@ -7332,7 +7392,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B464" t="s">
         <v>45</v>
@@ -7340,15 +7400,15 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B465" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B466" t="s">
         <v>44</v>
@@ -7356,7 +7416,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B467" t="s">
         <v>44</v>
@@ -7375,31 +7435,31 @@
         <v>106</v>
       </c>
       <c r="B469" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
+        <v>498</v>
+      </c>
+      <c r="B470" t="s">
         <v>499</v>
-      </c>
-      <c r="B470" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B471" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B472" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7436,39 +7496,39 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B477" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B478" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B479" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B480" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B481" t="s">
         <v>46</v>
@@ -7476,15 +7536,15 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B482" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B483" t="s">
         <v>47</v>
@@ -7492,7 +7552,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B484" t="s">
         <v>47</v>
@@ -7500,10 +7560,10 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B485" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +7587,7 @@
         <v>236</v>
       </c>
       <c r="B488" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,15 +7603,15 @@
         <v>237</v>
       </c>
       <c r="B490" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
+        <v>500</v>
+      </c>
+      <c r="B491" t="s">
         <v>501</v>
-      </c>
-      <c r="B491" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7572,7 +7632,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B494" t="s">
         <v>48</v>
@@ -7588,7 +7648,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B496" t="s">
         <v>48</v>
@@ -7599,7 +7659,7 @@
         <v>216</v>
       </c>
       <c r="B497" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7620,26 +7680,26 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B500" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B501" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B502" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7660,10 +7720,10 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>508</v>
+      </c>
+      <c r="B505" t="s">
         <v>509</v>
-      </c>
-      <c r="B505" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7676,7 +7736,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B507" t="s">
         <v>49</v>
@@ -7684,18 +7744,18 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B508" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B509" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7727,12 +7787,12 @@
         <v>238</v>
       </c>
       <c r="B513" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B514" t="s">
         <v>422</v>
@@ -7751,23 +7811,23 @@
         <v>419</v>
       </c>
       <c r="B516" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B517" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B518" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7796,15 +7856,15 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>502</v>
+      </c>
+      <c r="B522" t="s">
         <v>503</v>
-      </c>
-      <c r="B522" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B523" t="s">
         <v>50</v>
@@ -7812,10 +7872,114 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B524" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>913</v>
+      </c>
+      <c r="B525" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>112</v>
+      </c>
+      <c r="B526" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>916</v>
+      </c>
+      <c r="B527" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>918</v>
+      </c>
+      <c r="B528" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>921</v>
+      </c>
+      <c r="B529" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>923</v>
+      </c>
+      <c r="B530" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>925</v>
+      </c>
+      <c r="B531" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>926</v>
+      </c>
+      <c r="B532" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>928</v>
+      </c>
+      <c r="B533" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>929</v>
+      </c>
+      <c r="B534" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>930</v>
+      </c>
+      <c r="B535" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>931</v>
+      </c>
+      <c r="B536" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>933</v>
+      </c>
+      <c r="B537" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308AC83-46DA-6F4E-9900-5AE402D8BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A904F67-F6A1-3C40-A386-A053D7C94EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40600" yWindow="-420" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3676,8 +3676,8 @@
   <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A539" sqref="A539"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4304,31 +4304,31 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>435</v>
+        <v>930</v>
       </c>
       <c r="B78" t="s">
-        <v>855</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>560</v>
+        <v>435</v>
       </c>
       <c r="B79" t="s">
-        <v>561</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>437</v>
+        <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>904</v>
+        <v>437</v>
       </c>
       <c r="B81" t="s">
         <v>436</v>
@@ -4336,26 +4336,26 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>904</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>854</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>892</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>438</v>
+        <v>854</v>
       </c>
       <c r="B84" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4363,7 +4363,7 @@
         <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>562</v>
+        <v>853</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4371,31 +4371,31 @@
         <v>438</v>
       </c>
       <c r="B86" t="s">
-        <v>778</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>778</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>563</v>
+        <v>241</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>563</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4403,36 +4403,36 @@
         <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>879</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>394</v>
+        <v>879</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>516</v>
+        <v>393</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s">
         <v>60</v>
@@ -4440,15 +4440,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>390</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B96" t="s">
         <v>388</v>
@@ -4456,31 +4456,31 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>564</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>565</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>440</v>
+        <v>564</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>440</v>
       </c>
       <c r="B100" t="s">
         <v>174</v>
@@ -4488,18 +4488,18 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>567</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>566</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B102" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>568</v>
       </c>
       <c r="B103" t="s">
-        <v>896</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4515,7 +4515,7 @@
         <v>568</v>
       </c>
       <c r="B104" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4523,15 +4523,15 @@
         <v>568</v>
       </c>
       <c r="B105" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>391</v>
+        <v>568</v>
       </c>
       <c r="B106" t="s">
-        <v>392</v>
+        <v>897</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4539,7 +4539,7 @@
         <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>570</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4547,12 +4547,12 @@
         <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>900</v>
+        <v>391</v>
       </c>
       <c r="B109" t="s">
         <v>571</v>
@@ -4560,18 +4560,18 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>572</v>
+        <v>900</v>
       </c>
       <c r="B110" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>769</v>
+        <v>572</v>
       </c>
       <c r="B111" t="s">
-        <v>394</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4579,7 +4579,7 @@
         <v>769</v>
       </c>
       <c r="B112" t="s">
-        <v>787</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4587,31 +4587,31 @@
         <v>769</v>
       </c>
       <c r="B113" t="s">
-        <v>905</v>
+        <v>787</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>441</v>
+        <v>769</v>
       </c>
       <c r="B114" t="s">
-        <v>442</v>
+        <v>905</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="B115" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4619,132 +4619,132 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>806</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>807</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>306</v>
+        <v>806</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>807</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>522</v>
+        <v>306</v>
       </c>
       <c r="B120" t="s">
-        <v>439</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>522</v>
       </c>
       <c r="B121" t="s">
-        <v>176</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>517</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>526</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>443</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>444</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B126" t="s">
-        <v>893</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>851</v>
+        <v>445</v>
       </c>
       <c r="B127" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>510</v>
+        <v>851</v>
       </c>
       <c r="B128" t="s">
-        <v>511</v>
+        <v>852</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>817</v>
+        <v>510</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>574</v>
+        <v>850</v>
       </c>
       <c r="B131" t="s">
-        <v>575</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>574</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B133" t="s">
         <v>145</v>
@@ -4752,55 +4752,55 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>504</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>505</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>805</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>804</v>
+        <v>504</v>
+      </c>
+      <c r="B136" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>74</v>
-      </c>
-      <c r="B137" t="s">
-        <v>75</v>
+        <v>805</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>576</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>577</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>766</v>
+        <v>576</v>
       </c>
       <c r="B139" t="s">
-        <v>767</v>
+        <v>577</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B140" t="s">
         <v>767</v>
@@ -4808,103 +4808,103 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>578</v>
+        <v>768</v>
       </c>
       <c r="B141" t="s">
-        <v>579</v>
+        <v>767</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>753</v>
+        <v>578</v>
       </c>
       <c r="B142" t="s">
-        <v>849</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>249</v>
+        <v>753</v>
       </c>
       <c r="B143" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>399</v>
+        <v>249</v>
       </c>
       <c r="B144" t="s">
-        <v>400</v>
+        <v>848</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>399</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>580</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>581</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>401</v>
+        <v>580</v>
       </c>
       <c r="B148" t="s">
-        <v>402</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>401</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>846</v>
+        <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>894</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>119</v>
+        <v>847</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>403</v>
+        <v>119</v>
       </c>
       <c r="B153" t="s">
         <v>120</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="B154" t="s">
-        <v>898</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4923,44 +4923,44 @@
         <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>845</v>
+        <v>898</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>582</v>
+        <v>18</v>
       </c>
       <c r="B156" t="s">
-        <v>524</v>
+        <v>845</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>404</v>
+        <v>582</v>
       </c>
       <c r="B157" t="s">
-        <v>845</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B158" t="s">
-        <v>524</v>
+        <v>845</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>405</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
         <v>251</v>
@@ -4968,39 +4968,39 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>447</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>583</v>
+        <v>446</v>
       </c>
       <c r="B163" t="s">
-        <v>584</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>844</v>
+        <v>583</v>
       </c>
       <c r="B164" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>585</v>
+        <v>844</v>
       </c>
       <c r="B165" t="s">
         <v>586</v>
@@ -5008,42 +5008,42 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>754</v>
+        <v>585</v>
       </c>
       <c r="B166" t="s">
-        <v>843</v>
+        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>754</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>843</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>587</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>587</v>
       </c>
       <c r="B169" t="s">
-        <v>182</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -5051,20 +5051,20 @@
         <v>72</v>
       </c>
       <c r="B171" t="s">
-        <v>589</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>590</v>
+        <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>906</v>
+        <v>590</v>
       </c>
       <c r="B173" t="s">
         <v>591</v>
@@ -5072,23 +5072,23 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>406</v>
+        <v>906</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>592</v>
+        <v>406</v>
       </c>
       <c r="B175" t="s">
-        <v>593</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B176" t="s">
         <v>593</v>
@@ -5096,34 +5096,34 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>907</v>
+        <v>594</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>448</v>
+        <v>907</v>
       </c>
       <c r="B178" t="s">
-        <v>449</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>815</v>
+        <v>448</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>155</v>
+        <v>815</v>
       </c>
       <c r="B180" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5131,388 +5131,388 @@
         <v>155</v>
       </c>
       <c r="B181" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>451</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="B183" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>928</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>929</v>
       </c>
       <c r="B185" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>410</v>
+        <v>931</v>
       </c>
       <c r="B186" t="s">
-        <v>765</v>
+        <v>932</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>408</v>
       </c>
       <c r="B187" t="s">
-        <v>160</v>
+        <v>409</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>842</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="B189" t="s">
-        <v>162</v>
+        <v>411</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="B190" t="s">
-        <v>309</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>841</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>842</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>595</v>
+        <v>161</v>
       </c>
       <c r="B193" t="s">
-        <v>596</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>452</v>
+        <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>453</v>
+        <v>841</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>597</v>
+        <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>598</v>
+        <v>223</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B197" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>601</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>600</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>602</v>
+        <v>452</v>
       </c>
       <c r="B199" t="s">
-        <v>603</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>597</v>
       </c>
       <c r="B200" t="s">
-        <v>311</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>454</v>
+        <v>602</v>
       </c>
       <c r="B203" t="s">
-        <v>455</v>
+        <v>603</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>456</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>457</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>605</v>
       </c>
       <c r="B206" t="s">
-        <v>840</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="B207" t="s">
-        <v>840</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>185</v>
+        <v>456</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>227</v>
+        <v>608</v>
       </c>
       <c r="B209" t="s">
-        <v>226</v>
+        <v>607</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B210" t="s">
-        <v>228</v>
+        <v>840</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>459</v>
+        <v>840</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>764</v>
+        <v>227</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>839</v>
+        <v>87</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="B217" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>312</v>
+        <v>764</v>
       </c>
       <c r="B218" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>205</v>
+        <v>839</v>
       </c>
       <c r="B220" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>609</v>
+        <v>189</v>
       </c>
       <c r="B221" t="s">
-        <v>610</v>
+        <v>190</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>611</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
-        <v>612</v>
+        <v>313</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>613</v>
+        <v>205</v>
       </c>
       <c r="B223" t="s">
-        <v>612</v>
+        <v>206</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>869</v>
+        <v>205</v>
       </c>
       <c r="B224" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B225" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B226" t="s">
-        <v>814</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B227" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>618</v>
+        <v>869</v>
       </c>
       <c r="B228" t="s">
-        <v>912</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B229" t="s">
         <v>615</v>
@@ -5520,471 +5520,471 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B230" t="s">
-        <v>621</v>
+        <v>814</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B231" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B232" t="s">
-        <v>624</v>
+        <v>912</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B233" t="s">
-        <v>908</v>
+        <v>615</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>64</v>
+        <v>622</v>
       </c>
       <c r="B234" t="s">
-        <v>65</v>
+        <v>621</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B235" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B236" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>140</v>
+        <v>625</v>
       </c>
       <c r="B237" t="s">
-        <v>141</v>
+        <v>908</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>756</v>
+        <v>64</v>
       </c>
       <c r="B238" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>776</v>
+        <v>626</v>
       </c>
       <c r="B239" t="s">
-        <v>141</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B240" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B241" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>630</v>
+        <v>756</v>
       </c>
       <c r="B242" t="s">
-        <v>631</v>
+        <v>141</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="B243" t="s">
-        <v>633</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>132</v>
+        <v>632</v>
       </c>
       <c r="B244" t="s">
-        <v>133</v>
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="B245" t="s">
-        <v>413</v>
+        <v>138</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B246" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>412</v>
+        <v>630</v>
       </c>
       <c r="B247" t="s">
-        <v>413</v>
+        <v>633</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>636</v>
+        <v>132</v>
       </c>
       <c r="B248" t="s">
-        <v>637</v>
+        <v>133</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>638</v>
+        <v>414</v>
       </c>
       <c r="B249" t="s">
-        <v>637</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>785</v>
+        <v>634</v>
       </c>
       <c r="B250" t="s">
-        <v>786</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>187</v>
+        <v>412</v>
       </c>
       <c r="B251" t="s">
-        <v>188</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>838</v>
+        <v>636</v>
       </c>
       <c r="B252" t="s">
-        <v>837</v>
+        <v>637</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>460</v>
+        <v>638</v>
       </c>
       <c r="B253" t="s">
-        <v>461</v>
+        <v>637</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>462</v>
+        <v>785</v>
       </c>
       <c r="B254" t="s">
-        <v>463</v>
+        <v>786</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B255" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>639</v>
+        <v>838</v>
       </c>
       <c r="B256" t="s">
-        <v>640</v>
+        <v>837</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>460</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>461</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B258" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>466</v>
+        <v>191</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>3</v>
+        <v>639</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>640</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="B261" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="B262" t="s">
-        <v>836</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="B263" t="s">
-        <v>416</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>469</v>
+        <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B265" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>810</v>
+        <v>248</v>
       </c>
       <c r="B266" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>808</v>
+        <v>415</v>
       </c>
       <c r="B267" t="s">
-        <v>809</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="B268" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>641</v>
+        <v>317</v>
       </c>
       <c r="B269" t="s">
-        <v>642</v>
+        <v>318</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>467</v>
+        <v>810</v>
       </c>
       <c r="B270" t="s">
-        <v>468</v>
+        <v>809</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>259</v>
+        <v>808</v>
       </c>
       <c r="B271" t="s">
-        <v>260</v>
+        <v>809</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B272" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>322</v>
+        <v>641</v>
       </c>
       <c r="B273" t="s">
-        <v>324</v>
+        <v>642</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>643</v>
+        <v>467</v>
       </c>
       <c r="B274" t="s">
-        <v>644</v>
+        <v>468</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>645</v>
+        <v>259</v>
       </c>
       <c r="B275" t="s">
-        <v>646</v>
+        <v>260</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>647</v>
+        <v>321</v>
       </c>
       <c r="B276" t="s">
-        <v>648</v>
+        <v>323</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>799</v>
+        <v>322</v>
       </c>
       <c r="B277" t="s">
-        <v>800</v>
+        <v>324</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B278" t="s">
-        <v>22</v>
+        <v>644</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B279" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>325</v>
+        <v>647</v>
       </c>
       <c r="B280" t="s">
-        <v>326</v>
+        <v>648</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>327</v>
+        <v>799</v>
       </c>
       <c r="B281" t="s">
-        <v>328</v>
+        <v>800</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>329</v>
+        <v>649</v>
       </c>
       <c r="B282" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>193</v>
+        <v>650</v>
       </c>
       <c r="B283" t="s">
-        <v>194</v>
+        <v>651</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="B284" t="s">
-        <v>68</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="B285" t="s">
-        <v>68</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="B286" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B287" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>758</v>
+        <v>70</v>
       </c>
       <c r="B288" t="s">
         <v>68</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B289" t="s">
         <v>68</v>
@@ -6000,1991 +6000,1991 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>757</v>
+        <v>261</v>
       </c>
       <c r="B290" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>470</v>
+        <v>163</v>
       </c>
       <c r="B291" t="s">
-        <v>471</v>
+        <v>164</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="B292" t="s">
-        <v>771</v>
+        <v>68</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>331</v>
+        <v>69</v>
       </c>
       <c r="B293" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>332</v>
+        <v>757</v>
       </c>
       <c r="B294" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="B295" t="s">
-        <v>878</v>
+        <v>471</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>229</v>
+        <v>770</v>
       </c>
       <c r="B296" t="s">
-        <v>230</v>
+        <v>771</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>472</v>
+        <v>331</v>
       </c>
       <c r="B297" t="s">
-        <v>473</v>
+        <v>323</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
       <c r="B298" t="s">
-        <v>652</v>
+        <v>324</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>653</v>
+        <v>195</v>
       </c>
       <c r="B299" t="s">
-        <v>23</v>
+        <v>878</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B300" t="s">
-        <v>833</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="B301" t="s">
-        <v>334</v>
+        <v>473</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>336</v>
+        <v>472</v>
       </c>
       <c r="B302" t="s">
-        <v>335</v>
+        <v>652</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>834</v>
+        <v>653</v>
       </c>
       <c r="B303" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="B304" t="s">
-        <v>475</v>
+        <v>833</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>196</v>
+        <v>333</v>
       </c>
       <c r="B305" t="s">
-        <v>197</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B306" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>654</v>
+        <v>834</v>
       </c>
       <c r="B307" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="B308" t="s">
-        <v>200</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="B309" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B310" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>832</v>
+        <v>654</v>
       </c>
       <c r="B311" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>518</v>
+        <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>519</v>
+        <v>200</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="B313" t="s">
-        <v>831</v>
+        <v>340</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="B314" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>263</v>
+        <v>832</v>
       </c>
       <c r="B315" t="s">
-        <v>476</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="B316" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>656</v>
+        <v>201</v>
       </c>
       <c r="B317" t="s">
-        <v>25</v>
+        <v>831</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>655</v>
+        <v>263</v>
       </c>
       <c r="B318" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>835</v>
+        <v>263</v>
       </c>
       <c r="B319" t="s">
-        <v>26</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>657</v>
+        <v>477</v>
       </c>
       <c r="B320" t="s">
-        <v>658</v>
+        <v>478</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>28</v>
+        <v>656</v>
       </c>
       <c r="B321" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B322" t="s">
-        <v>660</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>661</v>
+        <v>835</v>
       </c>
       <c r="B323" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B324" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>662</v>
+        <v>28</v>
       </c>
       <c r="B325" t="s">
-        <v>663</v>
+        <v>29</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B326" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>479</v>
+        <v>661</v>
       </c>
       <c r="B327" t="s">
-        <v>480</v>
+        <v>29</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>203</v>
+        <v>933</v>
       </c>
       <c r="B328" t="s">
-        <v>204</v>
+        <v>660</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>92</v>
+        <v>664</v>
       </c>
       <c r="B329" t="s">
-        <v>93</v>
+        <v>666</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B330" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>117</v>
+        <v>665</v>
       </c>
       <c r="B331" t="s">
-        <v>118</v>
+        <v>666</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>207</v>
+        <v>479</v>
       </c>
       <c r="B332" t="s">
-        <v>208</v>
+        <v>480</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B333" t="s">
-        <v>667</v>
+        <v>204</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="B334" t="s">
-        <v>901</v>
+        <v>93</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>207</v>
+        <v>916</v>
       </c>
       <c r="B335" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B336" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>672</v>
+        <v>117</v>
       </c>
       <c r="B337" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>672</v>
+        <v>207</v>
       </c>
       <c r="B338" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>673</v>
+        <v>207</v>
       </c>
       <c r="B339" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>673</v>
+        <v>207</v>
       </c>
       <c r="B340" t="s">
-        <v>675</v>
+        <v>901</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>801</v>
+        <v>207</v>
       </c>
       <c r="B341" t="s">
-        <v>802</v>
+        <v>902</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>481</v>
+        <v>670</v>
       </c>
       <c r="B342" t="s">
-        <v>482</v>
+        <v>671</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>672</v>
       </c>
       <c r="B343" t="s">
-        <v>343</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>209</v>
+        <v>672</v>
       </c>
       <c r="B344" t="s">
-        <v>830</v>
+        <v>31</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>673</v>
       </c>
       <c r="B345" t="s">
-        <v>345</v>
+        <v>674</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B346" t="s">
-        <v>885</v>
+        <v>675</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>677</v>
+        <v>801</v>
       </c>
       <c r="B347" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>886</v>
+        <v>481</v>
       </c>
       <c r="B348" t="s">
-        <v>887</v>
+        <v>482</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>678</v>
+        <v>342</v>
       </c>
       <c r="B349" t="s">
-        <v>679</v>
+        <v>343</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B350" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>231</v>
+        <v>913</v>
       </c>
       <c r="B351" t="s">
-        <v>232</v>
+        <v>914</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B352" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>231</v>
+        <v>676</v>
       </c>
       <c r="B353" t="s">
-        <v>681</v>
+        <v>885</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>347</v>
+        <v>677</v>
       </c>
       <c r="B354" t="s">
-        <v>348</v>
+        <v>32</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>680</v>
+        <v>886</v>
       </c>
       <c r="B355" t="s">
-        <v>681</v>
+        <v>887</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>142</v>
+        <v>678</v>
       </c>
       <c r="B356" t="s">
-        <v>143</v>
+        <v>679</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="B357" t="s">
-        <v>350</v>
+        <v>829</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="B358" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>682</v>
+        <v>231</v>
       </c>
       <c r="B359" t="s">
-        <v>683</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
       <c r="B360" t="s">
-        <v>484</v>
+        <v>681</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>485</v>
+        <v>347</v>
       </c>
       <c r="B361" t="s">
-        <v>486</v>
+        <v>348</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B362" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>685</v>
+        <v>142</v>
       </c>
       <c r="B363" t="s">
-        <v>684</v>
+        <v>143</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>687</v>
+        <v>349</v>
       </c>
       <c r="B364" t="s">
-        <v>688</v>
+        <v>350</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>689</v>
+        <v>351</v>
       </c>
       <c r="B365" t="s">
-        <v>688</v>
+        <v>352</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B366" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>818</v>
+        <v>483</v>
       </c>
       <c r="B367" t="s">
-        <v>33</v>
+        <v>484</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>96</v>
+        <v>485</v>
       </c>
       <c r="B368" t="s">
-        <v>97</v>
+        <v>486</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>96</v>
+        <v>685</v>
       </c>
       <c r="B369" t="s">
-        <v>515</v>
+        <v>686</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>99</v>
+        <v>685</v>
       </c>
       <c r="B370" t="s">
-        <v>98</v>
+        <v>684</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B371" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="B372" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B373" t="s">
-        <v>34</v>
+        <v>688</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>870</v>
+        <v>818</v>
       </c>
       <c r="B374" t="s">
-        <v>888</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>694</v>
+        <v>96</v>
       </c>
       <c r="B375" t="s">
-        <v>695</v>
+        <v>97</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>506</v>
+        <v>96</v>
       </c>
       <c r="B376" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>696</v>
+        <v>99</v>
       </c>
       <c r="B377" t="s">
-        <v>697</v>
+        <v>98</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>772</v>
+        <v>691</v>
       </c>
       <c r="B378" t="s">
-        <v>773</v>
+        <v>692</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B379" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>83</v>
+        <v>693</v>
       </c>
       <c r="B380" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>211</v>
+        <v>870</v>
       </c>
       <c r="B381" t="s">
-        <v>212</v>
+        <v>888</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>759</v>
+        <v>694</v>
       </c>
       <c r="B382" t="s">
-        <v>214</v>
+        <v>695</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>213</v>
+        <v>506</v>
       </c>
       <c r="B383" t="s">
-        <v>214</v>
+        <v>507</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>487</v>
+        <v>696</v>
       </c>
       <c r="B384" t="s">
-        <v>920</v>
+        <v>697</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>488</v>
+        <v>772</v>
       </c>
       <c r="B385" t="s">
-        <v>418</v>
+        <v>773</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>698</v>
+        <v>104</v>
       </c>
       <c r="B386" t="s">
-        <v>699</v>
+        <v>105</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B387" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="B388" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>489</v>
+        <v>759</v>
       </c>
       <c r="B389" t="s">
-        <v>490</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>513</v>
+        <v>213</v>
       </c>
       <c r="B390" t="s">
-        <v>514</v>
+        <v>214</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>76</v>
+        <v>487</v>
       </c>
       <c r="B391" t="s">
-        <v>79</v>
+        <v>920</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>760</v>
+        <v>488</v>
       </c>
       <c r="B392" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B393" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>701</v>
+        <v>89</v>
       </c>
       <c r="B394" t="s">
-        <v>889</v>
+        <v>90</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B395" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>165</v>
+        <v>489</v>
       </c>
       <c r="B396" t="s">
-        <v>166</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>871</v>
+        <v>513</v>
       </c>
       <c r="B397" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>703</v>
+        <v>76</v>
       </c>
       <c r="B398" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>131</v>
+        <v>760</v>
       </c>
       <c r="B399" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>704</v>
+        <v>921</v>
       </c>
       <c r="B400" t="s">
-        <v>36</v>
+        <v>922</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>828</v>
+        <v>700</v>
       </c>
       <c r="B401" t="s">
-        <v>36</v>
+        <v>702</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>525</v>
+        <v>701</v>
       </c>
       <c r="B402" t="s">
-        <v>81</v>
+        <v>889</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B403" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>705</v>
+        <v>165</v>
       </c>
       <c r="B404" t="s">
-        <v>706</v>
+        <v>166</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>707</v>
+        <v>871</v>
       </c>
       <c r="B405" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B406" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>707</v>
+        <v>131</v>
       </c>
       <c r="B407" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>257</v>
+        <v>704</v>
       </c>
       <c r="B408" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>5</v>
+        <v>918</v>
       </c>
       <c r="B409" t="s">
-        <v>6</v>
+        <v>919</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>353</v>
+        <v>828</v>
       </c>
       <c r="B410" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>129</v>
+        <v>525</v>
       </c>
       <c r="B411" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="B412" t="s">
-        <v>418</v>
+        <v>81</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>100</v>
+        <v>705</v>
       </c>
       <c r="B413" t="s">
-        <v>101</v>
+        <v>706</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>126</v>
+        <v>925</v>
       </c>
       <c r="B414" t="s">
-        <v>127</v>
+        <v>924</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>112</v>
+        <v>926</v>
       </c>
       <c r="B415" t="s">
-        <v>113</v>
+        <v>927</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>114</v>
+        <v>707</v>
       </c>
       <c r="B416" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B417" t="s">
-        <v>709</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B418" t="s">
-        <v>710</v>
+        <v>38</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>711</v>
+        <v>257</v>
       </c>
       <c r="B419" t="s">
-        <v>709</v>
+        <v>258</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>792</v>
+        <v>5</v>
       </c>
       <c r="B420" t="s">
-        <v>793</v>
+        <v>6</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>819</v>
+        <v>353</v>
       </c>
       <c r="B421" t="s">
-        <v>881</v>
+        <v>354</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B422" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="B423" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>523</v>
+        <v>923</v>
       </c>
       <c r="B424" t="s">
-        <v>356</v>
+        <v>924</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="B425" t="s">
-        <v>358</v>
+        <v>101</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>761</v>
+        <v>126</v>
       </c>
       <c r="B426" t="s">
-        <v>355</v>
+        <v>127</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B427" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B428" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>493</v>
+        <v>114</v>
       </c>
       <c r="B429" t="s">
-        <v>494</v>
+        <v>113</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>359</v>
+        <v>708</v>
       </c>
       <c r="B430" t="s">
-        <v>360</v>
+        <v>709</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B431" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B432" t="s">
-        <v>39</v>
+        <v>709</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>495</v>
+        <v>792</v>
       </c>
       <c r="B433" t="s">
-        <v>496</v>
+        <v>793</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B434" t="s">
-        <v>233</v>
+        <v>881</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>714</v>
+        <v>128</v>
       </c>
       <c r="B435" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>715</v>
+        <v>491</v>
       </c>
       <c r="B436" t="s">
-        <v>40</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>361</v>
+        <v>523</v>
       </c>
       <c r="B437" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>762</v>
+        <v>357</v>
       </c>
       <c r="B438" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>363</v>
+        <v>761</v>
       </c>
       <c r="B439" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>716</v>
+        <v>167</v>
       </c>
       <c r="B440" t="s">
-        <v>717</v>
+        <v>168</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>718</v>
+        <v>167</v>
       </c>
       <c r="B441" t="s">
-        <v>719</v>
+        <v>899</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>718</v>
+        <v>493</v>
       </c>
       <c r="B442" t="s">
-        <v>720</v>
+        <v>494</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>721</v>
+        <v>359</v>
       </c>
       <c r="B443" t="s">
-        <v>722</v>
+        <v>360</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>55</v>
+        <v>712</v>
       </c>
       <c r="B444" t="s">
-        <v>56</v>
+        <v>713</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>55</v>
+        <v>712</v>
       </c>
       <c r="B445" t="s">
-        <v>813</v>
+        <v>39</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>723</v>
+        <v>495</v>
       </c>
       <c r="B446" t="s">
-        <v>56</v>
+        <v>496</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>520</v>
+        <v>827</v>
       </c>
       <c r="B447" t="s">
-        <v>521</v>
+        <v>233</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>872</v>
+        <v>714</v>
       </c>
       <c r="B448" t="s">
-        <v>890</v>
+        <v>40</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>811</v>
+        <v>715</v>
       </c>
       <c r="B449" t="s">
-        <v>812</v>
+        <v>40</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="B450" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>85</v>
+        <v>762</v>
       </c>
       <c r="B451" t="s">
-        <v>497</v>
+        <v>362</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="B452" t="s">
-        <v>781</v>
+        <v>364</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>794</v>
+        <v>716</v>
       </c>
       <c r="B453" t="s">
-        <v>497</v>
+        <v>717</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B454" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B455" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>284</v>
+        <v>721</v>
       </c>
       <c r="B456" t="s">
-        <v>41</v>
+        <v>722</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>820</v>
+        <v>55</v>
       </c>
       <c r="B457" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="B458" t="s">
-        <v>235</v>
+        <v>813</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>365</v>
+        <v>723</v>
       </c>
       <c r="B459" t="s">
-        <v>366</v>
+        <v>56</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
       <c r="B460" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>43</v>
+        <v>872</v>
       </c>
       <c r="B461" t="s">
-        <v>45</v>
+        <v>890</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>873</v>
+        <v>811</v>
       </c>
       <c r="B462" t="s">
-        <v>61</v>
+        <v>812</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>727</v>
+        <v>85</v>
       </c>
       <c r="B463" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>821</v>
+        <v>85</v>
       </c>
       <c r="B464" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>728</v>
+        <v>85</v>
       </c>
       <c r="B465" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>731</v>
+        <v>794</v>
       </c>
       <c r="B466" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B467" t="s">
-        <v>44</v>
+        <v>725</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>106</v>
+        <v>724</v>
       </c>
       <c r="B468" t="s">
-        <v>107</v>
+        <v>726</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="B469" t="s">
-        <v>512</v>
+        <v>41</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>498</v>
+        <v>820</v>
       </c>
       <c r="B470" t="s">
-        <v>499</v>
+        <v>41</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>732</v>
+        <v>234</v>
       </c>
       <c r="B471" t="s">
-        <v>733</v>
+        <v>235</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>734</v>
+        <v>365</v>
       </c>
       <c r="B472" t="s">
-        <v>733</v>
+        <v>366</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="B473" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B474" t="s">
-        <v>368</v>
+        <v>45</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>369</v>
+        <v>873</v>
       </c>
       <c r="B475" t="s">
-        <v>370</v>
+        <v>61</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>371</v>
+        <v>727</v>
       </c>
       <c r="B476" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>909</v>
+        <v>821</v>
       </c>
       <c r="B477" t="s">
-        <v>910</v>
+        <v>45</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B478" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B479" t="s">
-        <v>738</v>
+        <v>44</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B480" t="s">
-        <v>782</v>
+        <v>44</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>739</v>
+        <v>106</v>
       </c>
       <c r="B481" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>788</v>
+        <v>106</v>
       </c>
       <c r="B482" t="s">
-        <v>789</v>
+        <v>512</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>740</v>
+        <v>498</v>
       </c>
       <c r="B483" t="s">
-        <v>47</v>
+        <v>499</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B484" t="s">
-        <v>47</v>
+        <v>733</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>822</v>
+        <v>734</v>
       </c>
       <c r="B485" t="s">
-        <v>877</v>
+        <v>733</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="B486" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B487" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="B488" t="s">
-        <v>876</v>
+        <v>370</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B489" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>237</v>
+        <v>909</v>
       </c>
       <c r="B490" t="s">
-        <v>875</v>
+        <v>910</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>500</v>
+        <v>735</v>
       </c>
       <c r="B491" t="s">
-        <v>501</v>
+        <v>736</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>379</v>
+        <v>737</v>
       </c>
       <c r="B492" t="s">
-        <v>380</v>
+        <v>738</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>134</v>
+        <v>737</v>
       </c>
       <c r="B493" t="s">
-        <v>48</v>
+        <v>782</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>823</v>
+        <v>739</v>
       </c>
       <c r="B494" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>135</v>
+        <v>788</v>
       </c>
       <c r="B495" t="s">
-        <v>48</v>
+        <v>789</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>911</v>
+        <v>740</v>
       </c>
       <c r="B496" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>216</v>
+        <v>741</v>
       </c>
       <c r="B497" t="s">
-        <v>826</v>
+        <v>47</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>215</v>
+        <v>822</v>
       </c>
       <c r="B498" t="s">
-        <v>381</v>
+        <v>877</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B499" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>795</v>
+        <v>375</v>
       </c>
       <c r="B500" t="s">
-        <v>796</v>
+        <v>376</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>744</v>
+        <v>236</v>
       </c>
       <c r="B501" t="s">
-        <v>745</v>
+        <v>876</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>742</v>
+        <v>377</v>
       </c>
       <c r="B502" t="s">
-        <v>743</v>
+        <v>378</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B503" t="s">
-        <v>268</v>
+        <v>875</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="B504" t="s">
-        <v>268</v>
+        <v>501</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="B505" t="s">
-        <v>509</v>
+        <v>380</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B506" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B507" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>825</v>
+        <v>135</v>
       </c>
       <c r="B508" t="s">
-        <v>882</v>
+        <v>48</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>783</v>
+        <v>911</v>
       </c>
       <c r="B509" t="s">
-        <v>784</v>
+        <v>48</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="B510" t="s">
-        <v>95</v>
+        <v>826</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>384</v>
+        <v>215</v>
       </c>
       <c r="B511" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="B512" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>238</v>
+        <v>795</v>
       </c>
       <c r="B513" t="s">
-        <v>874</v>
+        <v>796</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="B514" t="s">
-        <v>422</v>
+        <v>745</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>419</v>
+        <v>742</v>
       </c>
       <c r="B515" t="s">
-        <v>420</v>
+        <v>743</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>419</v>
+        <v>267</v>
       </c>
       <c r="B516" t="s">
-        <v>749</v>
+        <v>268</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>750</v>
+        <v>269</v>
       </c>
       <c r="B517" t="s">
-        <v>751</v>
+        <v>268</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>750</v>
+        <v>508</v>
       </c>
       <c r="B518" t="s">
-        <v>746</v>
+        <v>509</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="B519" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>57</v>
+        <v>824</v>
       </c>
       <c r="B520" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>270</v>
+        <v>825</v>
       </c>
       <c r="B521" t="s">
-        <v>271</v>
+        <v>882</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>502</v>
+        <v>783</v>
       </c>
       <c r="B522" t="s">
-        <v>503</v>
+        <v>784</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>747</v>
+        <v>94</v>
       </c>
       <c r="B523" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>748</v>
+        <v>384</v>
       </c>
       <c r="B524" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>913</v>
+        <v>272</v>
       </c>
       <c r="B525" t="s">
-        <v>914</v>
+        <v>273</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="B526" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>916</v>
+        <v>763</v>
       </c>
       <c r="B527" t="s">
-        <v>917</v>
+        <v>422</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>918</v>
+        <v>419</v>
       </c>
       <c r="B528" t="s">
-        <v>919</v>
+        <v>420</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>921</v>
+        <v>419</v>
       </c>
       <c r="B529" t="s">
-        <v>922</v>
+        <v>749</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>923</v>
+        <v>750</v>
       </c>
       <c r="B530" t="s">
-        <v>924</v>
+        <v>751</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>925</v>
+        <v>750</v>
       </c>
       <c r="B531" t="s">
-        <v>924</v>
+        <v>746</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>926</v>
+        <v>421</v>
       </c>
       <c r="B532" t="s">
-        <v>927</v>
+        <v>422</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>928</v>
+        <v>57</v>
       </c>
       <c r="B533" t="s">
-        <v>451</v>
+        <v>58</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>929</v>
+        <v>270</v>
       </c>
       <c r="B534" t="s">
-        <v>451</v>
+        <v>271</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>930</v>
+        <v>502</v>
       </c>
       <c r="B535" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>931</v>
+        <v>747</v>
       </c>
       <c r="B536" t="s">
-        <v>932</v>
+        <v>50</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>933</v>
+        <v>748</v>
       </c>
       <c r="B537" t="s">
-        <v>660</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B527">
-    <sortCondition ref="A1:A527"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B537">
+    <sortCondition ref="A1:A537"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A904F67-F6A1-3C40-A386-A053D7C94EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DADA79-497C-7B43-9881-5F34CA5CAD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40600" yWindow="-420" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="950">
   <si>
     <t>Full</t>
   </si>
@@ -2822,13 +2822,61 @@
   </si>
   <si>
     <t>obsrv</t>
+  </si>
+  <si>
+    <t>emb</t>
+  </si>
+  <si>
+    <t>embrittlement</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>wstg</t>
+  </si>
+  <si>
+    <t>wastage</t>
+  </si>
+  <si>
+    <t>degr</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waste </t>
+  </si>
+  <si>
+    <t>wst</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>chk</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2967,6 +3015,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3311,13 +3365,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3673,11 +3728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E541" sqref="E541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7982,6 +8037,78 @@
         <v>51</v>
       </c>
     </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>934</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>936</v>
+      </c>
+      <c r="B539" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>938</v>
+      </c>
+      <c r="B540" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>940</v>
+      </c>
+      <c r="B541" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>942</v>
+      </c>
+      <c r="B542" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>944</v>
+      </c>
+      <c r="B543" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>946</v>
+      </c>
+      <c r="B544" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>611</v>
+      </c>
+      <c r="B545" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>948</v>
+      </c>
+      <c r="B546" t="s">
+        <v>949</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B537">
     <sortCondition ref="A1:A537"/>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DADA79-497C-7B43-9881-5F34CA5CAD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7131A578-49D4-8A47-A8B2-73A92A770792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40600" yWindow="-420" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="953">
   <si>
     <t>Full</t>
   </si>
@@ -2350,9 +2350,6 @@
     <t>approx</t>
   </si>
   <si>
-    <t>inspect</t>
-  </si>
-  <si>
     <t>care of</t>
   </si>
   <si>
@@ -2870,6 +2867,18 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>xmtr</t>
+  </si>
+  <si>
+    <t>transmitter</t>
+  </si>
+  <si>
+    <t>htr</t>
+  </si>
+  <si>
+    <t>heater</t>
   </si>
 </sst>
 </file>
@@ -3728,11 +3737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E541" sqref="E541"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3815,7 +3824,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3839,10 +3848,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>778</v>
+      </c>
+      <c r="B13" t="s">
         <v>779</v>
-      </c>
-      <c r="B13" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3858,7 +3867,7 @@
         <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3866,7 +3875,7 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3882,7 +3891,7 @@
         <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3906,7 +3915,7 @@
         <v>542</v>
       </c>
       <c r="B21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,15 +3968,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -4002,7 +4011,7 @@
         <v>424</v>
       </c>
       <c r="B33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4018,7 +4027,7 @@
         <v>752</v>
       </c>
       <c r="B35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,10 +4064,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>857</v>
+      </c>
+      <c r="B40" t="s">
         <v>858</v>
-      </c>
-      <c r="B40" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,10 +4096,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>796</v>
+      </c>
+      <c r="B44" t="s">
         <v>797</v>
-      </c>
-      <c r="B44" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4120,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4146,7 +4155,7 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4250,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4280,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -4279,7 +4288,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -4295,15 +4304,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>865</v>
+      </c>
+      <c r="B70" t="s">
         <v>866</v>
-      </c>
-      <c r="B70" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -4319,18 +4328,18 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>789</v>
+      </c>
+      <c r="B73" t="s">
         <v>790</v>
-      </c>
-      <c r="B73" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B74" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4368,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B78" t="s">
         <v>436</v>
@@ -4370,7 +4379,7 @@
         <v>435</v>
       </c>
       <c r="B79" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4400,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B82" t="s">
         <v>436</v>
@@ -4407,10 +4416,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B84" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4418,7 +4427,7 @@
         <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4434,7 +4443,7 @@
         <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4474,7 +4483,7 @@
         <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4570,7 +4579,7 @@
         <v>568</v>
       </c>
       <c r="B104" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4578,7 +4587,7 @@
         <v>568</v>
       </c>
       <c r="B105" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4586,7 +4595,7 @@
         <v>568</v>
       </c>
       <c r="B106" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4624,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B110" t="s">
         <v>571</v>
@@ -4642,7 +4651,7 @@
         <v>769</v>
       </c>
       <c r="B113" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4650,7 +4659,7 @@
         <v>769</v>
       </c>
       <c r="B114" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,10 +4696,10 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>805</v>
+      </c>
+      <c r="B119" t="s">
         <v>806</v>
-      </c>
-      <c r="B119" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4754,15 +4763,15 @@
         <v>445</v>
       </c>
       <c r="B127" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>850</v>
+      </c>
+      <c r="B128" t="s">
         <v>851</v>
-      </c>
-      <c r="B128" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4784,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -4783,7 +4792,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -4831,10 +4840,10 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4882,7 +4891,7 @@
         <v>753</v>
       </c>
       <c r="B143" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4890,7 +4899,7 @@
         <v>249</v>
       </c>
       <c r="B144" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,15 +4952,15 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B151" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -4978,7 +4987,7 @@
         <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4986,7 +4995,7 @@
         <v>18</v>
       </c>
       <c r="B156" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -5002,7 +5011,7 @@
         <v>404</v>
       </c>
       <c r="B158" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5064,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B165" t="s">
         <v>586</v>
@@ -5074,7 +5083,7 @@
         <v>754</v>
       </c>
       <c r="B167" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5136,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B174" t="s">
         <v>591</v>
@@ -5159,7 +5168,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B178" t="s">
         <v>52</v>
@@ -5175,7 +5184,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B180" t="s">
         <v>309</v>
@@ -5207,7 +5216,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B184" t="s">
         <v>451</v>
@@ -5215,7 +5224,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B185" t="s">
         <v>451</v>
@@ -5223,10 +5232,10 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>930</v>
+      </c>
+      <c r="B186" t="s">
         <v>931</v>
-      </c>
-      <c r="B186" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5274,7 +5283,7 @@
         <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5298,7 +5307,7 @@
         <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5418,7 +5427,7 @@
         <v>253</v>
       </c>
       <c r="B210" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5426,7 +5435,7 @@
         <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5504,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B220" t="s">
         <v>19</v>
@@ -5559,7 +5568,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B228" t="s">
         <v>21</v>
@@ -5578,7 +5587,7 @@
         <v>614</v>
       </c>
       <c r="B230" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5594,7 +5603,7 @@
         <v>618</v>
       </c>
       <c r="B232" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5634,7 +5643,7 @@
         <v>625</v>
       </c>
       <c r="B237" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,26 +5688,26 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="B243" t="s">
-        <v>141</v>
+        <v>631</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>632</v>
+        <v>137</v>
       </c>
       <c r="B244" t="s">
-        <v>631</v>
+        <v>138</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>137</v>
+        <v>630</v>
       </c>
       <c r="B245" t="s">
-        <v>138</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5706,52 +5715,52 @@
         <v>630</v>
       </c>
       <c r="B246" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>630</v>
+        <v>132</v>
       </c>
       <c r="B247" t="s">
-        <v>633</v>
+        <v>133</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="B248" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>414</v>
+        <v>634</v>
       </c>
       <c r="B249" t="s">
-        <v>413</v>
+        <v>635</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>634</v>
+        <v>412</v>
       </c>
       <c r="B250" t="s">
-        <v>635</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>412</v>
+        <v>636</v>
       </c>
       <c r="B251" t="s">
-        <v>413</v>
+        <v>637</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B252" t="s">
         <v>637</v>
@@ -5759,127 +5768,127 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>638</v>
+        <v>784</v>
       </c>
       <c r="B253" t="s">
-        <v>637</v>
+        <v>785</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>785</v>
+        <v>187</v>
       </c>
       <c r="B254" t="s">
-        <v>786</v>
+        <v>188</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>187</v>
+        <v>837</v>
       </c>
       <c r="B255" t="s">
-        <v>188</v>
+        <v>836</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>838</v>
+        <v>460</v>
       </c>
       <c r="B256" t="s">
-        <v>837</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B257" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>462</v>
+        <v>191</v>
       </c>
       <c r="B258" t="s">
-        <v>463</v>
+        <v>192</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>191</v>
+        <v>639</v>
       </c>
       <c r="B259" t="s">
-        <v>192</v>
+        <v>640</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>639</v>
+        <v>255</v>
       </c>
       <c r="B260" t="s">
-        <v>640</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>255</v>
+        <v>464</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B262" t="s">
-        <v>465</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>466</v>
+        <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="B264" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="B265" t="s">
-        <v>316</v>
+        <v>835</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>248</v>
+        <v>415</v>
       </c>
       <c r="B266" t="s">
-        <v>836</v>
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="B267" t="s">
-        <v>416</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>469</v>
+        <v>317</v>
       </c>
       <c r="B268" t="s">
         <v>318</v>
@@ -5887,159 +5896,159 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>317</v>
+        <v>809</v>
       </c>
       <c r="B269" t="s">
-        <v>318</v>
+        <v>808</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B270" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>808</v>
+        <v>319</v>
       </c>
       <c r="B271" t="s">
-        <v>809</v>
+        <v>320</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>319</v>
+        <v>641</v>
       </c>
       <c r="B272" t="s">
-        <v>320</v>
+        <v>642</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>641</v>
+        <v>467</v>
       </c>
       <c r="B273" t="s">
-        <v>642</v>
+        <v>468</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>467</v>
+        <v>259</v>
       </c>
       <c r="B274" t="s">
-        <v>468</v>
+        <v>260</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="B275" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B276" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>322</v>
+        <v>643</v>
       </c>
       <c r="B277" t="s">
-        <v>324</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B278" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B279" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>647</v>
+        <v>798</v>
       </c>
       <c r="B280" t="s">
-        <v>648</v>
+        <v>799</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>799</v>
+        <v>649</v>
       </c>
       <c r="B281" t="s">
-        <v>800</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B282" t="s">
-        <v>22</v>
+        <v>651</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="B283" t="s">
-        <v>651</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B284" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B285" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="B286" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="B287" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B288" t="s">
         <v>68</v>
@@ -6047,31 +6056,31 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="B289" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="B290" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>163</v>
+        <v>758</v>
       </c>
       <c r="B291" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>758</v>
+        <v>69</v>
       </c>
       <c r="B292" t="s">
         <v>68</v>
@@ -6079,7 +6088,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>69</v>
+        <v>757</v>
       </c>
       <c r="B293" t="s">
         <v>68</v>
@@ -6087,58 +6096,58 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>757</v>
+        <v>470</v>
       </c>
       <c r="B294" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>470</v>
+        <v>770</v>
       </c>
       <c r="B295" t="s">
-        <v>471</v>
+        <v>771</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>770</v>
+        <v>331</v>
       </c>
       <c r="B296" t="s">
-        <v>771</v>
+        <v>323</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B297" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
       <c r="B298" t="s">
-        <v>324</v>
+        <v>877</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="B299" t="s">
-        <v>878</v>
+        <v>230</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="B300" t="s">
-        <v>230</v>
+        <v>473</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -6146,100 +6155,100 @@
         <v>472</v>
       </c>
       <c r="B301" t="s">
-        <v>473</v>
+        <v>652</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="B302" t="s">
-        <v>652</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>653</v>
+        <v>202</v>
       </c>
       <c r="B303" t="s">
-        <v>23</v>
+        <v>832</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="B304" t="s">
-        <v>833</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B305" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>336</v>
+        <v>833</v>
       </c>
       <c r="B306" t="s">
-        <v>335</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>834</v>
+        <v>474</v>
       </c>
       <c r="B307" t="s">
-        <v>27</v>
+        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>474</v>
+        <v>196</v>
       </c>
       <c r="B308" t="s">
-        <v>475</v>
+        <v>197</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="B309" t="s">
-        <v>197</v>
+        <v>338</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>337</v>
+        <v>654</v>
       </c>
       <c r="B310" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>654</v>
+        <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>199</v>
+        <v>339</v>
       </c>
       <c r="B312" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B313" t="s">
         <v>340</v>
@@ -6247,34 +6256,34 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>341</v>
+        <v>831</v>
       </c>
       <c r="B314" t="s">
-        <v>340</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>832</v>
+        <v>518</v>
       </c>
       <c r="B315" t="s">
-        <v>24</v>
+        <v>519</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>518</v>
+        <v>201</v>
       </c>
       <c r="B316" t="s">
-        <v>519</v>
+        <v>830</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="B317" t="s">
-        <v>831</v>
+        <v>264</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6282,28 +6291,28 @@
         <v>263</v>
       </c>
       <c r="B318" t="s">
-        <v>264</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>263</v>
+        <v>477</v>
       </c>
       <c r="B319" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>477</v>
+        <v>656</v>
       </c>
       <c r="B320" t="s">
-        <v>478</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B321" t="s">
         <v>25</v>
@@ -6311,130 +6320,130 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>655</v>
+        <v>834</v>
       </c>
       <c r="B322" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>835</v>
+        <v>657</v>
       </c>
       <c r="B323" t="s">
-        <v>26</v>
+        <v>658</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>657</v>
+        <v>28</v>
       </c>
       <c r="B324" t="s">
-        <v>658</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>28</v>
+        <v>659</v>
       </c>
       <c r="B325" t="s">
-        <v>29</v>
+        <v>660</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B326" t="s">
-        <v>660</v>
+        <v>29</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>661</v>
+        <v>932</v>
       </c>
       <c r="B327" t="s">
-        <v>29</v>
+        <v>660</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>933</v>
+        <v>664</v>
       </c>
       <c r="B328" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B329" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B330" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>665</v>
+        <v>479</v>
       </c>
       <c r="B331" t="s">
-        <v>666</v>
+        <v>480</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
       <c r="B332" t="s">
-        <v>480</v>
+        <v>204</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="B333" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>92</v>
+        <v>915</v>
       </c>
       <c r="B334" t="s">
-        <v>93</v>
+        <v>916</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>916</v>
+        <v>668</v>
       </c>
       <c r="B335" t="s">
-        <v>917</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>668</v>
+        <v>117</v>
       </c>
       <c r="B336" t="s">
-        <v>669</v>
+        <v>118</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="B337" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6442,7 +6451,7 @@
         <v>207</v>
       </c>
       <c r="B338" t="s">
-        <v>208</v>
+        <v>667</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6450,7 +6459,7 @@
         <v>207</v>
       </c>
       <c r="B339" t="s">
-        <v>667</v>
+        <v>900</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,18 +6472,18 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>207</v>
+        <v>670</v>
       </c>
       <c r="B341" t="s">
-        <v>902</v>
+        <v>671</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B342" t="s">
-        <v>671</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6482,15 +6491,15 @@
         <v>672</v>
       </c>
       <c r="B343" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B344" t="s">
-        <v>31</v>
+        <v>674</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6498,103 +6507,103 @@
         <v>673</v>
       </c>
       <c r="B345" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>673</v>
+        <v>800</v>
       </c>
       <c r="B346" t="s">
-        <v>675</v>
+        <v>801</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>801</v>
+        <v>481</v>
       </c>
       <c r="B347" t="s">
-        <v>802</v>
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>481</v>
+        <v>342</v>
       </c>
       <c r="B348" t="s">
-        <v>482</v>
+        <v>343</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="B349" t="s">
-        <v>343</v>
+        <v>829</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>209</v>
+        <v>912</v>
       </c>
       <c r="B350" t="s">
-        <v>830</v>
+        <v>913</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>913</v>
+        <v>344</v>
       </c>
       <c r="B351" t="s">
-        <v>914</v>
+        <v>345</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>344</v>
+        <v>676</v>
       </c>
       <c r="B352" t="s">
-        <v>345</v>
+        <v>884</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B353" t="s">
-        <v>885</v>
+        <v>32</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>677</v>
+        <v>885</v>
       </c>
       <c r="B354" t="s">
-        <v>32</v>
+        <v>886</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>886</v>
+        <v>678</v>
       </c>
       <c r="B355" t="s">
-        <v>887</v>
+        <v>679</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>678</v>
+        <v>210</v>
       </c>
       <c r="B356" t="s">
-        <v>679</v>
+        <v>828</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B357" t="s">
-        <v>829</v>
+        <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6602,7 +6611,7 @@
         <v>231</v>
       </c>
       <c r="B358" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6610,79 +6619,79 @@
         <v>231</v>
       </c>
       <c r="B359" t="s">
-        <v>346</v>
+        <v>681</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="B360" t="s">
-        <v>681</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>347</v>
+        <v>680</v>
       </c>
       <c r="B361" t="s">
-        <v>348</v>
+        <v>681</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>680</v>
+        <v>142</v>
       </c>
       <c r="B362" t="s">
-        <v>681</v>
+        <v>143</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="B363" t="s">
-        <v>143</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B364" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>351</v>
+        <v>682</v>
       </c>
       <c r="B365" t="s">
-        <v>352</v>
+        <v>683</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>682</v>
+        <v>483</v>
       </c>
       <c r="B366" t="s">
-        <v>683</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B367" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>485</v>
+        <v>685</v>
       </c>
       <c r="B368" t="s">
-        <v>486</v>
+        <v>686</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6690,20 +6699,20 @@
         <v>685</v>
       </c>
       <c r="B369" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B370" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B371" t="s">
         <v>688</v>
@@ -6711,7 +6720,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B372" t="s">
         <v>688</v>
@@ -6719,18 +6728,18 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>690</v>
+        <v>817</v>
       </c>
       <c r="B373" t="s">
-        <v>688</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>818</v>
+        <v>96</v>
       </c>
       <c r="B374" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6738,116 +6747,116 @@
         <v>96</v>
       </c>
       <c r="B375" t="s">
-        <v>97</v>
+        <v>515</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B376" t="s">
-        <v>515</v>
+        <v>98</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>99</v>
+        <v>691</v>
       </c>
       <c r="B377" t="s">
-        <v>98</v>
+        <v>692</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>691</v>
+        <v>108</v>
       </c>
       <c r="B378" t="s">
-        <v>692</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>108</v>
+        <v>693</v>
       </c>
       <c r="B379" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>693</v>
+        <v>869</v>
       </c>
       <c r="B380" t="s">
-        <v>34</v>
+        <v>887</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>870</v>
+        <v>694</v>
       </c>
       <c r="B381" t="s">
-        <v>888</v>
+        <v>695</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>694</v>
+        <v>506</v>
       </c>
       <c r="B382" t="s">
-        <v>695</v>
+        <v>507</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>506</v>
+        <v>696</v>
       </c>
       <c r="B383" t="s">
-        <v>507</v>
+        <v>697</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>696</v>
+        <v>772</v>
       </c>
       <c r="B384" t="s">
-        <v>697</v>
+        <v>773</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>772</v>
+        <v>104</v>
       </c>
       <c r="B385" t="s">
-        <v>773</v>
+        <v>105</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B386" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="B387" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>211</v>
+        <v>759</v>
       </c>
       <c r="B388" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>759</v>
+        <v>213</v>
       </c>
       <c r="B389" t="s">
         <v>214</v>
@@ -6855,39 +6864,39 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>213</v>
+        <v>487</v>
       </c>
       <c r="B390" t="s">
-        <v>214</v>
+        <v>919</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B391" t="s">
-        <v>920</v>
+        <v>418</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>488</v>
+        <v>698</v>
       </c>
       <c r="B392" t="s">
-        <v>418</v>
+        <v>699</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>698</v>
+        <v>89</v>
       </c>
       <c r="B393" t="s">
-        <v>699</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B394" t="s">
         <v>90</v>
@@ -6895,31 +6904,31 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>91</v>
+        <v>489</v>
       </c>
       <c r="B395" t="s">
-        <v>90</v>
+        <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B396" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="B397" t="s">
-        <v>514</v>
+        <v>79</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>76</v>
+        <v>760</v>
       </c>
       <c r="B398" t="s">
         <v>79</v>
@@ -6927,103 +6936,103 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>760</v>
+        <v>920</v>
       </c>
       <c r="B399" t="s">
-        <v>79</v>
+        <v>921</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>921</v>
+        <v>700</v>
       </c>
       <c r="B400" t="s">
-        <v>922</v>
+        <v>702</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B401" t="s">
-        <v>702</v>
+        <v>888</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>701</v>
+        <v>77</v>
       </c>
       <c r="B402" t="s">
-        <v>889</v>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B403" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>165</v>
+        <v>870</v>
       </c>
       <c r="B404" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>871</v>
+        <v>703</v>
       </c>
       <c r="B405" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>703</v>
+        <v>131</v>
       </c>
       <c r="B406" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>131</v>
+        <v>704</v>
       </c>
       <c r="B407" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>704</v>
+        <v>917</v>
       </c>
       <c r="B408" t="s">
-        <v>36</v>
+        <v>918</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>918</v>
+        <v>827</v>
       </c>
       <c r="B409" t="s">
-        <v>919</v>
+        <v>36</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>828</v>
+        <v>525</v>
       </c>
       <c r="B410" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="B411" t="s">
         <v>81</v>
@@ -7031,18 +7040,18 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>78</v>
+        <v>705</v>
       </c>
       <c r="B412" t="s">
-        <v>81</v>
+        <v>706</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>705</v>
+        <v>924</v>
       </c>
       <c r="B413" t="s">
-        <v>706</v>
+        <v>923</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -7050,15 +7059,15 @@
         <v>925</v>
       </c>
       <c r="B414" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>926</v>
+        <v>707</v>
       </c>
       <c r="B415" t="s">
-        <v>927</v>
+        <v>82</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -7066,7 +7075,7 @@
         <v>707</v>
       </c>
       <c r="B416" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -7074,79 +7083,79 @@
         <v>707</v>
       </c>
       <c r="B417" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>707</v>
+        <v>257</v>
       </c>
       <c r="B418" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="B419" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>5</v>
+        <v>353</v>
       </c>
       <c r="B420" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>353</v>
+        <v>129</v>
       </c>
       <c r="B421" t="s">
-        <v>354</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
       <c r="B422" t="s">
-        <v>130</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>417</v>
+        <v>922</v>
       </c>
       <c r="B423" t="s">
-        <v>418</v>
+        <v>923</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>923</v>
+        <v>100</v>
       </c>
       <c r="B424" t="s">
-        <v>924</v>
+        <v>101</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B425" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B426" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -7154,23 +7163,23 @@
         <v>112</v>
       </c>
       <c r="B427" t="s">
-        <v>113</v>
+        <v>914</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B428" t="s">
-        <v>915</v>
+        <v>113</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>114</v>
+        <v>708</v>
       </c>
       <c r="B429" t="s">
-        <v>113</v>
+        <v>709</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -7178,79 +7187,79 @@
         <v>708</v>
       </c>
       <c r="B430" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B431" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
       <c r="B432" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="B433" t="s">
-        <v>793</v>
+        <v>880</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>819</v>
+        <v>128</v>
       </c>
       <c r="B434" t="s">
-        <v>881</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>128</v>
+        <v>491</v>
       </c>
       <c r="B435" t="s">
-        <v>127</v>
+        <v>492</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="B436" t="s">
-        <v>492</v>
+        <v>356</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="B437" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>357</v>
+        <v>761</v>
       </c>
       <c r="B438" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>761</v>
+        <v>167</v>
       </c>
       <c r="B439" t="s">
-        <v>355</v>
+        <v>168</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7258,31 +7267,31 @@
         <v>167</v>
       </c>
       <c r="B440" t="s">
-        <v>168</v>
+        <v>898</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>167</v>
+        <v>493</v>
       </c>
       <c r="B441" t="s">
-        <v>899</v>
+        <v>494</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>493</v>
+        <v>359</v>
       </c>
       <c r="B442" t="s">
-        <v>494</v>
+        <v>360</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>359</v>
+        <v>712</v>
       </c>
       <c r="B443" t="s">
-        <v>360</v>
+        <v>713</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7290,36 +7299,36 @@
         <v>712</v>
       </c>
       <c r="B444" t="s">
-        <v>713</v>
+        <v>39</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>712</v>
+        <v>495</v>
       </c>
       <c r="B445" t="s">
-        <v>39</v>
+        <v>496</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>495</v>
+        <v>826</v>
       </c>
       <c r="B446" t="s">
-        <v>496</v>
+        <v>233</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>827</v>
+        <v>714</v>
       </c>
       <c r="B447" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B448" t="s">
         <v>40</v>
@@ -7327,15 +7336,15 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>715</v>
+        <v>361</v>
       </c>
       <c r="B449" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>361</v>
+        <v>762</v>
       </c>
       <c r="B450" t="s">
         <v>362</v>
@@ -7343,26 +7352,26 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>762</v>
+        <v>363</v>
       </c>
       <c r="B451" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>363</v>
+        <v>716</v>
       </c>
       <c r="B452" t="s">
-        <v>364</v>
+        <v>717</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B453" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7370,23 +7379,23 @@
         <v>718</v>
       </c>
       <c r="B454" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B455" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>721</v>
+        <v>55</v>
       </c>
       <c r="B456" t="s">
-        <v>722</v>
+        <v>56</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7394,47 +7403,47 @@
         <v>55</v>
       </c>
       <c r="B457" t="s">
-        <v>56</v>
+        <v>812</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>55</v>
+        <v>723</v>
       </c>
       <c r="B458" t="s">
-        <v>813</v>
+        <v>56</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="B459" t="s">
-        <v>56</v>
+        <v>521</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>520</v>
+        <v>871</v>
       </c>
       <c r="B460" t="s">
-        <v>521</v>
+        <v>889</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>872</v>
+        <v>810</v>
       </c>
       <c r="B461" t="s">
-        <v>890</v>
+        <v>811</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>811</v>
+        <v>85</v>
       </c>
       <c r="B462" t="s">
-        <v>812</v>
+        <v>86</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7442,7 +7451,7 @@
         <v>85</v>
       </c>
       <c r="B463" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7450,23 +7459,23 @@
         <v>85</v>
       </c>
       <c r="B464" t="s">
-        <v>497</v>
+        <v>780</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>85</v>
+        <v>793</v>
       </c>
       <c r="B465" t="s">
-        <v>781</v>
+        <v>497</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="B466" t="s">
-        <v>497</v>
+        <v>725</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7474,20 +7483,20 @@
         <v>724</v>
       </c>
       <c r="B467" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>724</v>
+        <v>284</v>
       </c>
       <c r="B468" t="s">
-        <v>726</v>
+        <v>41</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>284</v>
+        <v>819</v>
       </c>
       <c r="B469" t="s">
         <v>41</v>
@@ -7495,26 +7504,26 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>820</v>
+        <v>234</v>
       </c>
       <c r="B470" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="B471" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="B472" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7522,52 +7531,52 @@
         <v>43</v>
       </c>
       <c r="B473" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>43</v>
+        <v>872</v>
       </c>
       <c r="B474" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>873</v>
+        <v>727</v>
       </c>
       <c r="B475" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>727</v>
+        <v>820</v>
       </c>
       <c r="B476" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>821</v>
+        <v>728</v>
       </c>
       <c r="B477" t="s">
-        <v>45</v>
+        <v>729</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B478" t="s">
-        <v>729</v>
+        <v>44</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B479" t="s">
         <v>44</v>
@@ -7575,10 +7584,10 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>730</v>
+        <v>106</v>
       </c>
       <c r="B480" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7586,28 +7595,28 @@
         <v>106</v>
       </c>
       <c r="B481" t="s">
-        <v>107</v>
+        <v>512</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="B482" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>498</v>
+        <v>732</v>
       </c>
       <c r="B483" t="s">
-        <v>499</v>
+        <v>733</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B484" t="s">
         <v>733</v>
@@ -7615,58 +7624,58 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>734</v>
+        <v>265</v>
       </c>
       <c r="B485" t="s">
-        <v>733</v>
+        <v>266</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="B486" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B487" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B488" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>371</v>
+        <v>908</v>
       </c>
       <c r="B489" t="s">
-        <v>372</v>
+        <v>909</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>909</v>
+        <v>735</v>
       </c>
       <c r="B490" t="s">
-        <v>910</v>
+        <v>736</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B491" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7674,36 +7683,36 @@
         <v>737</v>
       </c>
       <c r="B492" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B493" t="s">
-        <v>782</v>
+        <v>46</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="B494" t="s">
-        <v>46</v>
+        <v>788</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>788</v>
+        <v>740</v>
       </c>
       <c r="B495" t="s">
-        <v>789</v>
+        <v>47</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B496" t="s">
         <v>47</v>
@@ -7711,79 +7720,79 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
       <c r="B497" t="s">
-        <v>47</v>
+        <v>876</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>822</v>
+        <v>373</v>
       </c>
       <c r="B498" t="s">
-        <v>877</v>
+        <v>374</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B499" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="B500" t="s">
-        <v>376</v>
+        <v>875</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="B501" t="s">
-        <v>876</v>
+        <v>378</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>377</v>
+        <v>237</v>
       </c>
       <c r="B502" t="s">
-        <v>378</v>
+        <v>874</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>237</v>
+        <v>500</v>
       </c>
       <c r="B503" t="s">
-        <v>875</v>
+        <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="B504" t="s">
-        <v>501</v>
+        <v>380</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="B505" t="s">
-        <v>380</v>
+        <v>48</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>134</v>
+        <v>822</v>
       </c>
       <c r="B506" t="s">
         <v>48</v>
@@ -7791,7 +7800,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>823</v>
+        <v>135</v>
       </c>
       <c r="B507" t="s">
         <v>48</v>
@@ -7799,7 +7808,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>135</v>
+        <v>910</v>
       </c>
       <c r="B508" t="s">
         <v>48</v>
@@ -7807,63 +7816,63 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>911</v>
+        <v>216</v>
       </c>
       <c r="B509" t="s">
-        <v>48</v>
+        <v>825</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B510" t="s">
-        <v>826</v>
+        <v>381</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="B511" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>382</v>
+        <v>794</v>
       </c>
       <c r="B512" t="s">
-        <v>383</v>
+        <v>795</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>795</v>
+        <v>744</v>
       </c>
       <c r="B513" t="s">
-        <v>796</v>
+        <v>745</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B514" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>742</v>
+        <v>267</v>
       </c>
       <c r="B515" t="s">
-        <v>743</v>
+        <v>268</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B516" t="s">
         <v>268</v>
@@ -7871,26 +7880,26 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>269</v>
+        <v>508</v>
       </c>
       <c r="B517" t="s">
-        <v>268</v>
+        <v>509</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>508</v>
+        <v>121</v>
       </c>
       <c r="B518" t="s">
-        <v>509</v>
+        <v>122</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="B519" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -7898,63 +7907,63 @@
         <v>824</v>
       </c>
       <c r="B520" t="s">
-        <v>49</v>
+        <v>881</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>825</v>
+        <v>782</v>
       </c>
       <c r="B521" t="s">
-        <v>882</v>
+        <v>783</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>783</v>
+        <v>94</v>
       </c>
       <c r="B522" t="s">
-        <v>784</v>
+        <v>95</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="B523" t="s">
-        <v>95</v>
+        <v>385</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="B524" t="s">
-        <v>385</v>
+        <v>273</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B525" t="s">
-        <v>273</v>
+        <v>873</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>238</v>
+        <v>763</v>
       </c>
       <c r="B526" t="s">
-        <v>874</v>
+        <v>422</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>763</v>
+        <v>419</v>
       </c>
       <c r="B527" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -7962,15 +7971,15 @@
         <v>419</v>
       </c>
       <c r="B528" t="s">
-        <v>420</v>
+        <v>749</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>419</v>
+        <v>750</v>
       </c>
       <c r="B529" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -7978,140 +7987,148 @@
         <v>750</v>
       </c>
       <c r="B530" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>750</v>
+        <v>421</v>
       </c>
       <c r="B531" t="s">
-        <v>746</v>
+        <v>422</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>421</v>
+        <v>57</v>
       </c>
       <c r="B532" t="s">
-        <v>422</v>
+        <v>58</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="B533" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>270</v>
+        <v>502</v>
       </c>
       <c r="B534" t="s">
-        <v>271</v>
+        <v>503</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>502</v>
+        <v>747</v>
       </c>
       <c r="B535" t="s">
-        <v>503</v>
+        <v>50</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B536" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>748</v>
-      </c>
-      <c r="B537" t="s">
-        <v>51</v>
+        <v>933</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>934</v>
-      </c>
-      <c r="B538" s="4" t="s">
         <v>935</v>
+      </c>
+      <c r="B538" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B539" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B540" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B541" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
+        <v>943</v>
+      </c>
+      <c r="B542" t="s">
         <v>942</v>
-      </c>
-      <c r="B542" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
+        <v>945</v>
+      </c>
+      <c r="B543" t="s">
         <v>944</v>
-      </c>
-      <c r="B543" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
+        <v>611</v>
+      </c>
+      <c r="B544" t="s">
         <v>946</v>
-      </c>
-      <c r="B544" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>611</v>
+        <v>947</v>
       </c>
       <c r="B545" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B546" t="s">
-        <v>949</v>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>951</v>
+      </c>
+      <c r="B547" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B537">
-    <sortCondition ref="A1:A537"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B536">
+    <sortCondition ref="A1:A536"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7131A578-49D4-8A47-A8B2-73A92A770792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE378F8-9876-B843-8C84-6FC286B9B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40600" yWindow="-420" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="1800" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1044">
   <si>
     <t>Full</t>
   </si>
@@ -697,9 +697,6 @@
     <t>fw</t>
   </si>
   <si>
-    <t>fillet weld</t>
-  </si>
-  <si>
     <t>hot rolled</t>
   </si>
   <si>
@@ -2879,13 +2876,289 @@
   </si>
   <si>
     <t>heater</t>
+  </si>
+  <si>
+    <t>retest</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>verif</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>atmos</t>
+  </si>
+  <si>
+    <t>atmospheric</t>
+  </si>
+  <si>
+    <t>cntl</t>
+  </si>
+  <si>
+    <t>cntrl</t>
+  </si>
+  <si>
+    <t>wshr</t>
+  </si>
+  <si>
+    <t>washer</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
+    <t>xfer</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>purif</t>
+  </si>
+  <si>
+    <t>purification</t>
+  </si>
+  <si>
+    <t>hx</t>
+  </si>
+  <si>
+    <t>heat exchanger</t>
+  </si>
+  <si>
+    <t>scaff</t>
+  </si>
+  <si>
+    <t>scaffolding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaf </t>
+  </si>
+  <si>
+    <t>cbl</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>cbls</t>
+  </si>
+  <si>
+    <t>cables</t>
+  </si>
+  <si>
+    <t>discnt</t>
+  </si>
+  <si>
+    <t>disconnect</t>
+  </si>
+  <si>
+    <t>dscnt</t>
+  </si>
+  <si>
+    <t>dscnct</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>regenerate</t>
+  </si>
+  <si>
+    <t>recomb</t>
+  </si>
+  <si>
+    <t>recombine</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <t>depressurize</t>
+  </si>
+  <si>
+    <t>demin</t>
+  </si>
+  <si>
+    <t>demineralize</t>
+  </si>
+  <si>
+    <t>strk</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>cntrld</t>
+  </si>
+  <si>
+    <t>controlled</t>
+  </si>
+  <si>
+    <t>dwncmr</t>
+  </si>
+  <si>
+    <t>downcomer</t>
+  </si>
+  <si>
+    <t>drn</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>fdwtr</t>
+  </si>
+  <si>
+    <t>feedwater</t>
+  </si>
+  <si>
+    <t>feed water</t>
+  </si>
+  <si>
+    <t>turb</t>
+  </si>
+  <si>
+    <t>turbine</t>
+  </si>
+  <si>
+    <t>emerg</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>alternator</t>
+  </si>
+  <si>
+    <t>shft</t>
+  </si>
+  <si>
+    <t>shaft</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>flw</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>funct</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>trng</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>tks</t>
+  </si>
+  <si>
+    <t>tanks</t>
+  </si>
+  <si>
+    <t>isol</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>suct</t>
+  </si>
+  <si>
+    <t>suction</t>
+  </si>
+  <si>
+    <t>islt</t>
+  </si>
+  <si>
+    <t>tnk</t>
+  </si>
+  <si>
+    <t>tnks</t>
+  </si>
+  <si>
+    <t>disch</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>emrg</t>
+  </si>
+  <si>
+    <t>xfmr</t>
+  </si>
+  <si>
+    <t>xfrmr</t>
+  </si>
+  <si>
+    <t>stby</t>
+  </si>
+  <si>
+    <t>stand by</t>
+  </si>
+  <si>
+    <t>assmby</t>
+  </si>
+  <si>
+    <t>vrfy</t>
+  </si>
+  <si>
+    <t>rls</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>lvl</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>deten</t>
+  </si>
+  <si>
+    <t>detension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3031,6 +3304,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3374,7 +3654,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3382,6 +3662,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3737,11 +4018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B547"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
+    <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3776,55 +4057,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="s">
         <v>527</v>
-      </c>
-      <c r="B4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" t="s">
         <v>529</v>
-      </c>
-      <c r="B5" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
         <v>386</v>
-      </c>
-      <c r="B6" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" t="s">
         <v>532</v>
-      </c>
-      <c r="B8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3832,34 +4113,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" t="s">
         <v>534</v>
-      </c>
-      <c r="B11" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>777</v>
+      </c>
+      <c r="B13" t="s">
         <v>778</v>
-      </c>
-      <c r="B13" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" t="s">
         <v>537</v>
-      </c>
-      <c r="B14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3867,7 +4148,7 @@
         <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3875,36 +4156,36 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" t="s">
         <v>539</v>
-      </c>
-      <c r="B17" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" t="s">
         <v>274</v>
-      </c>
-      <c r="B19" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -3912,34 +4193,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" t="s">
         <v>276</v>
-      </c>
-      <c r="B22" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B24" t="s">
         <v>544</v>
-      </c>
-      <c r="B24" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3955,28 +4236,28 @@
         <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -3984,98 +4265,98 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
         <v>278</v>
-      </c>
-      <c r="B30" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s">
         <v>280</v>
-      </c>
-      <c r="B31" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>546</v>
+      </c>
+      <c r="B32" t="s">
         <v>547</v>
-      </c>
-      <c r="B32" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>548</v>
+      </c>
+      <c r="B34" t="s">
         <v>549</v>
-      </c>
-      <c r="B34" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B35" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" t="s">
         <v>282</v>
-      </c>
-      <c r="B36" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>551</v>
+      </c>
+      <c r="B39" t="s">
         <v>552</v>
-      </c>
-      <c r="B39" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>856</v>
+      </c>
+      <c r="B40" t="s">
         <v>857</v>
-      </c>
-      <c r="B40" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" t="s">
         <v>426</v>
-      </c>
-      <c r="B41" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -4088,39 +4369,39 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" t="s">
         <v>285</v>
-      </c>
-      <c r="B43" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>795</v>
+      </c>
+      <c r="B44" t="s">
         <v>796</v>
-      </c>
-      <c r="B44" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" t="s">
         <v>287</v>
-      </c>
-      <c r="B45" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>553</v>
+      </c>
+      <c r="B46" t="s">
         <v>554</v>
-      </c>
-      <c r="B46" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4128,10 +4409,10 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -4155,76 +4436,76 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" t="s">
         <v>291</v>
-      </c>
-      <c r="B52" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>556</v>
+      </c>
+      <c r="B53" t="s">
         <v>557</v>
-      </c>
-      <c r="B53" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" t="s">
         <v>293</v>
-      </c>
-      <c r="B55" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" t="s">
         <v>429</v>
-      </c>
-      <c r="B56" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
         <v>295</v>
-      </c>
-      <c r="B57" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
         <v>297</v>
-      </c>
-      <c r="B58" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
         <v>239</v>
-      </c>
-      <c r="B59" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -4240,18 +4521,18 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" t="s">
         <v>431</v>
-      </c>
-      <c r="B62" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" t="s">
         <v>301</v>
-      </c>
-      <c r="B63" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4259,15 +4540,15 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" t="s">
         <v>299</v>
-      </c>
-      <c r="B65" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4280,7 +4561,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -4288,7 +4569,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -4296,23 +4577,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>432</v>
+      </c>
+      <c r="B69" t="s">
         <v>433</v>
-      </c>
-      <c r="B69" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>864</v>
+      </c>
+      <c r="B70" t="s">
         <v>865</v>
-      </c>
-      <c r="B70" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -4320,31 +4601,31 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" t="s">
         <v>303</v>
-      </c>
-      <c r="B72" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>788</v>
+      </c>
+      <c r="B73" t="s">
         <v>789</v>
-      </c>
-      <c r="B73" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B74" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -4352,7 +4633,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -4368,42 +4649,42 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>559</v>
+      </c>
+      <c r="B80" t="s">
         <v>560</v>
-      </c>
-      <c r="B80" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4416,47 +4697,47 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B84" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B86" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B87" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" t="s">
         <v>241</v>
-      </c>
-      <c r="B88" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -4464,39 +4745,39 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" t="s">
         <v>243</v>
-      </c>
-      <c r="B90" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93" t="s">
         <v>393</v>
-      </c>
-      <c r="B93" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s">
         <v>60</v>
@@ -4512,18 +4793,18 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4536,15 +4817,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>563</v>
+      </c>
+      <c r="B99" t="s">
         <v>564</v>
-      </c>
-      <c r="B99" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B100" t="s">
         <v>174</v>
@@ -4560,122 +4841,122 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>567</v>
+      </c>
+      <c r="B103" t="s">
         <v>568</v>
-      </c>
-      <c r="B103" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B104" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B105" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B106" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" t="s">
         <v>391</v>
-      </c>
-      <c r="B107" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B108" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B110" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>571</v>
+      </c>
+      <c r="B111" t="s">
         <v>572</v>
-      </c>
-      <c r="B111" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B113" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B114" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" t="s">
         <v>441</v>
-      </c>
-      <c r="B115" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" t="s">
         <v>395</v>
-      </c>
-      <c r="B116" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4696,26 +4977,26 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>804</v>
+      </c>
+      <c r="B119" t="s">
         <v>805</v>
-      </c>
-      <c r="B119" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" t="s">
         <v>306</v>
-      </c>
-      <c r="B120" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4728,7 +5009,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B123" t="s">
         <v>60</v>
@@ -4736,10 +5017,10 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4752,39 +5033,39 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>442</v>
+      </c>
+      <c r="B126" t="s">
         <v>443</v>
-      </c>
-      <c r="B126" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>849</v>
+      </c>
+      <c r="B128" t="s">
         <v>850</v>
-      </c>
-      <c r="B128" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>509</v>
+      </c>
+      <c r="B129" t="s">
         <v>510</v>
-      </c>
-      <c r="B129" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -4792,7 +5073,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -4800,10 +5081,10 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>573</v>
+      </c>
+      <c r="B132" t="s">
         <v>574</v>
-      </c>
-      <c r="B132" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4824,26 +5105,26 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>396</v>
+      </c>
+      <c r="B135" t="s">
         <v>397</v>
-      </c>
-      <c r="B135" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>503</v>
+      </c>
+      <c r="B136" t="s">
         <v>504</v>
-      </c>
-      <c r="B136" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4856,58 +5137,58 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>575</v>
+      </c>
+      <c r="B139" t="s">
         <v>576</v>
-      </c>
-      <c r="B139" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>765</v>
+      </c>
+      <c r="B140" t="s">
         <v>766</v>
-      </c>
-      <c r="B140" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B141" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>577</v>
+      </c>
+      <c r="B142" t="s">
         <v>578</v>
-      </c>
-      <c r="B142" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B143" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B144" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>398</v>
+      </c>
+      <c r="B145" t="s">
         <v>399</v>
-      </c>
-      <c r="B145" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4928,18 +5209,18 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>579</v>
+      </c>
+      <c r="B148" t="s">
         <v>580</v>
-      </c>
-      <c r="B148" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" t="s">
         <v>401</v>
-      </c>
-      <c r="B149" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4952,15 +5233,15 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B151" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -4976,7 +5257,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s">
         <v>120</v>
@@ -4987,7 +5268,7 @@
         <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4995,47 +5276,47 @@
         <v>18</v>
       </c>
       <c r="B156" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B157" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B158" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B159" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" t="s">
         <v>250</v>
-      </c>
-      <c r="B160" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -5048,42 +5329,42 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>445</v>
+      </c>
+      <c r="B163" t="s">
         <v>446</v>
-      </c>
-      <c r="B163" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>582</v>
+      </c>
+      <c r="B164" t="s">
         <v>583</v>
-      </c>
-      <c r="B164" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B165" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>584</v>
+      </c>
+      <c r="B166" t="s">
         <v>585</v>
-      </c>
-      <c r="B166" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B167" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -5096,10 +5377,10 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>586</v>
+      </c>
+      <c r="B169" t="s">
         <v>587</v>
-      </c>
-      <c r="B169" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -5123,52 +5404,52 @@
         <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>589</v>
+      </c>
+      <c r="B173" t="s">
         <v>590</v>
-      </c>
-      <c r="B173" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B174" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>405</v>
+      </c>
+      <c r="B175" t="s">
         <v>406</v>
-      </c>
-      <c r="B175" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>591</v>
+      </c>
+      <c r="B176" t="s">
         <v>592</v>
-      </c>
-      <c r="B176" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B177" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B178" t="s">
         <v>52</v>
@@ -5176,18 +5457,18 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>447</v>
+      </c>
+      <c r="B179" t="s">
         <v>448</v>
-      </c>
-      <c r="B179" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B180" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5203,47 +5484,47 @@
         <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>449</v>
+      </c>
+      <c r="B183" t="s">
         <v>450</v>
-      </c>
-      <c r="B183" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B184" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B185" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>929</v>
+      </c>
+      <c r="B186" t="s">
         <v>930</v>
-      </c>
-      <c r="B186" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>407</v>
+      </c>
+      <c r="B187" t="s">
         <v>408</v>
-      </c>
-      <c r="B187" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5256,18 +5537,18 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>409</v>
+      </c>
+      <c r="B189" t="s">
         <v>410</v>
-      </c>
-      <c r="B189" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B190" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5283,7 +5564,7 @@
         <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5299,7 +5580,7 @@
         <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5307,7 +5588,7 @@
         <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5320,10 +5601,10 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>594</v>
+      </c>
+      <c r="B197" t="s">
         <v>595</v>
-      </c>
-      <c r="B197" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5331,111 +5612,111 @@
         <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>998</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>451</v>
+      </c>
+      <c r="B199" t="s">
         <v>452</v>
-      </c>
-      <c r="B199" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" t="s">
         <v>597</v>
-      </c>
-      <c r="B200" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>598</v>
+      </c>
+      <c r="B201" t="s">
         <v>599</v>
-      </c>
-      <c r="B201" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B202" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>601</v>
+      </c>
+      <c r="B203" t="s">
         <v>602</v>
-      </c>
-      <c r="B203" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>309</v>
+      </c>
+      <c r="B204" t="s">
         <v>310</v>
-      </c>
-      <c r="B204" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>604</v>
+      </c>
+      <c r="B206" t="s">
         <v>605</v>
-      </c>
-      <c r="B206" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>453</v>
+      </c>
+      <c r="B207" t="s">
         <v>454</v>
-      </c>
-      <c r="B207" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>455</v>
+      </c>
+      <c r="B208" t="s">
         <v>456</v>
-      </c>
-      <c r="B208" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B209" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B210" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B211" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5448,26 +5729,26 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" t="s">
         <v>227</v>
-      </c>
-      <c r="B214" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>457</v>
+      </c>
+      <c r="B215" t="s">
         <v>458</v>
-      </c>
-      <c r="B215" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5488,7 +5769,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B218" t="s">
         <v>19</v>
@@ -5504,7 +5785,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B220" t="s">
         <v>19</v>
@@ -5520,10 +5801,10 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>311</v>
+      </c>
+      <c r="B222" t="s">
         <v>312</v>
-      </c>
-      <c r="B222" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5539,36 +5820,36 @@
         <v>205</v>
       </c>
       <c r="B224" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>608</v>
+      </c>
+      <c r="B225" t="s">
         <v>609</v>
-      </c>
-      <c r="B225" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>610</v>
+      </c>
+      <c r="B226" t="s">
         <v>611</v>
-      </c>
-      <c r="B226" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B227" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B228" t="s">
         <v>21</v>
@@ -5576,74 +5857,74 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>613</v>
+      </c>
+      <c r="B229" t="s">
         <v>614</v>
-      </c>
-      <c r="B229" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B230" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>615</v>
+      </c>
+      <c r="B231" t="s">
         <v>616</v>
-      </c>
-      <c r="B231" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B232" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B233" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B234" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>619</v>
+      </c>
+      <c r="B235" t="s">
         <v>620</v>
-      </c>
-      <c r="B235" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>622</v>
+      </c>
+      <c r="B236" t="s">
         <v>623</v>
-      </c>
-      <c r="B236" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B237" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5656,18 +5937,18 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>625</v>
+      </c>
+      <c r="B239" t="s">
         <v>626</v>
-      </c>
-      <c r="B239" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>627</v>
+      </c>
+      <c r="B240" t="s">
         <v>628</v>
-      </c>
-      <c r="B240" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5680,7 +5961,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B242" t="s">
         <v>141</v>
@@ -5688,10 +5969,10 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B243" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5704,18 +5985,18 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>629</v>
+      </c>
+      <c r="B245" t="s">
         <v>630</v>
-      </c>
-      <c r="B245" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B246" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5728,50 +6009,50 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B248" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>633</v>
+      </c>
+      <c r="B249" t="s">
         <v>634</v>
-      </c>
-      <c r="B249" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>411</v>
+      </c>
+      <c r="B250" t="s">
         <v>412</v>
-      </c>
-      <c r="B250" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>635</v>
+      </c>
+      <c r="B251" t="s">
         <v>636</v>
-      </c>
-      <c r="B251" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B252" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>783</v>
+      </c>
+      <c r="B253" t="s">
         <v>784</v>
-      </c>
-      <c r="B253" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5784,26 +6065,26 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B255" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>459</v>
+      </c>
+      <c r="B256" t="s">
         <v>460</v>
-      </c>
-      <c r="B256" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>461</v>
+      </c>
+      <c r="B257" t="s">
         <v>462</v>
-      </c>
-      <c r="B257" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5816,34 +6097,34 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>638</v>
+      </c>
+      <c r="B259" t="s">
         <v>639</v>
-      </c>
-      <c r="B259" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" t="s">
         <v>255</v>
-      </c>
-      <c r="B260" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>463</v>
+      </c>
+      <c r="B261" t="s">
         <v>464</v>
-      </c>
-      <c r="B261" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5856,143 +6137,143 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>314</v>
+      </c>
+      <c r="B264" t="s">
         <v>315</v>
-      </c>
-      <c r="B264" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B265" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>414</v>
+      </c>
+      <c r="B266" t="s">
         <v>415</v>
-      </c>
-      <c r="B266" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B267" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>316</v>
+      </c>
+      <c r="B268" t="s">
         <v>317</v>
-      </c>
-      <c r="B268" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B269" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>806</v>
+      </c>
+      <c r="B270" t="s">
         <v>807</v>
-      </c>
-      <c r="B270" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>318</v>
+      </c>
+      <c r="B271" t="s">
         <v>319</v>
-      </c>
-      <c r="B271" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>640</v>
+      </c>
+      <c r="B272" t="s">
         <v>641</v>
-      </c>
-      <c r="B272" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>466</v>
+      </c>
+      <c r="B273" t="s">
         <v>467</v>
-      </c>
-      <c r="B273" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>258</v>
+      </c>
+      <c r="B274" t="s">
         <v>259</v>
-      </c>
-      <c r="B274" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B275" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B276" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>642</v>
+      </c>
+      <c r="B277" t="s">
         <v>643</v>
-      </c>
-      <c r="B277" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>644</v>
+      </c>
+      <c r="B278" t="s">
         <v>645</v>
-      </c>
-      <c r="B278" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>646</v>
+      </c>
+      <c r="B279" t="s">
         <v>647</v>
-      </c>
-      <c r="B279" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>797</v>
+      </c>
+      <c r="B280" t="s">
         <v>798</v>
-      </c>
-      <c r="B280" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B281" t="s">
         <v>22</v>
@@ -6000,34 +6281,34 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>649</v>
+      </c>
+      <c r="B282" t="s">
         <v>650</v>
-      </c>
-      <c r="B282" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>324</v>
+      </c>
+      <c r="B283" t="s">
         <v>325</v>
-      </c>
-      <c r="B283" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>326</v>
+      </c>
+      <c r="B284" t="s">
         <v>327</v>
-      </c>
-      <c r="B284" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>328</v>
+      </c>
+      <c r="B285" t="s">
         <v>329</v>
-      </c>
-      <c r="B285" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -6056,10 +6337,10 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>260</v>
+      </c>
+      <c r="B289" t="s">
         <v>261</v>
-      </c>
-      <c r="B289" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -6072,7 +6353,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B291" t="s">
         <v>68</v>
@@ -6088,7 +6369,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B293" t="s">
         <v>68</v>
@@ -6096,34 +6377,34 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>469</v>
+      </c>
+      <c r="B294" t="s">
         <v>470</v>
-      </c>
-      <c r="B294" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>769</v>
+      </c>
+      <c r="B295" t="s">
         <v>770</v>
-      </c>
-      <c r="B295" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B296" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B297" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -6131,36 +6412,36 @@
         <v>195</v>
       </c>
       <c r="B298" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>228</v>
+      </c>
+      <c r="B299" t="s">
         <v>229</v>
-      </c>
-      <c r="B299" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>471</v>
+      </c>
+      <c r="B300" t="s">
         <v>472</v>
-      </c>
-      <c r="B300" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B301" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B302" t="s">
         <v>23</v>
@@ -6171,28 +6452,28 @@
         <v>202</v>
       </c>
       <c r="B303" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>332</v>
+      </c>
+      <c r="B304" t="s">
         <v>333</v>
-      </c>
-      <c r="B304" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B305" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B306" t="s">
         <v>27</v>
@@ -6200,10 +6481,10 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>473</v>
+      </c>
+      <c r="B307" t="s">
         <v>474</v>
-      </c>
-      <c r="B307" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6216,15 +6497,15 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>336</v>
+      </c>
+      <c r="B309" t="s">
         <v>337</v>
-      </c>
-      <c r="B309" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B310" t="s">
         <v>198</v>
@@ -6240,23 +6521,23 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>338</v>
+      </c>
+      <c r="B312" t="s">
         <v>339</v>
-      </c>
-      <c r="B312" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B313" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B314" t="s">
         <v>24</v>
@@ -6264,10 +6545,10 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>517</v>
+      </c>
+      <c r="B315" t="s">
         <v>518</v>
-      </c>
-      <c r="B315" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6275,36 +6556,36 @@
         <v>201</v>
       </c>
       <c r="B316" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>262</v>
+      </c>
+      <c r="B317" t="s">
         <v>263</v>
-      </c>
-      <c r="B317" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B318" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>476</v>
+      </c>
+      <c r="B319" t="s">
         <v>477</v>
-      </c>
-      <c r="B319" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B320" t="s">
         <v>25</v>
@@ -6312,7 +6593,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B321" t="s">
         <v>25</v>
@@ -6320,7 +6601,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B322" t="s">
         <v>26</v>
@@ -6328,10 +6609,10 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>656</v>
+      </c>
+      <c r="B323" t="s">
         <v>657</v>
-      </c>
-      <c r="B323" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6344,15 +6625,15 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>658</v>
+      </c>
+      <c r="B325" t="s">
         <v>659</v>
-      </c>
-      <c r="B325" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B326" t="s">
         <v>29</v>
@@ -6360,42 +6641,42 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B327" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B328" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>661</v>
+      </c>
+      <c r="B329" t="s">
         <v>662</v>
-      </c>
-      <c r="B329" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>664</v>
+      </c>
+      <c r="B330" t="s">
         <v>665</v>
-      </c>
-      <c r="B330" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>478</v>
+      </c>
+      <c r="B331" t="s">
         <v>479</v>
-      </c>
-      <c r="B331" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6416,18 +6697,18 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>914</v>
+      </c>
+      <c r="B334" t="s">
         <v>915</v>
-      </c>
-      <c r="B334" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>667</v>
+      </c>
+      <c r="B335" t="s">
         <v>668</v>
-      </c>
-      <c r="B335" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6451,7 +6732,7 @@
         <v>207</v>
       </c>
       <c r="B338" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6459,7 +6740,7 @@
         <v>207</v>
       </c>
       <c r="B339" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6467,20 +6748,20 @@
         <v>207</v>
       </c>
       <c r="B340" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>669</v>
+      </c>
+      <c r="B341" t="s">
         <v>670</v>
-      </c>
-      <c r="B341" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B342" t="s">
         <v>30</v>
@@ -6488,7 +6769,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B343" t="s">
         <v>31</v>
@@ -6496,42 +6777,42 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>672</v>
+      </c>
+      <c r="B344" t="s">
         <v>673</v>
-      </c>
-      <c r="B344" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B345" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>799</v>
+      </c>
+      <c r="B346" t="s">
         <v>800</v>
-      </c>
-      <c r="B346" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>480</v>
+      </c>
+      <c r="B347" t="s">
         <v>481</v>
-      </c>
-      <c r="B347" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>341</v>
+      </c>
+      <c r="B348" t="s">
         <v>342</v>
-      </c>
-      <c r="B348" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6539,36 +6820,36 @@
         <v>209</v>
       </c>
       <c r="B349" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>911</v>
+      </c>
+      <c r="B350" t="s">
         <v>912</v>
-      </c>
-      <c r="B350" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>343</v>
+      </c>
+      <c r="B351" t="s">
         <v>344</v>
-      </c>
-      <c r="B351" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B352" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B353" t="s">
         <v>32</v>
@@ -6576,18 +6857,18 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>884</v>
+      </c>
+      <c r="B354" t="s">
         <v>885</v>
-      </c>
-      <c r="B354" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>677</v>
+      </c>
+      <c r="B355" t="s">
         <v>678</v>
-      </c>
-      <c r="B355" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6595,47 +6876,47 @@
         <v>210</v>
       </c>
       <c r="B356" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>230</v>
+      </c>
+      <c r="B357" t="s">
         <v>231</v>
-      </c>
-      <c r="B357" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B358" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B359" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>346</v>
+      </c>
+      <c r="B360" t="s">
         <v>347</v>
-      </c>
-      <c r="B360" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>679</v>
+      </c>
+      <c r="B361" t="s">
         <v>680</v>
-      </c>
-      <c r="B361" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6648,87 +6929,87 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>348</v>
+      </c>
+      <c r="B363" t="s">
         <v>349</v>
-      </c>
-      <c r="B363" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>350</v>
+      </c>
+      <c r="B364" t="s">
         <v>351</v>
-      </c>
-      <c r="B364" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>681</v>
+      </c>
+      <c r="B365" t="s">
         <v>682</v>
-      </c>
-      <c r="B365" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
+        <v>482</v>
+      </c>
+      <c r="B366" t="s">
         <v>483</v>
-      </c>
-      <c r="B366" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>484</v>
+      </c>
+      <c r="B367" t="s">
         <v>485</v>
-      </c>
-      <c r="B367" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>684</v>
+      </c>
+      <c r="B368" t="s">
         <v>685</v>
-      </c>
-      <c r="B368" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B369" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>686</v>
+      </c>
+      <c r="B370" t="s">
         <v>687</v>
-      </c>
-      <c r="B370" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B371" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B372" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B373" t="s">
         <v>33</v>
@@ -6747,7 +7028,7 @@
         <v>96</v>
       </c>
       <c r="B375" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6760,10 +7041,10 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>690</v>
+      </c>
+      <c r="B377" t="s">
         <v>691</v>
-      </c>
-      <c r="B377" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6776,7 +7057,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B379" t="s">
         <v>34</v>
@@ -6784,42 +7065,42 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B380" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
+        <v>693</v>
+      </c>
+      <c r="B381" t="s">
         <v>694</v>
-      </c>
-      <c r="B381" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
+        <v>505</v>
+      </c>
+      <c r="B382" t="s">
         <v>506</v>
-      </c>
-      <c r="B382" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
+        <v>695</v>
+      </c>
+      <c r="B383" t="s">
         <v>696</v>
-      </c>
-      <c r="B383" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>771</v>
+      </c>
+      <c r="B384" t="s">
         <v>772</v>
-      </c>
-      <c r="B384" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6848,7 +7129,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B388" t="s">
         <v>214</v>
@@ -6864,26 +7145,26 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B390" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B391" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>697</v>
+      </c>
+      <c r="B392" t="s">
         <v>698</v>
-      </c>
-      <c r="B392" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6904,18 +7185,18 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
+        <v>488</v>
+      </c>
+      <c r="B395" t="s">
         <v>489</v>
-      </c>
-      <c r="B395" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
+        <v>512</v>
+      </c>
+      <c r="B396" t="s">
         <v>513</v>
-      </c>
-      <c r="B396" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6928,7 +7209,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B398" t="s">
         <v>79</v>
@@ -6936,26 +7217,26 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
+        <v>919</v>
+      </c>
+      <c r="B399" t="s">
         <v>920</v>
-      </c>
-      <c r="B399" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B400" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B401" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6976,7 +7257,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B404" t="s">
         <v>139</v>
@@ -6984,7 +7265,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B405" t="s">
         <v>35</v>
@@ -7000,7 +7281,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B407" t="s">
         <v>36</v>
@@ -7008,15 +7289,15 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>916</v>
+      </c>
+      <c r="B408" t="s">
         <v>917</v>
-      </c>
-      <c r="B408" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B409" t="s">
         <v>36</v>
@@ -7024,7 +7305,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B410" t="s">
         <v>81</v>
@@ -7040,31 +7321,31 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
+        <v>704</v>
+      </c>
+      <c r="B412" t="s">
         <v>705</v>
-      </c>
-      <c r="B412" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B413" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
+        <v>924</v>
+      </c>
+      <c r="B414" t="s">
         <v>925</v>
-      </c>
-      <c r="B414" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B415" t="s">
         <v>82</v>
@@ -7072,7 +7353,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B416" t="s">
         <v>37</v>
@@ -7080,7 +7361,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B417" t="s">
         <v>38</v>
@@ -7088,10 +7369,10 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>256</v>
+      </c>
+      <c r="B418" t="s">
         <v>257</v>
-      </c>
-      <c r="B418" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -7104,10 +7385,10 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>352</v>
+      </c>
+      <c r="B420" t="s">
         <v>353</v>
-      </c>
-      <c r="B420" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -7120,18 +7401,18 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>416</v>
+      </c>
+      <c r="B422" t="s">
         <v>417</v>
-      </c>
-      <c r="B422" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>921</v>
+      </c>
+      <c r="B423" t="s">
         <v>922</v>
-      </c>
-      <c r="B423" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -7163,7 +7444,7 @@
         <v>112</v>
       </c>
       <c r="B427" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -7176,42 +7457,42 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>707</v>
+      </c>
+      <c r="B429" t="s">
         <v>708</v>
-      </c>
-      <c r="B429" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B430" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B431" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>790</v>
+      </c>
+      <c r="B432" t="s">
         <v>791</v>
-      </c>
-      <c r="B432" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B433" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7224,34 +7505,34 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
+        <v>490</v>
+      </c>
+      <c r="B435" t="s">
         <v>491</v>
-      </c>
-      <c r="B435" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B436" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
+        <v>356</v>
+      </c>
+      <c r="B437" t="s">
         <v>357</v>
-      </c>
-      <c r="B437" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B438" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7267,36 +7548,36 @@
         <v>167</v>
       </c>
       <c r="B440" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
+        <v>492</v>
+      </c>
+      <c r="B441" t="s">
         <v>493</v>
-      </c>
-      <c r="B441" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>358</v>
+      </c>
+      <c r="B442" t="s">
         <v>359</v>
-      </c>
-      <c r="B442" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
+        <v>711</v>
+      </c>
+      <c r="B443" t="s">
         <v>712</v>
-      </c>
-      <c r="B443" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B444" t="s">
         <v>39</v>
@@ -7304,23 +7585,23 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>494</v>
+      </c>
+      <c r="B445" t="s">
         <v>495</v>
-      </c>
-      <c r="B445" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B446" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B447" t="s">
         <v>40</v>
@@ -7328,7 +7609,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B448" t="s">
         <v>40</v>
@@ -7336,58 +7617,58 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>360</v>
+      </c>
+      <c r="B449" t="s">
         <v>361</v>
-      </c>
-      <c r="B449" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B450" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
+        <v>362</v>
+      </c>
+      <c r="B451" t="s">
         <v>363</v>
-      </c>
-      <c r="B451" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>715</v>
+      </c>
+      <c r="B452" t="s">
         <v>716</v>
-      </c>
-      <c r="B452" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
+        <v>717</v>
+      </c>
+      <c r="B453" t="s">
         <v>718</v>
-      </c>
-      <c r="B453" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B454" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>720</v>
+      </c>
+      <c r="B455" t="s">
         <v>721</v>
-      </c>
-      <c r="B455" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7403,12 +7684,12 @@
         <v>55</v>
       </c>
       <c r="B457" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B458" t="s">
         <v>56</v>
@@ -7416,26 +7697,26 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
+        <v>519</v>
+      </c>
+      <c r="B459" t="s">
         <v>520</v>
-      </c>
-      <c r="B459" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B460" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
+        <v>809</v>
+      </c>
+      <c r="B461" t="s">
         <v>810</v>
-      </c>
-      <c r="B461" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7451,7 +7732,7 @@
         <v>85</v>
       </c>
       <c r="B463" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7459,36 +7740,36 @@
         <v>85</v>
       </c>
       <c r="B464" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B465" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
+        <v>723</v>
+      </c>
+      <c r="B466" t="s">
         <v>724</v>
-      </c>
-      <c r="B466" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B467" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B468" t="s">
         <v>41</v>
@@ -7496,7 +7777,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B469" t="s">
         <v>41</v>
@@ -7504,18 +7785,18 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
+        <v>233</v>
+      </c>
+      <c r="B470" t="s">
         <v>234</v>
-      </c>
-      <c r="B470" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
+        <v>364</v>
+      </c>
+      <c r="B471" t="s">
         <v>365</v>
-      </c>
-      <c r="B471" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7536,7 +7817,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B474" t="s">
         <v>61</v>
@@ -7544,7 +7825,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B475" t="s">
         <v>42</v>
@@ -7552,7 +7833,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B476" t="s">
         <v>45</v>
@@ -7560,15 +7841,15 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
+        <v>727</v>
+      </c>
+      <c r="B477" t="s">
         <v>728</v>
-      </c>
-      <c r="B477" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B478" t="s">
         <v>44</v>
@@ -7576,7 +7857,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B479" t="s">
         <v>44</v>
@@ -7595,100 +7876,100 @@
         <v>106</v>
       </c>
       <c r="B481" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
+        <v>497</v>
+      </c>
+      <c r="B482" t="s">
         <v>498</v>
-      </c>
-      <c r="B482" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
+        <v>731</v>
+      </c>
+      <c r="B483" t="s">
         <v>732</v>
-      </c>
-      <c r="B483" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B484" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
+        <v>264</v>
+      </c>
+      <c r="B485" t="s">
         <v>265</v>
-      </c>
-      <c r="B485" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
+        <v>366</v>
+      </c>
+      <c r="B486" t="s">
         <v>367</v>
-      </c>
-      <c r="B486" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
+        <v>368</v>
+      </c>
+      <c r="B487" t="s">
         <v>369</v>
-      </c>
-      <c r="B487" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
+        <v>370</v>
+      </c>
+      <c r="B488" t="s">
         <v>371</v>
-      </c>
-      <c r="B488" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
+        <v>907</v>
+      </c>
+      <c r="B489" t="s">
         <v>908</v>
-      </c>
-      <c r="B489" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
+        <v>734</v>
+      </c>
+      <c r="B490" t="s">
         <v>735</v>
-      </c>
-      <c r="B490" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
+        <v>736</v>
+      </c>
+      <c r="B491" t="s">
         <v>737</v>
-      </c>
-      <c r="B491" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B492" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B493" t="s">
         <v>46</v>
@@ -7696,15 +7977,15 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
+        <v>786</v>
+      </c>
+      <c r="B494" t="s">
         <v>787</v>
-      </c>
-      <c r="B494" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B495" t="s">
         <v>47</v>
@@ -7712,7 +7993,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B496" t="s">
         <v>47</v>
@@ -7720,66 +8001,66 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B497" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>372</v>
+      </c>
+      <c r="B498" t="s">
         <v>373</v>
-      </c>
-      <c r="B498" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
+        <v>374</v>
+      </c>
+      <c r="B499" t="s">
         <v>375</v>
-      </c>
-      <c r="B499" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B500" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
+        <v>376</v>
+      </c>
+      <c r="B501" t="s">
         <v>377</v>
-      </c>
-      <c r="B501" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B502" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>499</v>
+      </c>
+      <c r="B503" t="s">
         <v>500</v>
-      </c>
-      <c r="B503" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
+        <v>378</v>
+      </c>
+      <c r="B504" t="s">
         <v>379</v>
-      </c>
-      <c r="B504" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7792,7 +8073,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B506" t="s">
         <v>48</v>
@@ -7808,7 +8089,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B508" t="s">
         <v>48</v>
@@ -7819,7 +8100,7 @@
         <v>216</v>
       </c>
       <c r="B509" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7827,63 +8108,63 @@
         <v>215</v>
       </c>
       <c r="B510" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
+        <v>381</v>
+      </c>
+      <c r="B511" t="s">
         <v>382</v>
-      </c>
-      <c r="B511" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
+        <v>793</v>
+      </c>
+      <c r="B512" t="s">
         <v>794</v>
-      </c>
-      <c r="B512" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
+        <v>743</v>
+      </c>
+      <c r="B513" t="s">
         <v>744</v>
-      </c>
-      <c r="B513" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
+        <v>741</v>
+      </c>
+      <c r="B514" t="s">
         <v>742</v>
-      </c>
-      <c r="B514" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
+        <v>266</v>
+      </c>
+      <c r="B515" t="s">
         <v>267</v>
-      </c>
-      <c r="B515" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B516" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
+        <v>507</v>
+      </c>
+      <c r="B517" t="s">
         <v>508</v>
-      </c>
-      <c r="B517" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7896,7 +8177,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B519" t="s">
         <v>49</v>
@@ -7904,18 +8185,18 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B520" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
+        <v>781</v>
+      </c>
+      <c r="B521" t="s">
         <v>782</v>
-      </c>
-      <c r="B521" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -7928,74 +8209,74 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
+        <v>383</v>
+      </c>
+      <c r="B523" t="s">
         <v>384</v>
-      </c>
-      <c r="B523" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>271</v>
+      </c>
+      <c r="B524" t="s">
         <v>272</v>
-      </c>
-      <c r="B524" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B525" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B526" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
+        <v>418</v>
+      </c>
+      <c r="B527" t="s">
         <v>419</v>
-      </c>
-      <c r="B527" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B528" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
+        <v>749</v>
+      </c>
+      <c r="B529" t="s">
         <v>750</v>
-      </c>
-      <c r="B529" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B530" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
+        <v>420</v>
+      </c>
+      <c r="B531" t="s">
         <v>421</v>
-      </c>
-      <c r="B531" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -8008,23 +8289,23 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
+        <v>269</v>
+      </c>
+      <c r="B533" t="s">
         <v>270</v>
-      </c>
-      <c r="B533" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
+        <v>501</v>
+      </c>
+      <c r="B534" t="s">
         <v>502</v>
-      </c>
-      <c r="B534" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B535" t="s">
         <v>50</v>
@@ -8032,7 +8313,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B536" t="s">
         <v>51</v>
@@ -8040,90 +8321,578 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
+        <v>932</v>
+      </c>
+      <c r="B537" s="4" t="s">
         <v>933</v>
-      </c>
-      <c r="B537" s="4" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
+        <v>934</v>
+      </c>
+      <c r="B538" t="s">
         <v>935</v>
-      </c>
-      <c r="B538" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
+        <v>936</v>
+      </c>
+      <c r="B539" t="s">
         <v>937</v>
-      </c>
-      <c r="B539" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
+        <v>938</v>
+      </c>
+      <c r="B540" t="s">
         <v>939</v>
-      </c>
-      <c r="B540" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
+        <v>940</v>
+      </c>
+      <c r="B541" t="s">
         <v>941</v>
-      </c>
-      <c r="B541" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B542" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B543" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B544" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
+        <v>946</v>
+      </c>
+      <c r="B545" t="s">
         <v>947</v>
-      </c>
-      <c r="B545" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
+        <v>948</v>
+      </c>
+      <c r="B546" t="s">
         <v>949</v>
-      </c>
-      <c r="B546" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
+        <v>950</v>
+      </c>
+      <c r="B547" t="s">
         <v>951</v>
       </c>
-      <c r="B547" t="s">
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
         <v>952</v>
+      </c>
+      <c r="B548" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>954</v>
+      </c>
+      <c r="B549" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>956</v>
+      </c>
+      <c r="B550" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>958</v>
+      </c>
+      <c r="B551" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>959</v>
+      </c>
+      <c r="B552" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>960</v>
+      </c>
+      <c r="B553" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>962</v>
+      </c>
+      <c r="B554" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>954</v>
+      </c>
+      <c r="B555" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>964</v>
+      </c>
+      <c r="B556" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>966</v>
+      </c>
+      <c r="B557" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>968</v>
+      </c>
+      <c r="B558" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>970</v>
+      </c>
+      <c r="B559" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>972</v>
+      </c>
+      <c r="B560" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>973</v>
+      </c>
+      <c r="B561" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>975</v>
+      </c>
+      <c r="B562" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>977</v>
+      </c>
+      <c r="B563" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>979</v>
+      </c>
+      <c r="B564" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>981</v>
+      </c>
+      <c r="B566" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>983</v>
+      </c>
+      <c r="B567" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>985</v>
+      </c>
+      <c r="B568" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>987</v>
+      </c>
+      <c r="B569" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>989</v>
+      </c>
+      <c r="B570" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>991</v>
+      </c>
+      <c r="B571" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>991</v>
+      </c>
+      <c r="B572" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>993</v>
+      </c>
+      <c r="B573" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>995</v>
+      </c>
+      <c r="B574" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>997</v>
+      </c>
+      <c r="B575" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>768</v>
+      </c>
+      <c r="B577" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>998</v>
+      </c>
+      <c r="B580" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>690</v>
+      </c>
+      <c r="B584" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B597" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B598" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>104</v>
+      </c>
+      <c r="B600" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>55</v>
+      </c>
+      <c r="B601" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B602" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B603" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>997</v>
+      </c>
+      <c r="B604" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,105 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE9464-4A6A-C346-B76F-D950AFE6C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE378F8-9876-B843-8C84-6FC286B9B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="1800" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="number" sheetId="3" r:id="rId1"/>
+    <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1044">
   <si>
     <t>Full</t>
   </si>
   <si>
-    <t>approx. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> approximately</t>
-  </si>
-  <si>
-    <t>appt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> appointment</t>
-  </si>
-  <si>
-    <t>A.S.A.P. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> as soon as possible</t>
-  </si>
-  <si>
     <t>c/o </t>
   </si>
   <si>
-    <t xml:space="preserve"> care of</t>
-  </si>
-  <si>
-    <t>dept. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> department</t>
-  </si>
-  <si>
-    <t>D.I.Y. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Do it yourself</t>
-  </si>
-  <si>
-    <t>est. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> established</t>
-  </si>
-  <si>
-    <t>E.T.A. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> estimated time of arrival</t>
-  </si>
-  <si>
-    <t>min. </t>
-  </si>
-  <si>
-    <t>misc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> miscellaneous</t>
-  </si>
-  <si>
-    <t>no. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> number</t>
-  </si>
-  <si>
-    <t>tel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telephone</t>
-  </si>
-  <si>
-    <t>vs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> versus</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -121,144 +49,57 @@
     <t>etcetera</t>
   </si>
   <si>
-    <t xml:space="preserve"> minute ; minimum</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
     <t>acceptance</t>
   </si>
   <si>
-    <t>Anal.</t>
-  </si>
-  <si>
     <t>analysis</t>
   </si>
   <si>
-    <t>Analyt.</t>
-  </si>
-  <si>
-    <t>analytic(al)</t>
-  </si>
-  <si>
-    <t>Apr.</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>betw.</t>
-  </si>
-  <si>
     <t>between</t>
   </si>
   <si>
-    <t>Catal.</t>
-  </si>
-  <si>
     <t>catalogue</t>
   </si>
   <si>
-    <t>Cert.</t>
-  </si>
-  <si>
     <t>certificate</t>
   </si>
   <si>
-    <t>Certif.</t>
-  </si>
-  <si>
-    <t>Chem.</t>
-  </si>
-  <si>
-    <t>chemistry; chemical</t>
-  </si>
-  <si>
-    <t>Classif.</t>
-  </si>
-  <si>
     <t>classification</t>
   </si>
   <si>
-    <t>Dec.</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>def.</t>
-  </si>
-  <si>
     <t>definition</t>
   </si>
   <si>
-    <t>Dept.</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
-    <t>Electr.</t>
-  </si>
-  <si>
-    <t>electricity; electric; electrical</t>
-  </si>
-  <si>
-    <t>Elem.</t>
-  </si>
-  <si>
     <t>element</t>
   </si>
   <si>
     <t>eng</t>
   </si>
   <si>
-    <t>engineering; engineer</t>
-  </si>
-  <si>
-    <t>Hydraul.</t>
-  </si>
-  <si>
     <t>hydraulic</t>
   </si>
   <si>
     <t xml:space="preserve">hydr </t>
   </si>
   <si>
-    <t>Impr.</t>
-  </si>
-  <si>
     <t>improved</t>
   </si>
   <si>
-    <t>Metall.</t>
-  </si>
-  <si>
     <t>metallurgy</t>
   </si>
   <si>
-    <t>Nat.</t>
-  </si>
-  <si>
     <t>natural</t>
   </si>
   <si>
-    <t>N.E.</t>
-  </si>
-  <si>
     <t>November</t>
   </si>
   <si>
-    <t>Nucl.</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
-    <t>N.W.</t>
-  </si>
-  <si>
     <t>north-west</t>
   </si>
   <si>
@@ -271,195 +112,78 @@
     <t>observation</t>
   </si>
   <si>
-    <t>Observ</t>
-  </si>
-  <si>
-    <t>Oct.</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Org.</t>
-  </si>
-  <si>
     <t>organic</t>
   </si>
   <si>
     <t>organization</t>
   </si>
   <si>
-    <t>perh.</t>
-  </si>
-  <si>
     <t>perhaps</t>
   </si>
   <si>
-    <t>perf.</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pref.</t>
-  </si>
-  <si>
     <t>prefix</t>
   </si>
   <si>
-    <t>prob.</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>Probab.</t>
-  </si>
-  <si>
-    <t>probability; probabilities</t>
-  </si>
-  <si>
-    <t>rel.</t>
-  </si>
-  <si>
     <t>relative</t>
   </si>
   <si>
-    <t>Rept.</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
-    <t>Rev.</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
     <t>revised</t>
   </si>
   <si>
-    <t>Sept.</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Spec.</t>
-  </si>
-  <si>
     <t>specimen</t>
   </si>
   <si>
-    <t>Stat.</t>
-  </si>
-  <si>
     <t>statistical</t>
   </si>
   <si>
-    <t>Surv.</t>
-  </si>
-  <si>
-    <t>survey; surveying</t>
-  </si>
-  <si>
-    <t>Syst.</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
-    <t>techn.</t>
-  </si>
-  <si>
     <t>technical</t>
   </si>
   <si>
     <t>tech</t>
   </si>
   <si>
-    <t>Telecomm.</t>
-  </si>
-  <si>
     <t>telecommunications</t>
   </si>
   <si>
-    <t>Technol.</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
-    <t>Transl.</t>
-  </si>
-  <si>
     <t>translation</t>
   </si>
   <si>
-    <t>Treatm.</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Troub.	</t>
-  </si>
-  <si>
-    <t>Troublesome</t>
-  </si>
-  <si>
-    <t>unkn.</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>Vol.</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
-    <t>Yr.</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>Yrs.</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Jannuary</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
     <t>february</t>
   </si>
   <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>april</t>
   </si>
   <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
     <t>btwn</t>
   </si>
   <si>
@@ -475,24 +199,12 @@
     <t>water</t>
   </si>
   <si>
-    <t xml:space="preserve">sys </t>
-  </si>
-  <si>
     <t>cntmt</t>
   </si>
   <si>
     <t>containment</t>
   </si>
   <si>
-    <t>mods</t>
-  </si>
-  <si>
-    <t>modifications</t>
-  </si>
-  <si>
-    <t>tech-specs</t>
-  </si>
-  <si>
     <t>technical specifications</t>
   </si>
   <si>
@@ -559,9 +271,6 @@
     <t>revision</t>
   </si>
   <si>
-    <t>Rev</t>
-  </si>
-  <si>
     <t>pzr</t>
   </si>
   <si>
@@ -730,9 +439,6 @@
     <t>install</t>
   </si>
   <si>
-    <t>re-inst</t>
-  </si>
-  <si>
     <t>reinstall</t>
   </si>
   <si>
@@ -755,13 +461,2704 @@
   </si>
   <si>
     <t>det</t>
+  </si>
+  <si>
+    <t>afl</t>
+  </si>
+  <si>
+    <t>agl</t>
+  </si>
+  <si>
+    <t>bof</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>downpipe</t>
+  </si>
+  <si>
+    <t>dwg</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>floor level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elec </t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>far side</t>
+  </si>
+  <si>
+    <t>ftg</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce </t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>as built</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>communications</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>each way</t>
+  </si>
+  <si>
+    <t>fos</t>
+  </si>
+  <si>
+    <t>factor of safety</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>high pressure</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>inspection opening</t>
+  </si>
+  <si>
+    <t>i/o</t>
+  </si>
+  <si>
+    <t>input and output</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>key joint</t>
+  </si>
+  <si>
+    <t>mfr</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>npr</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>outer diameter</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>inner diameter</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pcd</t>
+  </si>
+  <si>
+    <t>pfc</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>uon</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>cfw</t>
+  </si>
+  <si>
+    <t>continuous fillet weld</t>
+  </si>
+  <si>
+    <t>fsbw</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>file transfer protocol</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>hot rolled</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>human resources</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>mild steep</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>stainless steel</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tungsten carbide</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>btm</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>center line</t>
+  </si>
+  <si>
+    <t>clr</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>clearance</t>
+  </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center </t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq </t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>horiz</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>left hand</t>
+  </si>
+  <si>
+    <t>rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right hand </t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>near side</t>
+  </si>
+  <si>
+    <t>thk</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>w/o</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>amer</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>anneal</t>
+  </si>
+  <si>
+    <t>aql</t>
+  </si>
+  <si>
+    <t>acceptable quality level</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>as required</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>bolt circle</t>
+  </si>
+  <si>
+    <t>bolt hole circle</t>
+  </si>
+  <si>
+    <t>bhc</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>bill of materials</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>blueprint</t>
+  </si>
+  <si>
+    <t>brz</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>computer-aided design</t>
+  </si>
+  <si>
+    <t>c-c</t>
+  </si>
+  <si>
+    <t>center to center</t>
+  </si>
+  <si>
+    <t>cda</t>
+  </si>
+  <si>
+    <t>current design activity</t>
+  </si>
+  <si>
+    <t>cert</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>controlled radius</t>
+  </si>
+  <si>
+    <t>eql</t>
+  </si>
+  <si>
+    <t>fitting</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>general note</t>
+  </si>
+  <si>
+    <t>iaw</t>
+  </si>
+  <si>
+    <t>in accordance with</t>
+  </si>
+  <si>
+    <t>indentity</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>list of material</t>
+  </si>
+  <si>
+    <t>mach</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mbp</t>
+  </si>
+  <si>
+    <t>mbw</t>
+  </si>
+  <si>
+    <t>measurement between pins</t>
+  </si>
+  <si>
+    <t>measurement between wires</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>make from</t>
+  </si>
+  <si>
+    <t>mfd</t>
+  </si>
+  <si>
+    <t>manufactured</t>
+  </si>
+  <si>
+    <t>mfg</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>mop</t>
+  </si>
+  <si>
+    <t>mow</t>
+  </si>
+  <si>
+    <t>ncm</t>
+  </si>
+  <si>
+    <t>nonconforming material</t>
+  </si>
+  <si>
+    <t>nonconformance report</t>
+  </si>
+  <si>
+    <t>ncr</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>note list</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>normalized</t>
+  </si>
+  <si>
+    <t>normd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc </t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>part list</t>
+  </si>
+  <si>
+    <t>plm</t>
+  </si>
+  <si>
+    <t>plant lifecycle management</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>part number</t>
+  </si>
+  <si>
+    <t>poi</t>
+  </si>
+  <si>
+    <t>point of intersection</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>root mean square</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>socket head cap screw</t>
+  </si>
+  <si>
+    <t>shss</t>
+  </si>
+  <si>
+    <t>socket head set screw</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>tdp</t>
+  </si>
+  <si>
+    <t>technical data package</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>total indicator reading</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>uai</t>
+  </si>
+  <si>
+    <t>use as is</t>
+  </si>
+  <si>
+    <t>ull</t>
+  </si>
+  <si>
+    <t>under low limit</t>
+  </si>
+  <si>
+    <t>unless otherwise noted</t>
+  </si>
+  <si>
+    <t>uos</t>
+  </si>
+  <si>
+    <t>unless otherwise specified</t>
+  </si>
+  <si>
+    <t>w/i</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coef </t>
+  </si>
+  <si>
+    <t>conc</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>cndct</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diameter </t>
+  </si>
+  <si>
+    <t>doz</t>
+  </si>
+  <si>
+    <t>dozen</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>elv</t>
+  </si>
+  <si>
+    <t>engr</t>
+  </si>
+  <si>
+    <t>engrg</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>fob</t>
+  </si>
+  <si>
+    <t>free on board</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>intl</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>low pressure</t>
+  </si>
+  <si>
+    <t>rnd</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>arrgt</t>
+  </si>
+  <si>
+    <t>assy</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>brg</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>both ways</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>cham</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>chan</t>
+  </si>
+  <si>
+    <t>circ</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>comm</t>
+  </si>
+  <si>
+    <t>conn</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>cvr</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>cyl</t>
+  </si>
+  <si>
+    <t>equiv</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>fig</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>flg</t>
+  </si>
+  <si>
+    <t>flange</t>
+  </si>
+  <si>
+    <t>galv</t>
+  </si>
+  <si>
+    <t>galvanized</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>high strength</t>
+  </si>
+  <si>
+    <t>jt</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>junc</t>
+  </si>
+  <si>
+    <t>junction</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>matl</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>m/c</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>modification</t>
+  </si>
+  <si>
+    <t>mtg</t>
+  </si>
+  <si>
+    <t>mounting</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>nominal size</t>
+  </si>
+  <si>
+    <t>nts</t>
+  </si>
+  <si>
+    <t>not to scale</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>octagon</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>posn</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>thd</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>ucut</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>yield point</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>prog</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vis </t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>decon</t>
+  </si>
+  <si>
+    <t>decontamination</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>cntmnt</t>
+  </si>
+  <si>
+    <t>ctmt</t>
+  </si>
+  <si>
+    <t>noz</t>
+  </si>
+  <si>
+    <t>nozzle</t>
+  </si>
+  <si>
+    <t>surf</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>crnr</t>
+  </si>
+  <si>
+    <t>shcs</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>ctr</t>
+  </si>
+  <si>
+    <t>abl</t>
+  </si>
+  <si>
+    <t>ablative</t>
+  </si>
+  <si>
+    <t>abol</t>
+  </si>
+  <si>
+    <t>abolition</t>
+  </si>
+  <si>
+    <t>absol</t>
+  </si>
+  <si>
+    <t>abst</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>accom</t>
+  </si>
+  <si>
+    <t>accomodation</t>
+  </si>
+  <si>
+    <t>accomm</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>agst</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>anal</t>
+  </si>
+  <si>
+    <t>analyt</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>answ</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>apperently</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>artic</t>
+  </si>
+  <si>
+    <t>articulation</t>
+  </si>
+  <si>
+    <t>assem</t>
+  </si>
+  <si>
+    <t>attrib</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>bef</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>btw</t>
+  </si>
+  <si>
+    <t>bord</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>certif</t>
+  </si>
+  <si>
+    <t>chamb</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>circular</t>
+  </si>
+  <si>
+    <t>classif</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>communic</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>concerning</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>concr</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>discov</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>distill</t>
+  </si>
+  <si>
+    <t>distillation</t>
+  </si>
+  <si>
+    <t>econ</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>engin</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>establ</t>
+  </si>
+  <si>
+    <t>established</t>
+  </si>
+  <si>
+    <t>evid</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>expl</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>fam</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>famil</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>geog</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>glossary</t>
+  </si>
+  <si>
+    <t>gov</t>
+  </si>
+  <si>
+    <t>govt</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist </t>
+  </si>
+  <si>
+    <t>imit</t>
+  </si>
+  <si>
+    <t>imitation</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>imperfect</t>
+  </si>
+  <si>
+    <t>impf</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>indef</t>
+  </si>
+  <si>
+    <t>indefinite</t>
+  </si>
+  <si>
+    <t>indic</t>
+  </si>
+  <si>
+    <t>indir</t>
+  </si>
+  <si>
+    <t>industr</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>indust</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>infl</t>
+  </si>
+  <si>
+    <t>inorg</t>
+  </si>
+  <si>
+    <t>inorganic</t>
+  </si>
+  <si>
+    <t>inq</t>
+  </si>
+  <si>
+    <t>inquiry</t>
+  </si>
+  <si>
+    <t>instr</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>inst</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>interj</t>
+  </si>
+  <si>
+    <t>interjection</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>introd</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>meas</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>measurem</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>mech</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>metall</t>
+  </si>
+  <si>
+    <t>meth</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nucl</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>observ</t>
+  </si>
+  <si>
+    <t>occas</t>
+  </si>
+  <si>
+    <t>occasionally</t>
+  </si>
+  <si>
+    <t>occ</t>
+  </si>
+  <si>
+    <t>occurr</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>optics</t>
+  </si>
+  <si>
+    <t>opp</t>
+  </si>
+  <si>
+    <t>opposed</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>perh</t>
+  </si>
+  <si>
+    <t>pers</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>plur</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>pract</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>pred</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>predic</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>probl</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>reas</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>regr</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>statist</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>structural</t>
+  </si>
+  <si>
+    <t>subj</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>symm</t>
+  </si>
+  <si>
+    <t>symmetrical</t>
+  </si>
+  <si>
+    <t>symmetry</t>
+  </si>
+  <si>
+    <t>techn</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>telecomm</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>theor</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>theoret</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>transf</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>transl</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>treatm</t>
+  </si>
+  <si>
+    <t>vb</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>yrs</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>wks</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>asap</t>
+  </si>
+  <si>
+    <t>diy</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>abstr</t>
+  </si>
+  <si>
+    <t>inspec</t>
+  </si>
+  <si>
+    <t>mngt</t>
+  </si>
+  <si>
+    <t>mngmnt</t>
+  </si>
+  <si>
+    <t>qnty</t>
+  </si>
+  <si>
+    <t>refr</t>
+  </si>
+  <si>
+    <t>shwn</t>
+  </si>
+  <si>
+    <t>stdrd</t>
+  </si>
+  <si>
+    <t>wgt</t>
+  </si>
+  <si>
+    <t>hydr</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>displ</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>prox</t>
+  </si>
+  <si>
+    <t>proximity</t>
+  </si>
+  <si>
+    <t>approximate</t>
+  </si>
+  <si>
+    <t>approx</t>
+  </si>
+  <si>
+    <t>care of</t>
+  </si>
+  <si>
+    <t>circulating</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>switchyard</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>vsl</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>condenser</t>
+  </si>
+  <si>
+    <t>transm</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>centrifugal</t>
+  </si>
+  <si>
+    <t>sens</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>swch</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>batt</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>parab</t>
+  </si>
+  <si>
+    <t>parabolic</t>
+  </si>
+  <si>
+    <t>centrif</t>
+  </si>
+  <si>
+    <t>diaphragm</t>
+  </si>
+  <si>
+    <t>diaph</t>
+  </si>
+  <si>
+    <t>coupl</t>
+  </si>
+  <si>
+    <t>coupling</t>
+  </si>
+  <si>
+    <t>magn</t>
+  </si>
+  <si>
+    <t>magnetic</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>susp</t>
+  </si>
+  <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>induction</t>
+  </si>
+  <si>
+    <t>fitt</t>
+  </si>
+  <si>
+    <t>betw</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>pref</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>technol</t>
+  </si>
+  <si>
+    <t>troub</t>
+  </si>
+  <si>
+    <t>unkn</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>unless noted otherwise</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>rept</t>
+  </si>
+  <si>
+    <t>parallel flange channel</t>
+  </si>
+  <si>
+    <t>pitch circle diameter</t>
+  </si>
+  <si>
+    <t>new product release</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>numerical control</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>jannuary</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>hydraul</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>fibre termination panel</t>
+  </si>
+  <si>
+    <t>full strength butt weld</t>
+  </si>
+  <si>
+    <t>estimated time of arrival</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>electr</t>
+  </si>
+  <si>
+    <t>elem</t>
+  </si>
+  <si>
+    <t>diameter nominal</t>
+  </si>
+  <si>
+    <t>do it yourself</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>circumference</t>
+  </si>
+  <si>
+    <t>chem</t>
+  </si>
+  <si>
+    <t>chamfer</t>
+  </si>
+  <si>
+    <t>catal</t>
+  </si>
+  <si>
+    <t>bottom of foundation</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>arrangement</t>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>after hours</t>
+  </si>
+  <si>
+    <t>above ground level</t>
+  </si>
+  <si>
+    <t>above floor level </t>
+  </si>
+  <si>
+    <t>accep</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>appt</t>
+  </si>
+  <si>
+    <t>impr</t>
+  </si>
+  <si>
+    <t>probab</t>
+  </si>
+  <si>
+    <t>reinst</t>
+  </si>
+  <si>
+    <t>surv</t>
+  </si>
+  <si>
+    <t>tech specs</t>
+  </si>
+  <si>
+    <t>welded column</t>
+  </si>
+  <si>
+    <t>universal beam</t>
+  </si>
+  <si>
+    <t>unequal angle</t>
+  </si>
+  <si>
+    <t>troublesome</t>
+  </si>
+  <si>
+    <t>material requirements planning</t>
+  </si>
+  <si>
+    <t>cement masonry unit</t>
+  </si>
+  <si>
+    <t>as soon as possible</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>calib</t>
+  </si>
+  <si>
+    <t>calibr</t>
+  </si>
+  <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>periodic</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>analytic</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineering </t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>concent</t>
+  </si>
+  <si>
+    <t>optical</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>chann</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>explan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>tollerance</t>
+  </si>
+  <si>
+    <t>unkwn</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>pck</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>oper</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>repck</t>
+  </si>
+  <si>
+    <t>repack</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>refurb</t>
+  </si>
+  <si>
+    <t>refurbish</t>
+  </si>
+  <si>
+    <t>rsvr</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>resrvr</t>
+  </si>
+  <si>
+    <t>reterm</t>
+  </si>
+  <si>
+    <t>retermination</t>
+  </si>
+  <si>
+    <t>flng</t>
+  </si>
+  <si>
+    <t>flnge</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>flngs</t>
+  </si>
+  <si>
+    <t>flanges</t>
+  </si>
+  <si>
+    <t>obsrv</t>
+  </si>
+  <si>
+    <t>emb</t>
+  </si>
+  <si>
+    <t>embrittlement</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>wstg</t>
+  </si>
+  <si>
+    <t>wastage</t>
+  </si>
+  <si>
+    <t>degr</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waste </t>
+  </si>
+  <si>
+    <t>wst</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>chk</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>xmtr</t>
+  </si>
+  <si>
+    <t>transmitter</t>
+  </si>
+  <si>
+    <t>htr</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>retest</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>verif</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>atmos</t>
+  </si>
+  <si>
+    <t>atmospheric</t>
+  </si>
+  <si>
+    <t>cntl</t>
+  </si>
+  <si>
+    <t>cntrl</t>
+  </si>
+  <si>
+    <t>wshr</t>
+  </si>
+  <si>
+    <t>washer</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
+    <t>xfer</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>purif</t>
+  </si>
+  <si>
+    <t>purification</t>
+  </si>
+  <si>
+    <t>hx</t>
+  </si>
+  <si>
+    <t>heat exchanger</t>
+  </si>
+  <si>
+    <t>scaff</t>
+  </si>
+  <si>
+    <t>scaffolding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaf </t>
+  </si>
+  <si>
+    <t>cbl</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>cbls</t>
+  </si>
+  <si>
+    <t>cables</t>
+  </si>
+  <si>
+    <t>discnt</t>
+  </si>
+  <si>
+    <t>disconnect</t>
+  </si>
+  <si>
+    <t>dscnt</t>
+  </si>
+  <si>
+    <t>dscnct</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>regenerate</t>
+  </si>
+  <si>
+    <t>recomb</t>
+  </si>
+  <si>
+    <t>recombine</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <t>depressurize</t>
+  </si>
+  <si>
+    <t>demin</t>
+  </si>
+  <si>
+    <t>demineralize</t>
+  </si>
+  <si>
+    <t>strk</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>cntrld</t>
+  </si>
+  <si>
+    <t>controlled</t>
+  </si>
+  <si>
+    <t>dwncmr</t>
+  </si>
+  <si>
+    <t>downcomer</t>
+  </si>
+  <si>
+    <t>drn</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>fdwtr</t>
+  </si>
+  <si>
+    <t>feedwater</t>
+  </si>
+  <si>
+    <t>feed water</t>
+  </si>
+  <si>
+    <t>turb</t>
+  </si>
+  <si>
+    <t>turbine</t>
+  </si>
+  <si>
+    <t>emerg</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>alternator</t>
+  </si>
+  <si>
+    <t>shft</t>
+  </si>
+  <si>
+    <t>shaft</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>flw</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>funct</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>trng</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>tks</t>
+  </si>
+  <si>
+    <t>tanks</t>
+  </si>
+  <si>
+    <t>isol</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>suct</t>
+  </si>
+  <si>
+    <t>suction</t>
+  </si>
+  <si>
+    <t>islt</t>
+  </si>
+  <si>
+    <t>tnk</t>
+  </si>
+  <si>
+    <t>tnks</t>
+  </si>
+  <si>
+    <t>disch</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>emrg</t>
+  </si>
+  <si>
+    <t>xfmr</t>
+  </si>
+  <si>
+    <t>xfrmr</t>
+  </si>
+  <si>
+    <t>stby</t>
+  </si>
+  <si>
+    <t>stand by</t>
+  </si>
+  <si>
+    <t>assmby</t>
+  </si>
+  <si>
+    <t>vrfy</t>
+  </si>
+  <si>
+    <t>rls</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>lvl</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>deten</t>
+  </si>
+  <si>
+    <t>detension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -897,9 +3294,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1246,12 +3654,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1607,10 +4018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,1102 +4032,4873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>754</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>863</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>777</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>538</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>541</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>146</v>
+      <c r="A23" t="s">
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>543</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>774</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>866</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>901</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>546</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>423</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>548</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>751</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>550</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>424</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>551</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>856</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>795</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>796</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>553</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>814</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>556</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>555</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>114</v>
+      <c r="A61" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>881</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>882</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>864</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>865</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>854</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>788</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>801</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>928</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>151</v>
+      <c r="A82" t="s">
+        <v>902</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>852</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>890</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>437</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>437</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>562</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>563</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>439</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>567</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>567</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>894</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>567</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>895</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>898</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>571</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>768</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>768</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>785</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>768</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>903</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>440</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>804</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>805</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>521</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>516</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>525</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>849</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>850</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>509</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>510</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>815</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>848</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>573</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>396</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>503</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" t="s">
-        <v>243</v>
+        <v>803</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>575</v>
+      </c>
+      <c r="B139" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>765</v>
+      </c>
+      <c r="B140" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>767</v>
+      </c>
+      <c r="B141" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>577</v>
+      </c>
+      <c r="B142" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>752</v>
+      </c>
+      <c r="B143" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>248</v>
+      </c>
+      <c r="B144" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>398</v>
+      </c>
+      <c r="B145" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>579</v>
+      </c>
+      <c r="B148" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>844</v>
+      </c>
+      <c r="B151" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>845</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>402</v>
+      </c>
+      <c r="B154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>581</v>
+      </c>
+      <c r="B157" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>404</v>
+      </c>
+      <c r="B159" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>307</v>
+      </c>
+      <c r="B161" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>445</v>
+      </c>
+      <c r="B163" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>582</v>
+      </c>
+      <c r="B164" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>842</v>
+      </c>
+      <c r="B165" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>584</v>
+      </c>
+      <c r="B166" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>753</v>
+      </c>
+      <c r="B167" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>586</v>
+      </c>
+      <c r="B169" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>589</v>
+      </c>
+      <c r="B173" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>904</v>
+      </c>
+      <c r="B174" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>405</v>
+      </c>
+      <c r="B175" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>591</v>
+      </c>
+      <c r="B176" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>593</v>
+      </c>
+      <c r="B177" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>905</v>
+      </c>
+      <c r="B178" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>447</v>
+      </c>
+      <c r="B179" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>813</v>
+      </c>
+      <c r="B180" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>449</v>
+      </c>
+      <c r="B183" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>926</v>
+      </c>
+      <c r="B184" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>927</v>
+      </c>
+      <c r="B185" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>929</v>
+      </c>
+      <c r="B186" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>407</v>
+      </c>
+      <c r="B187" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>409</v>
+      </c>
+      <c r="B189" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>409</v>
+      </c>
+      <c r="B190" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>159</v>
+      </c>
+      <c r="B191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>161</v>
+      </c>
+      <c r="B193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>161</v>
+      </c>
+      <c r="B194" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>594</v>
+      </c>
+      <c r="B197" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>451</v>
+      </c>
+      <c r="B199" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>598</v>
+      </c>
+      <c r="B201" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>600</v>
+      </c>
+      <c r="B202" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>601</v>
+      </c>
+      <c r="B203" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>309</v>
+      </c>
+      <c r="B204" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>603</v>
+      </c>
+      <c r="B205" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>604</v>
+      </c>
+      <c r="B206" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>453</v>
+      </c>
+      <c r="B207" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>455</v>
+      </c>
+      <c r="B208" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>607</v>
+      </c>
+      <c r="B209" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>252</v>
+      </c>
+      <c r="B210" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>253</v>
+      </c>
+      <c r="B211" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>457</v>
+      </c>
+      <c r="B215" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>87</v>
+      </c>
+      <c r="B216" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>136</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>763</v>
+      </c>
+      <c r="B218" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>837</v>
+      </c>
+      <c r="B220" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>189</v>
+      </c>
+      <c r="B221" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>311</v>
+      </c>
+      <c r="B222" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>205</v>
+      </c>
+      <c r="B223" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>205</v>
+      </c>
+      <c r="B224" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>608</v>
+      </c>
+      <c r="B225" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>610</v>
+      </c>
+      <c r="B226" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>612</v>
+      </c>
+      <c r="B227" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>867</v>
+      </c>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>613</v>
+      </c>
+      <c r="B229" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>613</v>
+      </c>
+      <c r="B230" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>615</v>
+      </c>
+      <c r="B231" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>617</v>
+      </c>
+      <c r="B232" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>618</v>
+      </c>
+      <c r="B233" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>621</v>
+      </c>
+      <c r="B234" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>619</v>
+      </c>
+      <c r="B235" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>622</v>
+      </c>
+      <c r="B236" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>624</v>
+      </c>
+      <c r="B237" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>64</v>
+      </c>
+      <c r="B238" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>625</v>
+      </c>
+      <c r="B239" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>627</v>
+      </c>
+      <c r="B240" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>140</v>
+      </c>
+      <c r="B241" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>755</v>
+      </c>
+      <c r="B242" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>631</v>
+      </c>
+      <c r="B243" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>137</v>
+      </c>
+      <c r="B244" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>629</v>
+      </c>
+      <c r="B245" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>629</v>
+      </c>
+      <c r="B246" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>132</v>
+      </c>
+      <c r="B247" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>413</v>
+      </c>
+      <c r="B248" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>633</v>
+      </c>
+      <c r="B249" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>411</v>
+      </c>
+      <c r="B250" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>635</v>
+      </c>
+      <c r="B251" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>637</v>
+      </c>
+      <c r="B252" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>783</v>
+      </c>
+      <c r="B253" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>187</v>
+      </c>
+      <c r="B254" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>836</v>
+      </c>
+      <c r="B255" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>459</v>
+      </c>
+      <c r="B256" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>461</v>
+      </c>
+      <c r="B257" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>191</v>
+      </c>
+      <c r="B258" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>638</v>
+      </c>
+      <c r="B259" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>463</v>
+      </c>
+      <c r="B261" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>465</v>
+      </c>
+      <c r="B262" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>314</v>
+      </c>
+      <c r="B264" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>247</v>
+      </c>
+      <c r="B265" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>414</v>
+      </c>
+      <c r="B266" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>468</v>
+      </c>
+      <c r="B267" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>316</v>
+      </c>
+      <c r="B268" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>808</v>
+      </c>
+      <c r="B269" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>806</v>
+      </c>
+      <c r="B270" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>318</v>
+      </c>
+      <c r="B271" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>640</v>
+      </c>
+      <c r="B272" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>466</v>
+      </c>
+      <c r="B273" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>258</v>
+      </c>
+      <c r="B274" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>320</v>
+      </c>
+      <c r="B275" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>321</v>
+      </c>
+      <c r="B276" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>642</v>
+      </c>
+      <c r="B277" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>644</v>
+      </c>
+      <c r="B278" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>646</v>
+      </c>
+      <c r="B279" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>797</v>
+      </c>
+      <c r="B280" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>648</v>
+      </c>
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>649</v>
+      </c>
+      <c r="B282" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>324</v>
+      </c>
+      <c r="B283" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>326</v>
+      </c>
+      <c r="B284" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>328</v>
+      </c>
+      <c r="B285" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>193</v>
+      </c>
+      <c r="B286" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>70</v>
+      </c>
+      <c r="B287" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>71</v>
+      </c>
+      <c r="B288" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>260</v>
+      </c>
+      <c r="B289" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>163</v>
+      </c>
+      <c r="B290" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>757</v>
+      </c>
+      <c r="B291" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>69</v>
+      </c>
+      <c r="B292" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>756</v>
+      </c>
+      <c r="B293" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>469</v>
+      </c>
+      <c r="B294" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>769</v>
+      </c>
+      <c r="B295" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>330</v>
+      </c>
+      <c r="B296" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>331</v>
+      </c>
+      <c r="B297" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>195</v>
+      </c>
+      <c r="B298" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>228</v>
+      </c>
+      <c r="B299" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>471</v>
+      </c>
+      <c r="B300" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>471</v>
+      </c>
+      <c r="B301" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>652</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>202</v>
+      </c>
+      <c r="B303" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>332</v>
+      </c>
+      <c r="B304" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>335</v>
+      </c>
+      <c r="B305" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>832</v>
+      </c>
+      <c r="B306" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>473</v>
+      </c>
+      <c r="B307" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>196</v>
+      </c>
+      <c r="B308" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>336</v>
+      </c>
+      <c r="B309" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>653</v>
+      </c>
+      <c r="B310" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>199</v>
+      </c>
+      <c r="B311" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>338</v>
+      </c>
+      <c r="B312" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>340</v>
+      </c>
+      <c r="B313" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>830</v>
+      </c>
+      <c r="B314" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>517</v>
+      </c>
+      <c r="B315" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>201</v>
+      </c>
+      <c r="B316" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>262</v>
+      </c>
+      <c r="B317" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>262</v>
+      </c>
+      <c r="B318" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>476</v>
+      </c>
+      <c r="B319" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>655</v>
+      </c>
+      <c r="B320" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>654</v>
+      </c>
+      <c r="B321" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>833</v>
+      </c>
+      <c r="B322" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>656</v>
+      </c>
+      <c r="B323" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>28</v>
+      </c>
+      <c r="B324" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>658</v>
+      </c>
+      <c r="B325" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>660</v>
+      </c>
+      <c r="B326" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>931</v>
+      </c>
+      <c r="B327" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>663</v>
+      </c>
+      <c r="B328" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>661</v>
+      </c>
+      <c r="B329" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>664</v>
+      </c>
+      <c r="B330" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>478</v>
+      </c>
+      <c r="B331" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>203</v>
+      </c>
+      <c r="B332" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>92</v>
+      </c>
+      <c r="B333" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>914</v>
+      </c>
+      <c r="B334" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>667</v>
+      </c>
+      <c r="B335" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>117</v>
+      </c>
+      <c r="B336" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>207</v>
+      </c>
+      <c r="B337" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>207</v>
+      </c>
+      <c r="B338" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>207</v>
+      </c>
+      <c r="B339" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>207</v>
+      </c>
+      <c r="B340" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>669</v>
+      </c>
+      <c r="B341" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>671</v>
+      </c>
+      <c r="B342" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>671</v>
+      </c>
+      <c r="B343" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>672</v>
+      </c>
+      <c r="B344" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>672</v>
+      </c>
+      <c r="B345" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>799</v>
+      </c>
+      <c r="B346" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>480</v>
+      </c>
+      <c r="B347" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>341</v>
+      </c>
+      <c r="B348" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>209</v>
+      </c>
+      <c r="B349" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>911</v>
+      </c>
+      <c r="B350" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>343</v>
+      </c>
+      <c r="B351" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>675</v>
+      </c>
+      <c r="B352" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>676</v>
+      </c>
+      <c r="B353" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>884</v>
+      </c>
+      <c r="B354" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>677</v>
+      </c>
+      <c r="B355" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>210</v>
+      </c>
+      <c r="B356" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>230</v>
+      </c>
+      <c r="B357" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>230</v>
+      </c>
+      <c r="B358" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>230</v>
+      </c>
+      <c r="B359" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>346</v>
+      </c>
+      <c r="B360" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>679</v>
+      </c>
+      <c r="B361" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>142</v>
+      </c>
+      <c r="B362" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>348</v>
+      </c>
+      <c r="B363" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>350</v>
+      </c>
+      <c r="B364" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>681</v>
+      </c>
+      <c r="B365" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>482</v>
+      </c>
+      <c r="B366" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>484</v>
+      </c>
+      <c r="B367" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>684</v>
+      </c>
+      <c r="B368" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>684</v>
+      </c>
+      <c r="B369" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>686</v>
+      </c>
+      <c r="B370" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>688</v>
+      </c>
+      <c r="B371" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>689</v>
+      </c>
+      <c r="B372" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>816</v>
+      </c>
+      <c r="B373" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>96</v>
+      </c>
+      <c r="B374" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>96</v>
+      </c>
+      <c r="B375" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>99</v>
+      </c>
+      <c r="B376" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>690</v>
+      </c>
+      <c r="B377" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>108</v>
+      </c>
+      <c r="B378" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>692</v>
+      </c>
+      <c r="B379" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>868</v>
+      </c>
+      <c r="B380" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>693</v>
+      </c>
+      <c r="B381" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>505</v>
+      </c>
+      <c r="B382" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>695</v>
+      </c>
+      <c r="B383" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>771</v>
+      </c>
+      <c r="B384" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>104</v>
+      </c>
+      <c r="B385" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>83</v>
+      </c>
+      <c r="B386" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>211</v>
+      </c>
+      <c r="B387" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>758</v>
+      </c>
+      <c r="B388" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>213</v>
+      </c>
+      <c r="B389" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>486</v>
+      </c>
+      <c r="B390" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>487</v>
+      </c>
+      <c r="B391" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>697</v>
+      </c>
+      <c r="B392" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>89</v>
+      </c>
+      <c r="B393" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>91</v>
+      </c>
+      <c r="B394" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>488</v>
+      </c>
+      <c r="B395" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>512</v>
+      </c>
+      <c r="B396" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>76</v>
+      </c>
+      <c r="B397" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>759</v>
+      </c>
+      <c r="B398" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>919</v>
+      </c>
+      <c r="B399" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>699</v>
+      </c>
+      <c r="B400" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>700</v>
+      </c>
+      <c r="B401" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>77</v>
+      </c>
+      <c r="B402" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>165</v>
+      </c>
+      <c r="B403" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>869</v>
+      </c>
+      <c r="B404" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>702</v>
+      </c>
+      <c r="B405" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>131</v>
+      </c>
+      <c r="B406" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>703</v>
+      </c>
+      <c r="B407" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>916</v>
+      </c>
+      <c r="B408" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>826</v>
+      </c>
+      <c r="B409" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>524</v>
+      </c>
+      <c r="B410" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>78</v>
+      </c>
+      <c r="B411" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>704</v>
+      </c>
+      <c r="B412" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>923</v>
+      </c>
+      <c r="B413" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>924</v>
+      </c>
+      <c r="B414" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>706</v>
+      </c>
+      <c r="B415" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>706</v>
+      </c>
+      <c r="B416" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>706</v>
+      </c>
+      <c r="B417" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>256</v>
+      </c>
+      <c r="B418" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>352</v>
+      </c>
+      <c r="B420" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>129</v>
+      </c>
+      <c r="B421" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>416</v>
+      </c>
+      <c r="B422" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>921</v>
+      </c>
+      <c r="B423" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>100</v>
+      </c>
+      <c r="B424" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>126</v>
+      </c>
+      <c r="B425" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>112</v>
+      </c>
+      <c r="B426" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>112</v>
+      </c>
+      <c r="B427" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>114</v>
+      </c>
+      <c r="B428" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>707</v>
+      </c>
+      <c r="B429" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>707</v>
+      </c>
+      <c r="B430" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>710</v>
+      </c>
+      <c r="B431" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>790</v>
+      </c>
+      <c r="B432" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>817</v>
+      </c>
+      <c r="B433" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>128</v>
+      </c>
+      <c r="B434" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>490</v>
+      </c>
+      <c r="B435" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>522</v>
+      </c>
+      <c r="B436" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>356</v>
+      </c>
+      <c r="B437" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>760</v>
+      </c>
+      <c r="B438" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>167</v>
+      </c>
+      <c r="B439" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>167</v>
+      </c>
+      <c r="B440" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>492</v>
+      </c>
+      <c r="B441" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>358</v>
+      </c>
+      <c r="B442" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>711</v>
+      </c>
+      <c r="B443" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>711</v>
+      </c>
+      <c r="B444" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>494</v>
+      </c>
+      <c r="B445" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>825</v>
+      </c>
+      <c r="B446" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>713</v>
+      </c>
+      <c r="B447" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>714</v>
+      </c>
+      <c r="B448" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>360</v>
+      </c>
+      <c r="B449" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>761</v>
+      </c>
+      <c r="B450" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>362</v>
+      </c>
+      <c r="B451" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>715</v>
+      </c>
+      <c r="B452" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>717</v>
+      </c>
+      <c r="B453" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>717</v>
+      </c>
+      <c r="B454" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>720</v>
+      </c>
+      <c r="B455" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>55</v>
+      </c>
+      <c r="B456" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>55</v>
+      </c>
+      <c r="B457" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>722</v>
+      </c>
+      <c r="B458" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>519</v>
+      </c>
+      <c r="B459" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>870</v>
+      </c>
+      <c r="B460" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>809</v>
+      </c>
+      <c r="B461" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>85</v>
+      </c>
+      <c r="B462" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>85</v>
+      </c>
+      <c r="B463" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>85</v>
+      </c>
+      <c r="B464" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>792</v>
+      </c>
+      <c r="B465" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>723</v>
+      </c>
+      <c r="B466" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>723</v>
+      </c>
+      <c r="B467" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>283</v>
+      </c>
+      <c r="B468" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>818</v>
+      </c>
+      <c r="B469" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>233</v>
+      </c>
+      <c r="B470" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>364</v>
+      </c>
+      <c r="B471" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>43</v>
+      </c>
+      <c r="B472" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>43</v>
+      </c>
+      <c r="B473" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>871</v>
+      </c>
+      <c r="B474" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>726</v>
+      </c>
+      <c r="B475" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>819</v>
+      </c>
+      <c r="B476" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>727</v>
+      </c>
+      <c r="B477" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>730</v>
+      </c>
+      <c r="B478" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>729</v>
+      </c>
+      <c r="B479" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>106</v>
+      </c>
+      <c r="B480" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>106</v>
+      </c>
+      <c r="B481" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>497</v>
+      </c>
+      <c r="B482" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>731</v>
+      </c>
+      <c r="B483" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>733</v>
+      </c>
+      <c r="B484" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>264</v>
+      </c>
+      <c r="B485" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>366</v>
+      </c>
+      <c r="B486" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>368</v>
+      </c>
+      <c r="B487" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>370</v>
+      </c>
+      <c r="B488" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>907</v>
+      </c>
+      <c r="B489" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>734</v>
+      </c>
+      <c r="B490" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>736</v>
+      </c>
+      <c r="B491" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>736</v>
+      </c>
+      <c r="B492" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>738</v>
+      </c>
+      <c r="B493" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>786</v>
+      </c>
+      <c r="B494" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>739</v>
+      </c>
+      <c r="B495" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>740</v>
+      </c>
+      <c r="B496" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>820</v>
+      </c>
+      <c r="B497" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>372</v>
+      </c>
+      <c r="B498" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>374</v>
+      </c>
+      <c r="B499" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>235</v>
+      </c>
+      <c r="B500" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>376</v>
+      </c>
+      <c r="B501" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>236</v>
+      </c>
+      <c r="B502" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>499</v>
+      </c>
+      <c r="B503" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>378</v>
+      </c>
+      <c r="B504" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>134</v>
+      </c>
+      <c r="B505" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>821</v>
+      </c>
+      <c r="B506" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>135</v>
+      </c>
+      <c r="B507" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>909</v>
+      </c>
+      <c r="B508" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>216</v>
+      </c>
+      <c r="B509" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>215</v>
+      </c>
+      <c r="B510" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>381</v>
+      </c>
+      <c r="B511" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>793</v>
+      </c>
+      <c r="B512" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>743</v>
+      </c>
+      <c r="B513" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>741</v>
+      </c>
+      <c r="B514" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>266</v>
+      </c>
+      <c r="B515" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>268</v>
+      </c>
+      <c r="B516" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>507</v>
+      </c>
+      <c r="B517" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>121</v>
+      </c>
+      <c r="B518" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>822</v>
+      </c>
+      <c r="B519" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>823</v>
+      </c>
+      <c r="B520" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>781</v>
+      </c>
+      <c r="B521" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>94</v>
+      </c>
+      <c r="B522" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>383</v>
+      </c>
+      <c r="B523" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>271</v>
+      </c>
+      <c r="B524" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>237</v>
+      </c>
+      <c r="B525" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>762</v>
+      </c>
+      <c r="B526" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>418</v>
+      </c>
+      <c r="B527" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>418</v>
+      </c>
+      <c r="B528" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>749</v>
+      </c>
+      <c r="B529" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>749</v>
+      </c>
+      <c r="B530" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>420</v>
+      </c>
+      <c r="B531" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>57</v>
+      </c>
+      <c r="B532" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>269</v>
+      </c>
+      <c r="B533" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>501</v>
+      </c>
+      <c r="B534" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>746</v>
+      </c>
+      <c r="B535" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>747</v>
+      </c>
+      <c r="B536" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>932</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>934</v>
+      </c>
+      <c r="B538" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>936</v>
+      </c>
+      <c r="B539" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>938</v>
+      </c>
+      <c r="B540" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>940</v>
+      </c>
+      <c r="B541" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>942</v>
+      </c>
+      <c r="B542" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>944</v>
+      </c>
+      <c r="B543" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>610</v>
+      </c>
+      <c r="B544" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>946</v>
+      </c>
+      <c r="B545" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>948</v>
+      </c>
+      <c r="B546" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>950</v>
+      </c>
+      <c r="B547" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>952</v>
+      </c>
+      <c r="B548" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>954</v>
+      </c>
+      <c r="B549" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>956</v>
+      </c>
+      <c r="B550" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>958</v>
+      </c>
+      <c r="B551" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>959</v>
+      </c>
+      <c r="B552" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>960</v>
+      </c>
+      <c r="B553" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>962</v>
+      </c>
+      <c r="B554" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>954</v>
+      </c>
+      <c r="B555" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>964</v>
+      </c>
+      <c r="B556" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>966</v>
+      </c>
+      <c r="B557" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>968</v>
+      </c>
+      <c r="B558" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>970</v>
+      </c>
+      <c r="B559" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>972</v>
+      </c>
+      <c r="B560" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>973</v>
+      </c>
+      <c r="B561" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>975</v>
+      </c>
+      <c r="B562" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>977</v>
+      </c>
+      <c r="B563" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>979</v>
+      </c>
+      <c r="B564" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>981</v>
+      </c>
+      <c r="B566" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>983</v>
+      </c>
+      <c r="B567" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>985</v>
+      </c>
+      <c r="B568" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>987</v>
+      </c>
+      <c r="B569" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>989</v>
+      </c>
+      <c r="B570" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>991</v>
+      </c>
+      <c r="B571" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>991</v>
+      </c>
+      <c r="B572" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>993</v>
+      </c>
+      <c r="B573" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>995</v>
+      </c>
+      <c r="B574" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>997</v>
+      </c>
+      <c r="B575" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>768</v>
+      </c>
+      <c r="B577" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>998</v>
+      </c>
+      <c r="B580" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>690</v>
+      </c>
+      <c r="B584" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B597" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B598" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>104</v>
+      </c>
+      <c r="B600" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>55</v>
+      </c>
+      <c r="B601" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B602" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B603" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>997</v>
+      </c>
+      <c r="B604" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B536">
+    <sortCondition ref="A1:A536"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE378F8-9876-B843-8C84-6FC286B9B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD7426-DA76-0947-8FDD-14CD712238C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="1800" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="1160" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1069">
   <si>
     <t>Full</t>
   </si>
   <si>
-    <t>c/o </t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -3152,6 +3149,84 @@
   </si>
   <si>
     <t>detension</t>
+  </si>
+  <si>
+    <t>rmve</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>perfrm</t>
+  </si>
+  <si>
+    <t>sched</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>c/o</t>
+  </si>
+  <si>
+    <t>mods</t>
+  </si>
+  <si>
+    <t>modifications</t>
+  </si>
+  <si>
+    <t>circulation</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>circulating water</t>
+  </si>
+  <si>
+    <t>rplc</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>lwr</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>req'd</t>
+  </si>
+  <si>
+    <t>scrn</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>wsh</t>
+  </si>
+  <si>
+    <t>mtr</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>trblsht</t>
+  </si>
+  <si>
+    <t>troubleshoot</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
 </sst>
 </file>
@@ -4018,11 +4093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
+      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B612" sqref="B612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4033,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4041,3719 +4116,3719 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="s">
         <v>528</v>
-      </c>
-      <c r="B5" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
         <v>385</v>
-      </c>
-      <c r="B6" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" t="s">
         <v>531</v>
-      </c>
-      <c r="B8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
         <v>533</v>
-      </c>
-      <c r="B11" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>776</v>
+      </c>
+      <c r="B13" t="s">
         <v>777</v>
-      </c>
-      <c r="B13" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" t="s">
         <v>536</v>
-      </c>
-      <c r="B14" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" t="s">
         <v>538</v>
-      </c>
-      <c r="B17" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
         <v>273</v>
-      </c>
-      <c r="B19" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" t="s">
         <v>275</v>
-      </c>
-      <c r="B22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" t="s">
         <v>543</v>
-      </c>
-      <c r="B24" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
         <v>277</v>
-      </c>
-      <c r="B30" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" t="s">
         <v>279</v>
-      </c>
-      <c r="B31" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" t="s">
         <v>546</v>
-      </c>
-      <c r="B32" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" t="s">
         <v>548</v>
-      </c>
-      <c r="B34" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B35" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" t="s">
         <v>281</v>
-      </c>
-      <c r="B36" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39" t="s">
         <v>551</v>
-      </c>
-      <c r="B39" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>855</v>
+      </c>
+      <c r="B40" t="s">
         <v>856</v>
-      </c>
-      <c r="B40" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B41" t="s">
         <v>425</v>
-      </c>
-      <c r="B41" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" t="s">
         <v>284</v>
-      </c>
-      <c r="B43" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>794</v>
+      </c>
+      <c r="B44" t="s">
         <v>795</v>
-      </c>
-      <c r="B44" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s">
         <v>286</v>
-      </c>
-      <c r="B45" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46" t="s">
         <v>553</v>
-      </c>
-      <c r="B46" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
         <v>217</v>
-      </c>
-      <c r="B50" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" t="s">
         <v>290</v>
-      </c>
-      <c r="B52" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>555</v>
+      </c>
+      <c r="B53" t="s">
         <v>556</v>
-      </c>
-      <c r="B53" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
         <v>292</v>
-      </c>
-      <c r="B55" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>427</v>
+      </c>
+      <c r="B56" t="s">
         <v>428</v>
-      </c>
-      <c r="B56" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" t="s">
         <v>294</v>
-      </c>
-      <c r="B57" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" t="s">
         <v>296</v>
-      </c>
-      <c r="B58" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" t="s">
         <v>238</v>
-      </c>
-      <c r="B59" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
         <v>430</v>
-      </c>
-      <c r="B62" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
         <v>300</v>
-      </c>
-      <c r="B63" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" t="s">
         <v>298</v>
-      </c>
-      <c r="B65" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>431</v>
+      </c>
+      <c r="B69" t="s">
         <v>432</v>
-      </c>
-      <c r="B69" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>863</v>
+      </c>
+      <c r="B70" t="s">
         <v>864</v>
-      </c>
-      <c r="B70" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" t="s">
         <v>302</v>
-      </c>
-      <c r="B72" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>787</v>
+      </c>
+      <c r="B73" t="s">
         <v>788</v>
-      </c>
-      <c r="B73" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B74" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
         <v>219</v>
-      </c>
-      <c r="B77" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>558</v>
+      </c>
+      <c r="B80" t="s">
         <v>559</v>
-      </c>
-      <c r="B80" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
         <v>115</v>
-      </c>
-      <c r="B83" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B84" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B87" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
         <v>240</v>
-      </c>
-      <c r="B88" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" t="s">
         <v>242</v>
-      </c>
-      <c r="B90" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>391</v>
+      </c>
+      <c r="B93" t="s">
         <v>392</v>
-      </c>
-      <c r="B93" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" t="s">
         <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
         <v>171</v>
-      </c>
-      <c r="B98" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>562</v>
+      </c>
+      <c r="B99" t="s">
         <v>563</v>
-      </c>
-      <c r="B99" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
         <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B102" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>566</v>
+      </c>
+      <c r="B103" t="s">
         <v>567</v>
-      </c>
-      <c r="B103" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B104" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B105" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B106" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" t="s">
         <v>390</v>
-      </c>
-      <c r="B107" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B110" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>570</v>
+      </c>
+      <c r="B111" t="s">
         <v>571</v>
-      </c>
-      <c r="B111" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B113" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B114" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>439</v>
+      </c>
+      <c r="B115" t="s">
         <v>440</v>
-      </c>
-      <c r="B115" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" t="s">
         <v>394</v>
-      </c>
-      <c r="B116" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>803</v>
+      </c>
+      <c r="B119" t="s">
         <v>804</v>
-      </c>
-      <c r="B119" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" t="s">
         <v>305</v>
-      </c>
-      <c r="B120" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
         <v>175</v>
-      </c>
-      <c r="B122" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" t="s">
         <v>177</v>
-      </c>
-      <c r="B125" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>441</v>
+      </c>
+      <c r="B126" t="s">
         <v>442</v>
-      </c>
-      <c r="B126" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B127" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>848</v>
+      </c>
+      <c r="B128" t="s">
         <v>849</v>
-      </c>
-      <c r="B128" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>508</v>
+      </c>
+      <c r="B129" t="s">
         <v>509</v>
-      </c>
-      <c r="B129" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>572</v>
+      </c>
+      <c r="B132" t="s">
         <v>573</v>
-      </c>
-      <c r="B132" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
         <v>144</v>
-      </c>
-      <c r="B134" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" t="s">
         <v>396</v>
-      </c>
-      <c r="B135" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>502</v>
+      </c>
+      <c r="B136" t="s">
         <v>503</v>
-      </c>
-      <c r="B136" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138" t="s">
         <v>74</v>
-      </c>
-      <c r="B138" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" t="s">
         <v>575</v>
-      </c>
-      <c r="B139" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>764</v>
+      </c>
+      <c r="B140" t="s">
         <v>765</v>
-      </c>
-      <c r="B140" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B141" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>576</v>
+      </c>
+      <c r="B142" t="s">
         <v>577</v>
-      </c>
-      <c r="B142" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B143" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>397</v>
+      </c>
+      <c r="B145" t="s">
         <v>398</v>
-      </c>
-      <c r="B145" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
         <v>151</v>
-      </c>
-      <c r="B146" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
         <v>153</v>
-      </c>
-      <c r="B147" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" t="s">
         <v>579</v>
-      </c>
-      <c r="B148" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" t="s">
         <v>400</v>
-      </c>
-      <c r="B149" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" t="s">
         <v>157</v>
-      </c>
-      <c r="B150" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B151" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>118</v>
+      </c>
+      <c r="B153" t="s">
         <v>119</v>
-      </c>
-      <c r="B153" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B157" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B158" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B159" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160" t="s">
         <v>249</v>
-      </c>
-      <c r="B160" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" t="s">
         <v>179</v>
-      </c>
-      <c r="B162" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>444</v>
+      </c>
+      <c r="B163" t="s">
         <v>445</v>
-      </c>
-      <c r="B163" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>581</v>
+      </c>
+      <c r="B164" t="s">
         <v>582</v>
-      </c>
-      <c r="B164" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B165" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>583</v>
+      </c>
+      <c r="B166" t="s">
         <v>584</v>
-      </c>
-      <c r="B166" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B167" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
         <v>7</v>
-      </c>
-      <c r="B168" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>585</v>
+      </c>
+      <c r="B169" t="s">
         <v>586</v>
-      </c>
-      <c r="B169" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" t="s">
         <v>181</v>
-      </c>
-      <c r="B170" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" t="s">
         <v>72</v>
-      </c>
-      <c r="B171" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>588</v>
+      </c>
+      <c r="B173" t="s">
         <v>589</v>
-      </c>
-      <c r="B173" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B174" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>404</v>
+      </c>
+      <c r="B175" t="s">
         <v>405</v>
-      </c>
-      <c r="B175" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>590</v>
+      </c>
+      <c r="B176" t="s">
         <v>591</v>
-      </c>
-      <c r="B176" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B177" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>446</v>
+      </c>
+      <c r="B179" t="s">
         <v>447</v>
-      </c>
-      <c r="B179" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
         <v>155</v>
-      </c>
-      <c r="B181" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>448</v>
+      </c>
+      <c r="B183" t="s">
         <v>449</v>
-      </c>
-      <c r="B183" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B184" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B185" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>928</v>
+      </c>
+      <c r="B186" t="s">
         <v>929</v>
-      </c>
-      <c r="B186" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>406</v>
+      </c>
+      <c r="B187" t="s">
         <v>407</v>
-      </c>
-      <c r="B187" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" t="s">
         <v>183</v>
-      </c>
-      <c r="B188" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>408</v>
+      </c>
+      <c r="B189" t="s">
         <v>409</v>
-      </c>
-      <c r="B189" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B190" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>158</v>
+      </c>
+      <c r="B191" t="s">
         <v>159</v>
-      </c>
-      <c r="B191" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>160</v>
+      </c>
+      <c r="B193" t="s">
         <v>161</v>
-      </c>
-      <c r="B193" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196" t="s">
         <v>222</v>
-      </c>
-      <c r="B196" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>593</v>
+      </c>
+      <c r="B197" t="s">
         <v>594</v>
-      </c>
-      <c r="B197" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B198" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>450</v>
+      </c>
+      <c r="B199" t="s">
         <v>451</v>
-      </c>
-      <c r="B199" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>595</v>
+      </c>
+      <c r="B200" t="s">
         <v>596</v>
-      </c>
-      <c r="B200" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>597</v>
+      </c>
+      <c r="B201" t="s">
         <v>598</v>
-      </c>
-      <c r="B201" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B202" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>600</v>
+      </c>
+      <c r="B203" t="s">
         <v>601</v>
-      </c>
-      <c r="B203" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>308</v>
+      </c>
+      <c r="B204" t="s">
         <v>309</v>
-      </c>
-      <c r="B204" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B205" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>603</v>
+      </c>
+      <c r="B206" t="s">
         <v>604</v>
-      </c>
-      <c r="B206" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>452</v>
+      </c>
+      <c r="B207" t="s">
         <v>453</v>
-      </c>
-      <c r="B207" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>454</v>
+      </c>
+      <c r="B208" t="s">
         <v>455</v>
-      </c>
-      <c r="B208" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B209" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B210" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B211" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>184</v>
+      </c>
+      <c r="B212" t="s">
         <v>185</v>
-      </c>
-      <c r="B212" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>225</v>
+      </c>
+      <c r="B214" t="s">
         <v>226</v>
-      </c>
-      <c r="B214" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>456</v>
+      </c>
+      <c r="B215" t="s">
         <v>457</v>
-      </c>
-      <c r="B215" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216" t="s">
         <v>87</v>
-      </c>
-      <c r="B216" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>188</v>
+      </c>
+      <c r="B221" t="s">
         <v>189</v>
-      </c>
-      <c r="B221" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>310</v>
+      </c>
+      <c r="B222" t="s">
         <v>311</v>
-      </c>
-      <c r="B222" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>204</v>
+      </c>
+      <c r="B223" t="s">
         <v>205</v>
-      </c>
-      <c r="B223" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>607</v>
+      </c>
+      <c r="B225" t="s">
         <v>608</v>
-      </c>
-      <c r="B225" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>609</v>
+      </c>
+      <c r="B226" t="s">
         <v>610</v>
-      </c>
-      <c r="B226" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B227" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>612</v>
+      </c>
+      <c r="B229" t="s">
         <v>613</v>
-      </c>
-      <c r="B229" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B230" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>614</v>
+      </c>
+      <c r="B231" t="s">
         <v>615</v>
-      </c>
-      <c r="B231" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B232" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B233" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B234" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>618</v>
+      </c>
+      <c r="B235" t="s">
         <v>619</v>
-      </c>
-      <c r="B235" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>621</v>
+      </c>
+      <c r="B236" t="s">
         <v>622</v>
-      </c>
-      <c r="B236" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B237" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>63</v>
+      </c>
+      <c r="B238" t="s">
         <v>64</v>
-      </c>
-      <c r="B238" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>624</v>
+      </c>
+      <c r="B239" t="s">
         <v>625</v>
-      </c>
-      <c r="B239" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>626</v>
+      </c>
+      <c r="B240" t="s">
         <v>627</v>
-      </c>
-      <c r="B240" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>139</v>
+      </c>
+      <c r="B241" t="s">
         <v>140</v>
-      </c>
-      <c r="B241" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B242" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B243" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>136</v>
+      </c>
+      <c r="B244" t="s">
         <v>137</v>
-      </c>
-      <c r="B244" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>628</v>
+      </c>
+      <c r="B245" t="s">
         <v>629</v>
-      </c>
-      <c r="B245" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B246" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>131</v>
+      </c>
+      <c r="B247" t="s">
         <v>132</v>
-      </c>
-      <c r="B247" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B248" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>632</v>
+      </c>
+      <c r="B249" t="s">
         <v>633</v>
-      </c>
-      <c r="B249" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" t="s">
         <v>411</v>
-      </c>
-      <c r="B250" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>634</v>
+      </c>
+      <c r="B251" t="s">
         <v>635</v>
-      </c>
-      <c r="B251" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B252" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>782</v>
+      </c>
+      <c r="B253" t="s">
         <v>783</v>
-      </c>
-      <c r="B253" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>186</v>
+      </c>
+      <c r="B254" t="s">
         <v>187</v>
-      </c>
-      <c r="B254" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B255" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>458</v>
+      </c>
+      <c r="B256" t="s">
         <v>459</v>
-      </c>
-      <c r="B256" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>460</v>
+      </c>
+      <c r="B257" t="s">
         <v>461</v>
-      </c>
-      <c r="B257" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>190</v>
+      </c>
+      <c r="B258" t="s">
         <v>191</v>
-      </c>
-      <c r="B258" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>637</v>
+      </c>
+      <c r="B259" t="s">
         <v>638</v>
-      </c>
-      <c r="B259" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>253</v>
+      </c>
+      <c r="B260" t="s">
         <v>254</v>
-      </c>
-      <c r="B260" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>462</v>
+      </c>
+      <c r="B261" t="s">
         <v>463</v>
-      </c>
-      <c r="B261" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
         <v>3</v>
-      </c>
-      <c r="B263" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>313</v>
+      </c>
+      <c r="B264" t="s">
         <v>314</v>
-      </c>
-      <c r="B264" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B265" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>413</v>
+      </c>
+      <c r="B266" t="s">
         <v>414</v>
-      </c>
-      <c r="B266" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B267" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>315</v>
+      </c>
+      <c r="B268" t="s">
         <v>316</v>
-      </c>
-      <c r="B268" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>805</v>
+      </c>
+      <c r="B270" t="s">
         <v>806</v>
-      </c>
-      <c r="B270" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>317</v>
+      </c>
+      <c r="B271" t="s">
         <v>318</v>
-      </c>
-      <c r="B271" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>639</v>
+      </c>
+      <c r="B272" t="s">
         <v>640</v>
-      </c>
-      <c r="B272" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>465</v>
+      </c>
+      <c r="B273" t="s">
         <v>466</v>
-      </c>
-      <c r="B273" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>257</v>
+      </c>
+      <c r="B274" t="s">
         <v>258</v>
-      </c>
-      <c r="B274" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B275" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B276" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>641</v>
+      </c>
+      <c r="B277" t="s">
         <v>642</v>
-      </c>
-      <c r="B277" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>643</v>
+      </c>
+      <c r="B278" t="s">
         <v>644</v>
-      </c>
-      <c r="B278" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>645</v>
+      </c>
+      <c r="B279" t="s">
         <v>646</v>
-      </c>
-      <c r="B279" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>796</v>
+      </c>
+      <c r="B280" t="s">
         <v>797</v>
-      </c>
-      <c r="B280" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B281" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>648</v>
+      </c>
+      <c r="B282" t="s">
         <v>649</v>
-      </c>
-      <c r="B282" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>323</v>
+      </c>
+      <c r="B283" t="s">
         <v>324</v>
-      </c>
-      <c r="B283" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>325</v>
+      </c>
+      <c r="B284" t="s">
         <v>326</v>
-      </c>
-      <c r="B284" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>327</v>
+      </c>
+      <c r="B285" t="s">
         <v>328</v>
-      </c>
-      <c r="B285" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>192</v>
+      </c>
+      <c r="B286" t="s">
         <v>193</v>
-      </c>
-      <c r="B286" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B287" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B288" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>259</v>
+      </c>
+      <c r="B289" t="s">
         <v>260</v>
-      </c>
-      <c r="B289" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>162</v>
+      </c>
+      <c r="B290" t="s">
         <v>163</v>
-      </c>
-      <c r="B290" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B291" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B292" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B293" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>468</v>
+      </c>
+      <c r="B294" t="s">
         <v>469</v>
-      </c>
-      <c r="B294" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>768</v>
+      </c>
+      <c r="B295" t="s">
         <v>769</v>
-      </c>
-      <c r="B295" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B296" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B297" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B298" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>227</v>
+      </c>
+      <c r="B299" t="s">
         <v>228</v>
-      </c>
-      <c r="B299" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>470</v>
+      </c>
+      <c r="B300" t="s">
         <v>471</v>
-      </c>
-      <c r="B300" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B301" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B302" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B303" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>331</v>
+      </c>
+      <c r="B304" t="s">
         <v>332</v>
-      </c>
-      <c r="B304" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B305" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B306" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>472</v>
+      </c>
+      <c r="B307" t="s">
         <v>473</v>
-      </c>
-      <c r="B307" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>195</v>
+      </c>
+      <c r="B308" t="s">
         <v>196</v>
-      </c>
-      <c r="B308" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>335</v>
+      </c>
+      <c r="B309" t="s">
         <v>336</v>
-      </c>
-      <c r="B309" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B310" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>198</v>
+      </c>
+      <c r="B311" t="s">
         <v>199</v>
-      </c>
-      <c r="B311" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>337</v>
+      </c>
+      <c r="B312" t="s">
         <v>338</v>
-      </c>
-      <c r="B312" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B313" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B314" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>516</v>
+      </c>
+      <c r="B315" t="s">
         <v>517</v>
-      </c>
-      <c r="B315" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B316" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>261</v>
+      </c>
+      <c r="B317" t="s">
         <v>262</v>
-      </c>
-      <c r="B317" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B318" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>475</v>
+      </c>
+      <c r="B319" t="s">
         <v>476</v>
-      </c>
-      <c r="B319" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>655</v>
+      </c>
+      <c r="B323" t="s">
         <v>656</v>
-      </c>
-      <c r="B323" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>27</v>
+      </c>
+      <c r="B324" t="s">
         <v>28</v>
-      </c>
-      <c r="B324" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>657</v>
+      </c>
+      <c r="B325" t="s">
         <v>658</v>
-      </c>
-      <c r="B325" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B326" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B327" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B328" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>660</v>
+      </c>
+      <c r="B329" t="s">
         <v>661</v>
-      </c>
-      <c r="B329" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>663</v>
+      </c>
+      <c r="B330" t="s">
         <v>664</v>
-      </c>
-      <c r="B330" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>477</v>
+      </c>
+      <c r="B331" t="s">
         <v>478</v>
-      </c>
-      <c r="B331" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>202</v>
+      </c>
+      <c r="B332" t="s">
         <v>203</v>
-      </c>
-      <c r="B332" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>91</v>
+      </c>
+      <c r="B333" t="s">
         <v>92</v>
-      </c>
-      <c r="B333" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>913</v>
+      </c>
+      <c r="B334" t="s">
         <v>914</v>
-      </c>
-      <c r="B334" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>666</v>
+      </c>
+      <c r="B335" t="s">
         <v>667</v>
-      </c>
-      <c r="B335" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>116</v>
+      </c>
+      <c r="B336" t="s">
         <v>117</v>
-      </c>
-      <c r="B336" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>206</v>
+      </c>
+      <c r="B337" t="s">
         <v>207</v>
-      </c>
-      <c r="B337" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B338" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B339" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B340" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>668</v>
+      </c>
+      <c r="B341" t="s">
         <v>669</v>
-      </c>
-      <c r="B341" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>671</v>
+      </c>
+      <c r="B344" t="s">
         <v>672</v>
-      </c>
-      <c r="B344" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B345" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>798</v>
+      </c>
+      <c r="B346" t="s">
         <v>799</v>
-      </c>
-      <c r="B346" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>479</v>
+      </c>
+      <c r="B347" t="s">
         <v>480</v>
-      </c>
-      <c r="B347" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>340</v>
+      </c>
+      <c r="B348" t="s">
         <v>341</v>
-      </c>
-      <c r="B348" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B349" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>910</v>
+      </c>
+      <c r="B350" t="s">
         <v>911</v>
-      </c>
-      <c r="B350" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>342</v>
+      </c>
+      <c r="B351" t="s">
         <v>343</v>
-      </c>
-      <c r="B351" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B352" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B353" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>883</v>
+      </c>
+      <c r="B354" t="s">
         <v>884</v>
-      </c>
-      <c r="B354" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>676</v>
+      </c>
+      <c r="B355" t="s">
         <v>677</v>
-      </c>
-      <c r="B355" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B356" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>229</v>
+      </c>
+      <c r="B357" t="s">
         <v>230</v>
-      </c>
-      <c r="B357" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B358" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B359" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>345</v>
+      </c>
+      <c r="B360" t="s">
         <v>346</v>
-      </c>
-      <c r="B360" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>678</v>
+      </c>
+      <c r="B361" t="s">
         <v>679</v>
-      </c>
-      <c r="B361" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>141</v>
+      </c>
+      <c r="B362" t="s">
         <v>142</v>
-      </c>
-      <c r="B362" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>347</v>
+      </c>
+      <c r="B363" t="s">
         <v>348</v>
-      </c>
-      <c r="B363" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>349</v>
+      </c>
+      <c r="B364" t="s">
         <v>350</v>
-      </c>
-      <c r="B364" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>680</v>
+      </c>
+      <c r="B365" t="s">
         <v>681</v>
-      </c>
-      <c r="B365" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
+        <v>481</v>
+      </c>
+      <c r="B366" t="s">
         <v>482</v>
-      </c>
-      <c r="B366" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>483</v>
+      </c>
+      <c r="B367" t="s">
         <v>484</v>
-      </c>
-      <c r="B367" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>683</v>
+      </c>
+      <c r="B368" t="s">
         <v>684</v>
-      </c>
-      <c r="B368" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B369" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>685</v>
+      </c>
+      <c r="B370" t="s">
         <v>686</v>
-      </c>
-      <c r="B370" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B371" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B372" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B373" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
+        <v>95</v>
+      </c>
+      <c r="B374" t="s">
         <v>96</v>
-      </c>
-      <c r="B374" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B375" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B376" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>689</v>
+      </c>
+      <c r="B377" t="s">
         <v>690</v>
-      </c>
-      <c r="B377" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>107</v>
+      </c>
+      <c r="B378" t="s">
         <v>108</v>
-      </c>
-      <c r="B378" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B380" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
+        <v>692</v>
+      </c>
+      <c r="B381" t="s">
         <v>693</v>
-      </c>
-      <c r="B381" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
+        <v>504</v>
+      </c>
+      <c r="B382" t="s">
         <v>505</v>
-      </c>
-      <c r="B382" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
+        <v>694</v>
+      </c>
+      <c r="B383" t="s">
         <v>695</v>
-      </c>
-      <c r="B383" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>770</v>
+      </c>
+      <c r="B384" t="s">
         <v>771</v>
-      </c>
-      <c r="B384" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
+        <v>103</v>
+      </c>
+      <c r="B385" t="s">
         <v>104</v>
-      </c>
-      <c r="B385" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>82</v>
+      </c>
+      <c r="B386" t="s">
         <v>83</v>
-      </c>
-      <c r="B386" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
+        <v>210</v>
+      </c>
+      <c r="B387" t="s">
         <v>211</v>
-      </c>
-      <c r="B387" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B388" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>212</v>
+      </c>
+      <c r="B389" t="s">
         <v>213</v>
-      </c>
-      <c r="B389" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B390" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B391" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>696</v>
+      </c>
+      <c r="B392" t="s">
         <v>697</v>
-      </c>
-      <c r="B392" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>88</v>
+      </c>
+      <c r="B393" t="s">
         <v>89</v>
-      </c>
-      <c r="B393" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B394" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
+        <v>487</v>
+      </c>
+      <c r="B395" t="s">
         <v>488</v>
-      </c>
-      <c r="B395" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
+        <v>511</v>
+      </c>
+      <c r="B396" t="s">
         <v>512</v>
-      </c>
-      <c r="B396" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B397" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B398" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
+        <v>918</v>
+      </c>
+      <c r="B399" t="s">
         <v>919</v>
-      </c>
-      <c r="B399" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B400" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B401" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B402" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
+        <v>164</v>
+      </c>
+      <c r="B403" t="s">
         <v>165</v>
-      </c>
-      <c r="B403" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B404" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B405" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B406" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B407" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>915</v>
+      </c>
+      <c r="B408" t="s">
         <v>916</v>
-      </c>
-      <c r="B408" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B409" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B410" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B411" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
+        <v>703</v>
+      </c>
+      <c r="B412" t="s">
         <v>704</v>
-      </c>
-      <c r="B412" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B413" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
+        <v>923</v>
+      </c>
+      <c r="B414" t="s">
         <v>924</v>
-      </c>
-      <c r="B414" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B415" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B416" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B417" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>255</v>
+      </c>
+      <c r="B418" t="s">
         <v>256</v>
-      </c>
-      <c r="B418" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419" t="s">
         <v>5</v>
-      </c>
-      <c r="B419" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>351</v>
+      </c>
+      <c r="B420" t="s">
         <v>352</v>
-      </c>
-      <c r="B420" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
+        <v>128</v>
+      </c>
+      <c r="B421" t="s">
         <v>129</v>
-      </c>
-      <c r="B421" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>415</v>
+      </c>
+      <c r="B422" t="s">
         <v>416</v>
-      </c>
-      <c r="B422" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>920</v>
+      </c>
+      <c r="B423" t="s">
         <v>921</v>
-      </c>
-      <c r="B423" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>99</v>
+      </c>
+      <c r="B424" t="s">
         <v>100</v>
-      </c>
-      <c r="B424" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
+        <v>125</v>
+      </c>
+      <c r="B425" t="s">
         <v>126</v>
-      </c>
-      <c r="B425" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
+        <v>111</v>
+      </c>
+      <c r="B426" t="s">
         <v>112</v>
-      </c>
-      <c r="B426" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B427" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B428" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>706</v>
+      </c>
+      <c r="B429" t="s">
         <v>707</v>
-      </c>
-      <c r="B429" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B430" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B431" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>789</v>
+      </c>
+      <c r="B432" t="s">
         <v>790</v>
-      </c>
-      <c r="B432" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B433" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B434" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
+        <v>489</v>
+      </c>
+      <c r="B435" t="s">
         <v>490</v>
-      </c>
-      <c r="B435" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B436" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
+        <v>355</v>
+      </c>
+      <c r="B437" t="s">
         <v>356</v>
-      </c>
-      <c r="B437" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B438" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
+        <v>166</v>
+      </c>
+      <c r="B439" t="s">
         <v>167</v>
-      </c>
-      <c r="B439" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B440" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
+        <v>491</v>
+      </c>
+      <c r="B441" t="s">
         <v>492</v>
-      </c>
-      <c r="B441" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>357</v>
+      </c>
+      <c r="B442" t="s">
         <v>358</v>
-      </c>
-      <c r="B442" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
+        <v>710</v>
+      </c>
+      <c r="B443" t="s">
         <v>711</v>
-      </c>
-      <c r="B443" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B444" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>493</v>
+      </c>
+      <c r="B445" t="s">
         <v>494</v>
-      </c>
-      <c r="B445" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B446" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B447" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B448" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>359</v>
+      </c>
+      <c r="B449" t="s">
         <v>360</v>
-      </c>
-      <c r="B449" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B450" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
+        <v>361</v>
+      </c>
+      <c r="B451" t="s">
         <v>362</v>
-      </c>
-      <c r="B451" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>714</v>
+      </c>
+      <c r="B452" t="s">
         <v>715</v>
-      </c>
-      <c r="B452" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
+        <v>716</v>
+      </c>
+      <c r="B453" t="s">
         <v>717</v>
-      </c>
-      <c r="B453" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B454" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>719</v>
+      </c>
+      <c r="B455" t="s">
         <v>720</v>
-      </c>
-      <c r="B455" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B456" t="s">
-        <v>56</v>
+        <v>810</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
+        <v>721</v>
+      </c>
+      <c r="B457" t="s">
         <v>55</v>
-      </c>
-      <c r="B457" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>722</v>
+        <v>518</v>
       </c>
       <c r="B458" t="s">
-        <v>56</v>
+        <v>519</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>519</v>
+        <v>869</v>
       </c>
       <c r="B459" t="s">
-        <v>520</v>
+        <v>887</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>870</v>
+        <v>808</v>
       </c>
       <c r="B460" t="s">
-        <v>888</v>
+        <v>809</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>809</v>
+        <v>84</v>
       </c>
       <c r="B461" t="s">
-        <v>810</v>
+        <v>85</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B462" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B463" t="s">
-        <v>496</v>
+        <v>778</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>85</v>
+        <v>791</v>
       </c>
       <c r="B464" t="s">
-        <v>779</v>
+        <v>495</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="B465" t="s">
-        <v>496</v>
+        <v>723</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B466" t="s">
         <v>724</v>
@@ -7761,226 +7836,226 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>723</v>
+        <v>282</v>
       </c>
       <c r="B467" t="s">
-        <v>725</v>
+        <v>40</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>283</v>
+        <v>817</v>
       </c>
       <c r="B468" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>818</v>
+        <v>232</v>
       </c>
       <c r="B469" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="B470" t="s">
-        <v>234</v>
+        <v>364</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="B471" t="s">
-        <v>365</v>
+        <v>41</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B472" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>43</v>
+        <v>870</v>
       </c>
       <c r="B473" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>871</v>
+        <v>725</v>
       </c>
       <c r="B474" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>726</v>
+        <v>818</v>
       </c>
       <c r="B475" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>819</v>
+        <v>726</v>
       </c>
       <c r="B476" t="s">
-        <v>45</v>
+        <v>727</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B477" t="s">
-        <v>728</v>
+        <v>43</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B478" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>729</v>
+        <v>105</v>
       </c>
       <c r="B479" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B480" t="s">
-        <v>107</v>
+        <v>510</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>106</v>
+        <v>496</v>
       </c>
       <c r="B481" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>497</v>
+        <v>730</v>
       </c>
       <c r="B482" t="s">
-        <v>498</v>
+        <v>731</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
+        <v>732</v>
+      </c>
+      <c r="B483" t="s">
         <v>731</v>
-      </c>
-      <c r="B483" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>733</v>
+        <v>263</v>
       </c>
       <c r="B484" t="s">
-        <v>732</v>
+        <v>264</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="B485" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B486" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B487" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>370</v>
+        <v>906</v>
       </c>
       <c r="B488" t="s">
-        <v>371</v>
+        <v>907</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>907</v>
+        <v>733</v>
       </c>
       <c r="B489" t="s">
-        <v>908</v>
+        <v>734</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B490" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B491" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B492" t="s">
-        <v>780</v>
+        <v>45</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>738</v>
+        <v>785</v>
       </c>
       <c r="B493" t="s">
-        <v>46</v>
+        <v>786</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>786</v>
+        <v>738</v>
       </c>
       <c r="B494" t="s">
-        <v>787</v>
+        <v>46</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7988,191 +8063,191 @@
         <v>739</v>
       </c>
       <c r="B495" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>740</v>
+        <v>819</v>
       </c>
       <c r="B496" t="s">
-        <v>47</v>
+        <v>874</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>820</v>
+        <v>371</v>
       </c>
       <c r="B497" t="s">
-        <v>875</v>
+        <v>372</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B498" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="B499" t="s">
-        <v>375</v>
+        <v>873</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="B500" t="s">
-        <v>874</v>
+        <v>376</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="B501" t="s">
-        <v>377</v>
+        <v>872</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>236</v>
+        <v>498</v>
       </c>
       <c r="B502" t="s">
-        <v>873</v>
+        <v>499</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>499</v>
+        <v>377</v>
       </c>
       <c r="B503" t="s">
-        <v>500</v>
+        <v>378</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>378</v>
+        <v>133</v>
       </c>
       <c r="B504" t="s">
-        <v>379</v>
+        <v>47</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>134</v>
+        <v>820</v>
       </c>
       <c r="B505" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>821</v>
+        <v>134</v>
       </c>
       <c r="B506" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>135</v>
+        <v>908</v>
       </c>
       <c r="B507" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>909</v>
+        <v>215</v>
       </c>
       <c r="B508" t="s">
-        <v>48</v>
+        <v>823</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B509" t="s">
-        <v>824</v>
+        <v>379</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="B510" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>381</v>
+        <v>792</v>
       </c>
       <c r="B511" t="s">
-        <v>382</v>
+        <v>793</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>793</v>
+        <v>742</v>
       </c>
       <c r="B512" t="s">
-        <v>794</v>
+        <v>743</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B513" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>741</v>
+        <v>265</v>
       </c>
       <c r="B514" t="s">
-        <v>742</v>
+        <v>266</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
+        <v>267</v>
+      </c>
+      <c r="B515" t="s">
         <v>266</v>
-      </c>
-      <c r="B515" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>268</v>
+        <v>506</v>
       </c>
       <c r="B516" t="s">
-        <v>267</v>
+        <v>507</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>507</v>
+        <v>120</v>
       </c>
       <c r="B517" t="s">
-        <v>508</v>
+        <v>121</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>121</v>
+        <v>821</v>
       </c>
       <c r="B518" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -8180,127 +8255,127 @@
         <v>822</v>
       </c>
       <c r="B519" t="s">
-        <v>49</v>
+        <v>879</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>823</v>
+        <v>780</v>
       </c>
       <c r="B520" t="s">
-        <v>880</v>
+        <v>781</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>781</v>
+        <v>93</v>
       </c>
       <c r="B521" t="s">
-        <v>782</v>
+        <v>94</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="B522" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="B523" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="B524" t="s">
-        <v>272</v>
+        <v>871</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>237</v>
+        <v>761</v>
       </c>
       <c r="B525" t="s">
-        <v>872</v>
+        <v>420</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>762</v>
+        <v>417</v>
       </c>
       <c r="B526" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B527" t="s">
-        <v>419</v>
+        <v>747</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>418</v>
+        <v>748</v>
       </c>
       <c r="B528" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B529" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>749</v>
+        <v>419</v>
       </c>
       <c r="B530" t="s">
-        <v>745</v>
+        <v>420</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>420</v>
+        <v>56</v>
       </c>
       <c r="B531" t="s">
-        <v>421</v>
+        <v>57</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="B532" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="B533" t="s">
-        <v>270</v>
+        <v>501</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>501</v>
+        <v>745</v>
       </c>
       <c r="B534" t="s">
-        <v>502</v>
+        <v>49</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -8313,122 +8388,122 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>747</v>
-      </c>
-      <c r="B536" t="s">
-        <v>51</v>
+        <v>931</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>932</v>
-      </c>
-      <c r="B537" s="4" t="s">
         <v>933</v>
+      </c>
+      <c r="B537" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B538" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B539" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B540" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
+        <v>941</v>
+      </c>
+      <c r="B541" t="s">
         <v>940</v>
-      </c>
-      <c r="B541" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
+        <v>943</v>
+      </c>
+      <c r="B542" t="s">
         <v>942</v>
-      </c>
-      <c r="B542" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
+        <v>609</v>
+      </c>
+      <c r="B543" t="s">
         <v>944</v>
-      </c>
-      <c r="B543" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>610</v>
+        <v>945</v>
       </c>
       <c r="B544" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B545" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B546" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B547" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B548" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B549" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B550" t="s">
-        <v>957</v>
+        <v>177</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -8436,7 +8511,7 @@
         <v>958</v>
       </c>
       <c r="B551" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -8444,460 +8519,532 @@
         <v>959</v>
       </c>
       <c r="B552" t="s">
-        <v>178</v>
+        <v>960</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B553" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B554" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="B555" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B556" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B557" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B558" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B559" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B560" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B561" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B562" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" t="s">
+      <c r="A563" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B563" s="5" t="s">
         <v>977</v>
-      </c>
-      <c r="B563" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B564" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="B565" s="5" t="s">
-        <v>978</v>
+      <c r="A565" t="s">
+        <v>982</v>
+      </c>
+      <c r="B565" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B566" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B567" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B568" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B569" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B570" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B571" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B572" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B573" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B574" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="B575" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B576" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>768</v>
+        <v>1005</v>
       </c>
       <c r="B577" t="s">
-        <v>785</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="B578" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B579" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>998</v>
+        <v>689</v>
       </c>
       <c r="B580" t="s">
-        <v>999</v>
+        <v>108</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B581" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="B582" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="B583" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>690</v>
+        <v>1017</v>
       </c>
       <c r="B584" t="s">
-        <v>109</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B585" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="B586" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B587" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B588" t="s">
         <v>1018</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B589" t="s">
         <v>1020</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B590" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B591" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B592" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B593" t="s">
-        <v>1021</v>
+        <v>779</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B594" t="s">
-        <v>1030</v>
+        <v>779</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B595" t="s">
-        <v>1003</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1026</v>
+        <v>54</v>
       </c>
       <c r="B596" t="s">
-        <v>1023</v>
+        <v>55</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B597" t="s">
-        <v>780</v>
+        <v>281</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B598" t="s">
-        <v>780</v>
+        <v>954</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="B599" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>104</v>
+        <v>1039</v>
       </c>
       <c r="B600" t="s">
-        <v>105</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>55</v>
+        <v>1041</v>
       </c>
       <c r="B601" t="s">
-        <v>56</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="B602" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="B603" t="s">
-        <v>955</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="B604" t="s">
-        <v>999</v>
+        <v>882</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="B605" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="B606" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1018</v>
+        <v>436</v>
       </c>
       <c r="B607" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="B608" t="s">
-        <v>1043</v>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B611" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B613" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>427</v>
+      </c>
+      <c r="B617" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B536">
-    <sortCondition ref="A1:A536"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B535">
+    <sortCondition ref="A1:A535"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD7426-DA76-0947-8FDD-14CD712238C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20C93F-AD5D-614A-BC1A-2E75CAD51718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1160" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52640" yWindow="6080" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1104">
   <si>
     <t>Full</t>
   </si>
@@ -3227,6 +3227,111 @@
   </si>
   <si>
     <t>heat</t>
+  </si>
+  <si>
+    <t>oos</t>
+  </si>
+  <si>
+    <t>out of service</t>
+  </si>
+  <si>
+    <t>spre</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>otbd</t>
+  </si>
+  <si>
+    <t>outboard</t>
+  </si>
+  <si>
+    <t>inbd</t>
+  </si>
+  <si>
+    <t>inboard</t>
+  </si>
+  <si>
+    <t>underwtr</t>
+  </si>
+  <si>
+    <t>underwater</t>
+  </si>
+  <si>
+    <t>vib</t>
+  </si>
+  <si>
+    <t>vibration</t>
+  </si>
+  <si>
+    <t>vibs</t>
+  </si>
+  <si>
+    <t>vibrations</t>
+  </si>
+  <si>
+    <t>rplce</t>
+  </si>
+  <si>
+    <t>maint</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>mntnc</t>
+  </si>
+  <si>
+    <t>mainten</t>
+  </si>
+  <si>
+    <t>chng</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>mainte</t>
+  </si>
+  <si>
+    <t>inop</t>
+  </si>
+  <si>
+    <t>inoperative</t>
+  </si>
+  <si>
+    <t>maintenan</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>perma</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>trav</t>
+  </si>
+  <si>
+    <t>vibes</t>
+  </si>
+  <si>
+    <t>traveling</t>
+  </si>
+  <si>
+    <t>crac</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>stab</t>
+  </si>
+  <si>
+    <t>stabilize</t>
   </si>
 </sst>
 </file>
@@ -4093,11 +4198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B612" sqref="B612"/>
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A639" sqref="A639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4999,7 +5104,7 @@
         <v>767</v>
       </c>
       <c r="B112" t="s">
-        <v>392</v>
+        <v>784</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,31 +5112,31 @@
         <v>767</v>
       </c>
       <c r="B113" t="s">
-        <v>784</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>767</v>
+        <v>439</v>
       </c>
       <c r="B114" t="s">
-        <v>902</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>394</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,132 +5144,132 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>803</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>804</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>803</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
-        <v>804</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>520</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>515</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>524</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>441</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>890</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>443</v>
+        <v>848</v>
       </c>
       <c r="B127" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>848</v>
+        <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>849</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>508</v>
+        <v>814</v>
       </c>
       <c r="B129" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>847</v>
+        <v>572</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>572</v>
+        <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>573</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
         <v>144</v>
@@ -5172,55 +5277,55 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>395</v>
+        <v>502</v>
       </c>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>502</v>
-      </c>
-      <c r="B136" t="s">
-        <v>503</v>
+        <v>802</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>802</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>801</v>
+        <v>73</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>574</v>
       </c>
       <c r="B138" t="s">
-        <v>74</v>
+        <v>575</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>574</v>
+        <v>764</v>
       </c>
       <c r="B139" t="s">
-        <v>575</v>
+        <v>765</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B140" t="s">
         <v>765</v>
@@ -5228,103 +5333,103 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>766</v>
+        <v>576</v>
       </c>
       <c r="B141" t="s">
-        <v>765</v>
+        <v>577</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>576</v>
+        <v>751</v>
       </c>
       <c r="B142" t="s">
-        <v>577</v>
+        <v>846</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>751</v>
+        <v>247</v>
       </c>
       <c r="B143" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>845</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>578</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>578</v>
+        <v>399</v>
       </c>
       <c r="B148" t="s">
-        <v>579</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>399</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>400</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>843</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B151" t="s">
-        <v>891</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>844</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="B153" t="s">
         <v>119</v>
@@ -5332,10 +5437,10 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>895</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,44 +5448,44 @@
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>895</v>
+        <v>842</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>580</v>
       </c>
       <c r="B156" t="s">
-        <v>842</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>580</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s">
-        <v>522</v>
+        <v>842</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B158" t="s">
-        <v>842</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>403</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>522</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="B160" t="s">
         <v>249</v>
@@ -5388,39 +5493,39 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="B162" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>444</v>
+        <v>581</v>
       </c>
       <c r="B163" t="s">
-        <v>445</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>581</v>
+        <v>841</v>
       </c>
       <c r="B164" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>841</v>
+        <v>583</v>
       </c>
       <c r="B165" t="s">
         <v>584</v>
@@ -5428,42 +5533,42 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>583</v>
+        <v>752</v>
       </c>
       <c r="B166" t="s">
-        <v>584</v>
+        <v>840</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>752</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>840</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>585</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>586</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>585</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>586</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,20 +5576,20 @@
         <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>72</v>
+        <v>587</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>588</v>
       </c>
       <c r="B172" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>588</v>
+        <v>903</v>
       </c>
       <c r="B173" t="s">
         <v>589</v>
@@ -5492,23 +5597,23 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>903</v>
+        <v>404</v>
       </c>
       <c r="B174" t="s">
-        <v>589</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>404</v>
+        <v>590</v>
       </c>
       <c r="B175" t="s">
-        <v>405</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B176" t="s">
         <v>591</v>
@@ -5516,34 +5621,34 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>592</v>
+        <v>904</v>
       </c>
       <c r="B177" t="s">
-        <v>591</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>904</v>
+        <v>446</v>
       </c>
       <c r="B178" t="s">
-        <v>51</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>446</v>
+        <v>812</v>
       </c>
       <c r="B179" t="s">
-        <v>447</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>812</v>
+        <v>154</v>
       </c>
       <c r="B180" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,20 +5656,20 @@
         <v>154</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>154</v>
+        <v>448</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>449</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>448</v>
+        <v>925</v>
       </c>
       <c r="B183" t="s">
         <v>449</v>
@@ -5572,7 +5677,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B184" t="s">
         <v>449</v>
@@ -5580,34 +5685,34 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B185" t="s">
-        <v>449</v>
+        <v>929</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>928</v>
+        <v>406</v>
       </c>
       <c r="B186" t="s">
-        <v>929</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,31 +5720,31 @@
         <v>408</v>
       </c>
       <c r="B189" t="s">
-        <v>409</v>
+        <v>763</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="B190" t="s">
-        <v>763</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>159</v>
+        <v>839</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="B192" t="s">
-        <v>839</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,15 +5752,15 @@
         <v>160</v>
       </c>
       <c r="B193" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="B194" t="s">
-        <v>307</v>
+        <v>838</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,52 +5768,52 @@
         <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>838</v>
+        <v>222</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>221</v>
+        <v>593</v>
       </c>
       <c r="B196" t="s">
-        <v>222</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>593</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>594</v>
+        <v>997</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="B198" t="s">
-        <v>997</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="B199" t="s">
-        <v>451</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B200" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
         <v>598</v>
@@ -5716,31 +5821,31 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B202" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>600</v>
+        <v>308</v>
       </c>
       <c r="B203" t="s">
-        <v>601</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>308</v>
+        <v>602</v>
       </c>
       <c r="B204" t="s">
-        <v>309</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B205" t="s">
         <v>604</v>
@@ -5748,39 +5853,39 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="B206" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B207" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>454</v>
+        <v>606</v>
       </c>
       <c r="B208" t="s">
-        <v>455</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>606</v>
+        <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>605</v>
+        <v>837</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B210" t="s">
         <v>837</v>
@@ -5788,18 +5893,18 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="B211" t="s">
-        <v>837</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="B212" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,36 +5912,36 @@
         <v>225</v>
       </c>
       <c r="B213" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>456</v>
       </c>
       <c r="B214" t="s">
-        <v>226</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>456</v>
+        <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>457</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B216" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>135</v>
+        <v>762</v>
       </c>
       <c r="B217" t="s">
         <v>18</v>
@@ -5844,7 +5949,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>762</v>
+        <v>19</v>
       </c>
       <c r="B218" t="s">
         <v>18</v>
@@ -5852,7 +5957,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>19</v>
+        <v>836</v>
       </c>
       <c r="B219" t="s">
         <v>18</v>
@@ -5860,26 +5965,26 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>836</v>
+        <v>188</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="B221" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,28 +5992,28 @@
         <v>204</v>
       </c>
       <c r="B223" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>204</v>
+        <v>607</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B225" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B226" t="s">
         <v>610</v>
@@ -5916,18 +6021,18 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>611</v>
+        <v>866</v>
       </c>
       <c r="B227" t="s">
-        <v>610</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>866</v>
+        <v>612</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,44 +6040,44 @@
         <v>612</v>
       </c>
       <c r="B229" t="s">
-        <v>613</v>
+        <v>811</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B230" t="s">
-        <v>811</v>
+        <v>615</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B231" t="s">
-        <v>615</v>
+        <v>909</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B232" t="s">
-        <v>909</v>
+        <v>613</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B233" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B234" t="s">
         <v>619</v>
@@ -5980,55 +6085,55 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B235" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B236" t="s">
-        <v>622</v>
+        <v>905</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>623</v>
+        <v>63</v>
       </c>
       <c r="B237" t="s">
-        <v>905</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>63</v>
+        <v>624</v>
       </c>
       <c r="B238" t="s">
-        <v>64</v>
+        <v>625</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B239" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>626</v>
+        <v>139</v>
       </c>
       <c r="B240" t="s">
-        <v>627</v>
+        <v>140</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>139</v>
+        <v>754</v>
       </c>
       <c r="B241" t="s">
         <v>140</v>
@@ -6036,26 +6141,26 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>754</v>
+        <v>630</v>
       </c>
       <c r="B242" t="s">
-        <v>140</v>
+        <v>629</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>630</v>
+        <v>136</v>
       </c>
       <c r="B243" t="s">
-        <v>629</v>
+        <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>136</v>
+        <v>628</v>
       </c>
       <c r="B244" t="s">
-        <v>137</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,52 +6168,52 @@
         <v>628</v>
       </c>
       <c r="B245" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>628</v>
+        <v>131</v>
       </c>
       <c r="B246" t="s">
-        <v>631</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="B247" t="s">
-        <v>132</v>
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>412</v>
+        <v>632</v>
       </c>
       <c r="B248" t="s">
-        <v>411</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>632</v>
+        <v>410</v>
       </c>
       <c r="B249" t="s">
-        <v>633</v>
+        <v>411</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>410</v>
+        <v>634</v>
       </c>
       <c r="B250" t="s">
-        <v>411</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B251" t="s">
         <v>635</v>
@@ -6116,127 +6221,127 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>636</v>
+        <v>782</v>
       </c>
       <c r="B252" t="s">
-        <v>635</v>
+        <v>783</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>782</v>
+        <v>186</v>
       </c>
       <c r="B253" t="s">
-        <v>783</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>186</v>
+        <v>835</v>
       </c>
       <c r="B254" t="s">
-        <v>187</v>
+        <v>834</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>835</v>
+        <v>458</v>
       </c>
       <c r="B255" t="s">
-        <v>834</v>
+        <v>459</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B256" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="B257" t="s">
-        <v>461</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>190</v>
+        <v>637</v>
       </c>
       <c r="B258" t="s">
-        <v>191</v>
+        <v>638</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>637</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s">
-        <v>638</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>253</v>
+        <v>462</v>
       </c>
       <c r="B260" t="s">
-        <v>254</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B261" t="s">
-        <v>463</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>254</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="B264" t="s">
-        <v>314</v>
+        <v>833</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="B265" t="s">
-        <v>833</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="B266" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>467</v>
+        <v>315</v>
       </c>
       <c r="B267" t="s">
         <v>316</v>
@@ -6244,15 +6349,15 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>315</v>
+        <v>807</v>
       </c>
       <c r="B268" t="s">
-        <v>316</v>
+        <v>806</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B269" t="s">
         <v>806</v>
@@ -6260,143 +6365,143 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>805</v>
+        <v>317</v>
       </c>
       <c r="B270" t="s">
-        <v>806</v>
+        <v>318</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>317</v>
+        <v>639</v>
       </c>
       <c r="B271" t="s">
-        <v>318</v>
+        <v>640</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>639</v>
+        <v>465</v>
       </c>
       <c r="B272" t="s">
-        <v>640</v>
+        <v>466</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>465</v>
+        <v>257</v>
       </c>
       <c r="B273" t="s">
-        <v>466</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="B274" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B275" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>641</v>
       </c>
       <c r="B276" t="s">
-        <v>322</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B277" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B278" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>645</v>
+        <v>796</v>
       </c>
       <c r="B279" t="s">
-        <v>646</v>
+        <v>797</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>796</v>
+        <v>647</v>
       </c>
       <c r="B280" t="s">
-        <v>797</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B281" t="s">
-        <v>21</v>
+        <v>649</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>648</v>
+        <v>323</v>
       </c>
       <c r="B282" t="s">
-        <v>649</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B283" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B284" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="B285" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="B286" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B287" t="s">
         <v>67</v>
@@ -6404,31 +6509,31 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="B288" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="B289" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>162</v>
+        <v>756</v>
       </c>
       <c r="B290" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>756</v>
+        <v>68</v>
       </c>
       <c r="B291" t="s">
         <v>67</v>
@@ -6436,7 +6541,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>68</v>
+        <v>755</v>
       </c>
       <c r="B292" t="s">
         <v>67</v>
@@ -6444,58 +6549,58 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>755</v>
+        <v>468</v>
       </c>
       <c r="B293" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>468</v>
+        <v>768</v>
       </c>
       <c r="B294" t="s">
-        <v>469</v>
+        <v>769</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>768</v>
+        <v>329</v>
       </c>
       <c r="B295" t="s">
-        <v>769</v>
+        <v>321</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B296" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="B297" t="s">
-        <v>322</v>
+        <v>875</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B298" t="s">
-        <v>875</v>
+        <v>228</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="B299" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,100 +6608,100 @@
         <v>470</v>
       </c>
       <c r="B300" t="s">
-        <v>471</v>
+        <v>650</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>470</v>
+        <v>651</v>
       </c>
       <c r="B301" t="s">
-        <v>650</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>651</v>
+        <v>201</v>
       </c>
       <c r="B302" t="s">
-        <v>22</v>
+        <v>830</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="B303" t="s">
-        <v>830</v>
+        <v>332</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B304" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>334</v>
+        <v>831</v>
       </c>
       <c r="B305" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>831</v>
+        <v>472</v>
       </c>
       <c r="B306" t="s">
-        <v>26</v>
+        <v>473</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
       <c r="B307" t="s">
-        <v>473</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="B308" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>335</v>
+        <v>652</v>
       </c>
       <c r="B309" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>652</v>
+        <v>198</v>
       </c>
       <c r="B310" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>198</v>
+        <v>337</v>
       </c>
       <c r="B311" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B312" t="s">
         <v>338</v>
@@ -6604,34 +6709,34 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>339</v>
+        <v>829</v>
       </c>
       <c r="B313" t="s">
-        <v>338</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>829</v>
+        <v>516</v>
       </c>
       <c r="B314" t="s">
-        <v>23</v>
+        <v>517</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>516</v>
+        <v>200</v>
       </c>
       <c r="B315" t="s">
-        <v>517</v>
+        <v>828</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="B316" t="s">
-        <v>828</v>
+        <v>262</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,28 +6744,28 @@
         <v>261</v>
       </c>
       <c r="B317" t="s">
-        <v>262</v>
+        <v>474</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>261</v>
+        <v>475</v>
       </c>
       <c r="B318" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>475</v>
+        <v>654</v>
       </c>
       <c r="B319" t="s">
-        <v>476</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B320" t="s">
         <v>24</v>
@@ -6668,130 +6773,130 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>653</v>
+        <v>832</v>
       </c>
       <c r="B321" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>832</v>
+        <v>655</v>
       </c>
       <c r="B322" t="s">
-        <v>25</v>
+        <v>656</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>655</v>
+        <v>27</v>
       </c>
       <c r="B323" t="s">
-        <v>656</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>27</v>
+        <v>657</v>
       </c>
       <c r="B324" t="s">
-        <v>28</v>
+        <v>658</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B325" t="s">
-        <v>658</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>659</v>
+        <v>930</v>
       </c>
       <c r="B326" t="s">
-        <v>28</v>
+        <v>658</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>930</v>
+        <v>662</v>
       </c>
       <c r="B327" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B328" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B329" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>663</v>
+        <v>477</v>
       </c>
       <c r="B330" t="s">
-        <v>664</v>
+        <v>478</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>477</v>
+        <v>202</v>
       </c>
       <c r="B331" t="s">
-        <v>478</v>
+        <v>203</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="B332" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>91</v>
+        <v>913</v>
       </c>
       <c r="B333" t="s">
-        <v>92</v>
+        <v>914</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>913</v>
+        <v>666</v>
       </c>
       <c r="B334" t="s">
-        <v>914</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>666</v>
+        <v>116</v>
       </c>
       <c r="B335" t="s">
-        <v>667</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="B336" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6904,7 @@
         <v>206</v>
       </c>
       <c r="B337" t="s">
-        <v>207</v>
+        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6912,7 @@
         <v>206</v>
       </c>
       <c r="B338" t="s">
-        <v>665</v>
+        <v>898</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,23 +6920,23 @@
         <v>206</v>
       </c>
       <c r="B339" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>206</v>
+        <v>668</v>
       </c>
       <c r="B340" t="s">
-        <v>899</v>
+        <v>669</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B341" t="s">
-        <v>669</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,15 +6944,15 @@
         <v>670</v>
       </c>
       <c r="B342" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B343" t="s">
-        <v>30</v>
+        <v>672</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,103 +6960,103 @@
         <v>671</v>
       </c>
       <c r="B344" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>671</v>
+        <v>798</v>
       </c>
       <c r="B345" t="s">
-        <v>673</v>
+        <v>799</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>798</v>
+        <v>479</v>
       </c>
       <c r="B346" t="s">
-        <v>799</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>479</v>
+        <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>480</v>
+        <v>341</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>340</v>
+        <v>208</v>
       </c>
       <c r="B348" t="s">
-        <v>341</v>
+        <v>827</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>208</v>
+        <v>910</v>
       </c>
       <c r="B349" t="s">
-        <v>827</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>910</v>
+        <v>342</v>
       </c>
       <c r="B350" t="s">
-        <v>911</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>342</v>
+        <v>674</v>
       </c>
       <c r="B351" t="s">
-        <v>343</v>
+        <v>882</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B352" t="s">
-        <v>882</v>
+        <v>31</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>675</v>
+        <v>883</v>
       </c>
       <c r="B353" t="s">
-        <v>31</v>
+        <v>884</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>883</v>
+        <v>676</v>
       </c>
       <c r="B354" t="s">
-        <v>884</v>
+        <v>677</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>676</v>
+        <v>209</v>
       </c>
       <c r="B355" t="s">
-        <v>677</v>
+        <v>826</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B356" t="s">
-        <v>826</v>
+        <v>230</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +7064,7 @@
         <v>229</v>
       </c>
       <c r="B357" t="s">
-        <v>230</v>
+        <v>344</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,79 +7072,79 @@
         <v>229</v>
       </c>
       <c r="B358" t="s">
-        <v>344</v>
+        <v>679</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="B359" t="s">
-        <v>679</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>345</v>
+        <v>678</v>
       </c>
       <c r="B360" t="s">
-        <v>346</v>
+        <v>679</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>678</v>
+        <v>141</v>
       </c>
       <c r="B361" t="s">
-        <v>679</v>
+        <v>142</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="B362" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B363" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>349</v>
+        <v>680</v>
       </c>
       <c r="B364" t="s">
-        <v>350</v>
+        <v>681</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>680</v>
+        <v>481</v>
       </c>
       <c r="B365" t="s">
-        <v>681</v>
+        <v>482</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B366" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>483</v>
+        <v>683</v>
       </c>
       <c r="B367" t="s">
-        <v>484</v>
+        <v>684</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,20 +7152,20 @@
         <v>683</v>
       </c>
       <c r="B368" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B369" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B370" t="s">
         <v>686</v>
@@ -7068,7 +7173,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B371" t="s">
         <v>686</v>
@@ -7076,18 +7181,18 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>688</v>
+        <v>815</v>
       </c>
       <c r="B372" t="s">
-        <v>686</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>815</v>
+        <v>95</v>
       </c>
       <c r="B373" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,116 +7200,116 @@
         <v>95</v>
       </c>
       <c r="B374" t="s">
-        <v>96</v>
+        <v>513</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B375" t="s">
-        <v>513</v>
+        <v>97</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>98</v>
+        <v>689</v>
       </c>
       <c r="B376" t="s">
-        <v>97</v>
+        <v>690</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>689</v>
+        <v>107</v>
       </c>
       <c r="B377" t="s">
-        <v>690</v>
+        <v>108</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>107</v>
+        <v>691</v>
       </c>
       <c r="B378" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>691</v>
+        <v>867</v>
       </c>
       <c r="B379" t="s">
-        <v>33</v>
+        <v>885</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>867</v>
+        <v>692</v>
       </c>
       <c r="B380" t="s">
-        <v>885</v>
+        <v>693</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>692</v>
+        <v>504</v>
       </c>
       <c r="B381" t="s">
-        <v>693</v>
+        <v>505</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>504</v>
+        <v>694</v>
       </c>
       <c r="B382" t="s">
-        <v>505</v>
+        <v>695</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>694</v>
+        <v>770</v>
       </c>
       <c r="B383" t="s">
-        <v>695</v>
+        <v>771</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>770</v>
+        <v>103</v>
       </c>
       <c r="B384" t="s">
-        <v>771</v>
+        <v>104</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B385" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="B386" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>210</v>
+        <v>757</v>
       </c>
       <c r="B387" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>757</v>
+        <v>212</v>
       </c>
       <c r="B388" t="s">
         <v>213</v>
@@ -7212,39 +7317,39 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>212</v>
+        <v>485</v>
       </c>
       <c r="B389" t="s">
-        <v>213</v>
+        <v>917</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B390" t="s">
-        <v>917</v>
+        <v>416</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>486</v>
+        <v>696</v>
       </c>
       <c r="B391" t="s">
-        <v>416</v>
+        <v>697</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>696</v>
+        <v>88</v>
       </c>
       <c r="B392" t="s">
-        <v>697</v>
+        <v>89</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B393" t="s">
         <v>89</v>
@@ -7252,31 +7357,31 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>90</v>
+        <v>487</v>
       </c>
       <c r="B394" t="s">
-        <v>89</v>
+        <v>488</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="B395" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>511</v>
+        <v>75</v>
       </c>
       <c r="B396" t="s">
-        <v>512</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>75</v>
+        <v>758</v>
       </c>
       <c r="B397" t="s">
         <v>78</v>
@@ -7284,103 +7389,103 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>758</v>
+        <v>918</v>
       </c>
       <c r="B398" t="s">
-        <v>78</v>
+        <v>919</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>918</v>
+        <v>698</v>
       </c>
       <c r="B399" t="s">
-        <v>919</v>
+        <v>700</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B400" t="s">
-        <v>700</v>
+        <v>886</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>699</v>
+        <v>76</v>
       </c>
       <c r="B401" t="s">
-        <v>886</v>
+        <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="B402" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>164</v>
+        <v>868</v>
       </c>
       <c r="B403" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>868</v>
+        <v>701</v>
       </c>
       <c r="B404" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>701</v>
+        <v>130</v>
       </c>
       <c r="B405" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>130</v>
+        <v>702</v>
       </c>
       <c r="B406" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>702</v>
+        <v>915</v>
       </c>
       <c r="B407" t="s">
-        <v>35</v>
+        <v>916</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>915</v>
+        <v>825</v>
       </c>
       <c r="B408" t="s">
-        <v>916</v>
+        <v>35</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>825</v>
+        <v>523</v>
       </c>
       <c r="B409" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="B410" t="s">
         <v>80</v>
@@ -7388,34 +7493,34 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>77</v>
+        <v>703</v>
       </c>
       <c r="B411" t="s">
-        <v>80</v>
+        <v>704</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>703</v>
+        <v>922</v>
       </c>
       <c r="B412" t="s">
-        <v>704</v>
+        <v>921</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B413" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>923</v>
+        <v>705</v>
       </c>
       <c r="B414" t="s">
-        <v>924</v>
+        <v>81</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -7423,7 +7528,7 @@
         <v>705</v>
       </c>
       <c r="B415" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,79 +7536,79 @@
         <v>705</v>
       </c>
       <c r="B416" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>705</v>
+        <v>255</v>
       </c>
       <c r="B417" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="B418" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="B419" t="s">
-        <v>5</v>
+        <v>352</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>351</v>
+        <v>128</v>
       </c>
       <c r="B420" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>128</v>
+        <v>415</v>
       </c>
       <c r="B421" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>415</v>
+        <v>920</v>
       </c>
       <c r="B422" t="s">
-        <v>416</v>
+        <v>921</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>920</v>
+        <v>99</v>
       </c>
       <c r="B423" t="s">
-        <v>921</v>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B424" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B425" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,23 +7616,23 @@
         <v>111</v>
       </c>
       <c r="B426" t="s">
-        <v>112</v>
+        <v>912</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B427" t="s">
-        <v>912</v>
+        <v>112</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>113</v>
+        <v>706</v>
       </c>
       <c r="B428" t="s">
-        <v>112</v>
+        <v>707</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,79 +7640,79 @@
         <v>706</v>
       </c>
       <c r="B429" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B430" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>709</v>
+        <v>789</v>
       </c>
       <c r="B431" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="B432" t="s">
-        <v>790</v>
+        <v>878</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>816</v>
+        <v>127</v>
       </c>
       <c r="B433" t="s">
-        <v>878</v>
+        <v>126</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="B434" t="s">
-        <v>126</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="B435" t="s">
-        <v>490</v>
+        <v>354</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>521</v>
+        <v>355</v>
       </c>
       <c r="B436" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>355</v>
+        <v>759</v>
       </c>
       <c r="B437" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>759</v>
+        <v>166</v>
       </c>
       <c r="B438" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,31 +7720,31 @@
         <v>166</v>
       </c>
       <c r="B439" t="s">
-        <v>167</v>
+        <v>896</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>166</v>
+        <v>491</v>
       </c>
       <c r="B440" t="s">
-        <v>896</v>
+        <v>492</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>491</v>
+        <v>357</v>
       </c>
       <c r="B441" t="s">
-        <v>492</v>
+        <v>358</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>357</v>
+        <v>710</v>
       </c>
       <c r="B442" t="s">
-        <v>358</v>
+        <v>711</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7647,36 +7752,36 @@
         <v>710</v>
       </c>
       <c r="B443" t="s">
-        <v>711</v>
+        <v>38</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>710</v>
+        <v>493</v>
       </c>
       <c r="B444" t="s">
-        <v>38</v>
+        <v>494</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>493</v>
+        <v>824</v>
       </c>
       <c r="B445" t="s">
-        <v>494</v>
+        <v>231</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>824</v>
+        <v>712</v>
       </c>
       <c r="B446" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B447" t="s">
         <v>39</v>
@@ -7684,15 +7789,15 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>713</v>
+        <v>359</v>
       </c>
       <c r="B448" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>359</v>
+        <v>760</v>
       </c>
       <c r="B449" t="s">
         <v>360</v>
@@ -7700,26 +7805,26 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>760</v>
+        <v>361</v>
       </c>
       <c r="B450" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>361</v>
+        <v>714</v>
       </c>
       <c r="B451" t="s">
-        <v>362</v>
+        <v>715</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B452" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7727,63 +7832,63 @@
         <v>716</v>
       </c>
       <c r="B453" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B454" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>719</v>
+        <v>54</v>
       </c>
       <c r="B455" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>54</v>
+        <v>721</v>
       </c>
       <c r="B456" t="s">
-        <v>810</v>
+        <v>55</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>721</v>
+        <v>518</v>
       </c>
       <c r="B457" t="s">
-        <v>55</v>
+        <v>519</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>518</v>
+        <v>869</v>
       </c>
       <c r="B458" t="s">
-        <v>519</v>
+        <v>887</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>869</v>
+        <v>808</v>
       </c>
       <c r="B459" t="s">
-        <v>887</v>
+        <v>809</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>808</v>
+        <v>84</v>
       </c>
       <c r="B460" t="s">
-        <v>809</v>
+        <v>85</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7791,7 +7896,7 @@
         <v>84</v>
       </c>
       <c r="B461" t="s">
-        <v>85</v>
+        <v>495</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7799,23 +7904,23 @@
         <v>84</v>
       </c>
       <c r="B462" t="s">
-        <v>495</v>
+        <v>778</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>84</v>
+        <v>791</v>
       </c>
       <c r="B463" t="s">
-        <v>778</v>
+        <v>495</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>791</v>
+        <v>722</v>
       </c>
       <c r="B464" t="s">
-        <v>495</v>
+        <v>723</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7823,20 +7928,20 @@
         <v>722</v>
       </c>
       <c r="B465" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>722</v>
+        <v>282</v>
       </c>
       <c r="B466" t="s">
-        <v>724</v>
+        <v>40</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="B467" t="s">
         <v>40</v>
@@ -7844,26 +7949,26 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>817</v>
+        <v>232</v>
       </c>
       <c r="B468" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="B469" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="B470" t="s">
-        <v>364</v>
+        <v>41</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7871,52 +7976,52 @@
         <v>42</v>
       </c>
       <c r="B471" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>42</v>
+        <v>870</v>
       </c>
       <c r="B472" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>870</v>
+        <v>725</v>
       </c>
       <c r="B473" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>725</v>
+        <v>818</v>
       </c>
       <c r="B474" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>818</v>
+        <v>726</v>
       </c>
       <c r="B475" t="s">
-        <v>44</v>
+        <v>727</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B476" t="s">
-        <v>727</v>
+        <v>43</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B477" t="s">
         <v>43</v>
@@ -7924,10 +8029,10 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>728</v>
+        <v>105</v>
       </c>
       <c r="B478" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7935,28 +8040,28 @@
         <v>105</v>
       </c>
       <c r="B479" t="s">
-        <v>106</v>
+        <v>510</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>105</v>
+        <v>496</v>
       </c>
       <c r="B480" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>496</v>
+        <v>730</v>
       </c>
       <c r="B481" t="s">
-        <v>497</v>
+        <v>731</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B482" t="s">
         <v>731</v>
@@ -7964,58 +8069,58 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>732</v>
+        <v>263</v>
       </c>
       <c r="B483" t="s">
-        <v>731</v>
+        <v>264</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B484" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B485" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B486" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>369</v>
+        <v>906</v>
       </c>
       <c r="B487" t="s">
-        <v>370</v>
+        <v>907</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>906</v>
+        <v>733</v>
       </c>
       <c r="B488" t="s">
-        <v>907</v>
+        <v>734</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B489" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -8023,36 +8128,36 @@
         <v>735</v>
       </c>
       <c r="B490" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B491" t="s">
-        <v>779</v>
+        <v>45</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="B492" t="s">
-        <v>45</v>
+        <v>786</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>785</v>
+        <v>738</v>
       </c>
       <c r="B493" t="s">
-        <v>786</v>
+        <v>46</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B494" t="s">
         <v>46</v>
@@ -8060,79 +8165,79 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="B495" t="s">
-        <v>46</v>
+        <v>874</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>819</v>
+        <v>371</v>
       </c>
       <c r="B496" t="s">
-        <v>874</v>
+        <v>372</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B497" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
       <c r="B498" t="s">
-        <v>374</v>
+        <v>873</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="B499" t="s">
-        <v>873</v>
+        <v>376</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="B500" t="s">
-        <v>376</v>
+        <v>872</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
       <c r="B501" t="s">
-        <v>872</v>
+        <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>498</v>
+        <v>377</v>
       </c>
       <c r="B502" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>377</v>
+        <v>133</v>
       </c>
       <c r="B503" t="s">
-        <v>378</v>
+        <v>47</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>133</v>
+        <v>820</v>
       </c>
       <c r="B504" t="s">
         <v>47</v>
@@ -8140,7 +8245,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>820</v>
+        <v>134</v>
       </c>
       <c r="B505" t="s">
         <v>47</v>
@@ -8148,7 +8253,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>134</v>
+        <v>908</v>
       </c>
       <c r="B506" t="s">
         <v>47</v>
@@ -8156,63 +8261,63 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>908</v>
+        <v>215</v>
       </c>
       <c r="B507" t="s">
-        <v>47</v>
+        <v>823</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B508" t="s">
-        <v>823</v>
+        <v>379</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="B509" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>380</v>
+        <v>792</v>
       </c>
       <c r="B510" t="s">
-        <v>381</v>
+        <v>793</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>792</v>
+        <v>742</v>
       </c>
       <c r="B511" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B512" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>740</v>
+        <v>265</v>
       </c>
       <c r="B513" t="s">
-        <v>741</v>
+        <v>266</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B514" t="s">
         <v>266</v>
@@ -8220,90 +8325,90 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>267</v>
+        <v>506</v>
       </c>
       <c r="B515" t="s">
-        <v>266</v>
+        <v>507</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>506</v>
+        <v>120</v>
       </c>
       <c r="B516" t="s">
-        <v>507</v>
+        <v>121</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>120</v>
+        <v>821</v>
       </c>
       <c r="B517" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B518" t="s">
-        <v>48</v>
+        <v>879</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="B519" t="s">
-        <v>879</v>
+        <v>781</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>780</v>
+        <v>93</v>
       </c>
       <c r="B520" t="s">
-        <v>781</v>
+        <v>94</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>93</v>
+        <v>382</v>
       </c>
       <c r="B521" t="s">
-        <v>94</v>
+        <v>383</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="B522" t="s">
-        <v>383</v>
+        <v>271</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B523" t="s">
-        <v>271</v>
+        <v>871</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>236</v>
+        <v>761</v>
       </c>
       <c r="B524" t="s">
-        <v>871</v>
+        <v>420</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>761</v>
+        <v>417</v>
       </c>
       <c r="B525" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -8311,15 +8416,15 @@
         <v>417</v>
       </c>
       <c r="B526" t="s">
-        <v>418</v>
+        <v>747</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>417</v>
+        <v>748</v>
       </c>
       <c r="B527" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -8327,100 +8432,100 @@
         <v>748</v>
       </c>
       <c r="B528" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>748</v>
+        <v>419</v>
       </c>
       <c r="B529" t="s">
-        <v>744</v>
+        <v>420</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>419</v>
+        <v>56</v>
       </c>
       <c r="B530" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="B531" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>268</v>
+        <v>500</v>
       </c>
       <c r="B532" t="s">
-        <v>269</v>
+        <v>501</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>500</v>
+        <v>745</v>
       </c>
       <c r="B533" t="s">
-        <v>501</v>
+        <v>49</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B534" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>746</v>
-      </c>
-      <c r="B535" t="s">
-        <v>50</v>
+        <v>931</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>931</v>
-      </c>
-      <c r="B536" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
+      </c>
+      <c r="B536" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B537" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B538" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B539" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B540" t="s">
         <v>940</v>
@@ -8428,79 +8533,79 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B541" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>943</v>
+        <v>609</v>
       </c>
       <c r="B542" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>609</v>
+        <v>945</v>
       </c>
       <c r="B543" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B544" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B545" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B546" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B547" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B548" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B549" t="s">
-        <v>956</v>
+        <v>177</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B550" t="s">
         <v>177</v>
@@ -8508,55 +8613,55 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B551" t="s">
-        <v>177</v>
+        <v>960</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B552" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B553" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B554" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B555" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B556" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B557" t="s">
         <v>970</v>
@@ -8564,287 +8669,287 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B558" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B559" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B560" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B561" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
-        <v>978</v>
-      </c>
-      <c r="B562" t="s">
+      <c r="A562" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B562" s="5" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B563" s="5" t="s">
-        <v>977</v>
+      <c r="A563" t="s">
+        <v>980</v>
+      </c>
+      <c r="B563" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B564" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B565" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B566" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B567" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B568" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B569" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B570" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B571" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B572" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B573" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B574" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B575" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B576" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B577" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B578" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1009</v>
+        <v>689</v>
       </c>
       <c r="B579" t="s">
-        <v>1010</v>
+        <v>108</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>689</v>
+        <v>1011</v>
       </c>
       <c r="B580" t="s">
-        <v>108</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B581" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B582" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B583" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B584" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B585" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B586" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B587" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B588" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B589" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B590" t="s">
-        <v>1029</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B591" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B592" t="s">
-        <v>1022</v>
+        <v>779</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B593" t="s">
         <v>779</v>
@@ -8852,199 +8957,367 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B594" t="s">
-        <v>779</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1033</v>
+        <v>54</v>
       </c>
       <c r="B595" t="s">
-        <v>1034</v>
+        <v>55</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>54</v>
+        <v>1035</v>
       </c>
       <c r="B596" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B597" t="s">
-        <v>281</v>
+        <v>954</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B598" t="s">
-        <v>954</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B599" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B600" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B601" t="s">
-        <v>1042</v>
+        <v>129</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B602" t="s">
-        <v>129</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B603" t="s">
-        <v>1045</v>
+        <v>882</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B604" t="s">
-        <v>882</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B605" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1050</v>
+        <v>436</v>
       </c>
       <c r="B606" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>436</v>
+        <v>1053</v>
       </c>
       <c r="B607" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B608" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B609" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B610" t="s">
-        <v>1058</v>
+        <v>80</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B611" t="s">
-        <v>80</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B612" t="s">
-        <v>1061</v>
+        <v>960</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B613" t="s">
-        <v>960</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B614" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B615" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1067</v>
+        <v>427</v>
       </c>
       <c r="B616" t="s">
-        <v>1068</v>
+        <v>428</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>427</v>
+        <v>1069</v>
       </c>
       <c r="B617" t="s">
-        <v>428</v>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B535">
-    <sortCondition ref="A1:A535"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B534">
+    <sortCondition ref="A1:A534"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/nlp/data/abbreviations.xlsx
+++ b/src/nlp/data/abbreviations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE378F8-9876-B843-8C84-6FC286B9B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20C93F-AD5D-614A-BC1A-2E75CAD51718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="1800" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52640" yWindow="6080" windowWidth="28800" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviations" sheetId="3" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1104">
   <si>
     <t>Full</t>
   </si>
   <si>
-    <t>c/o </t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -3152,6 +3149,189 @@
   </si>
   <si>
     <t>detension</t>
+  </si>
+  <si>
+    <t>rmve</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>perfrm</t>
+  </si>
+  <si>
+    <t>sched</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>c/o</t>
+  </si>
+  <si>
+    <t>mods</t>
+  </si>
+  <si>
+    <t>modifications</t>
+  </si>
+  <si>
+    <t>circulation</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>circulating water</t>
+  </si>
+  <si>
+    <t>rplc</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>lwr</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>req'd</t>
+  </si>
+  <si>
+    <t>scrn</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>wsh</t>
+  </si>
+  <si>
+    <t>mtr</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>trblsht</t>
+  </si>
+  <si>
+    <t>troubleshoot</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>oos</t>
+  </si>
+  <si>
+    <t>out of service</t>
+  </si>
+  <si>
+    <t>spre</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>otbd</t>
+  </si>
+  <si>
+    <t>outboard</t>
+  </si>
+  <si>
+    <t>inbd</t>
+  </si>
+  <si>
+    <t>inboard</t>
+  </si>
+  <si>
+    <t>underwtr</t>
+  </si>
+  <si>
+    <t>underwater</t>
+  </si>
+  <si>
+    <t>vib</t>
+  </si>
+  <si>
+    <t>vibration</t>
+  </si>
+  <si>
+    <t>vibs</t>
+  </si>
+  <si>
+    <t>vibrations</t>
+  </si>
+  <si>
+    <t>rplce</t>
+  </si>
+  <si>
+    <t>maint</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>mntnc</t>
+  </si>
+  <si>
+    <t>mainten</t>
+  </si>
+  <si>
+    <t>chng</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>mainte</t>
+  </si>
+  <si>
+    <t>inop</t>
+  </si>
+  <si>
+    <t>inoperative</t>
+  </si>
+  <si>
+    <t>maintenan</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>perma</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>trav</t>
+  </si>
+  <si>
+    <t>vibes</t>
+  </si>
+  <si>
+    <t>traveling</t>
+  </si>
+  <si>
+    <t>crac</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>stab</t>
+  </si>
+  <si>
+    <t>stabilize</t>
   </si>
 </sst>
 </file>
@@ -4018,11 +4198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A639" sqref="A639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4033,7 +4213,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4041,1031 +4221,1031 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="s">
         <v>528</v>
-      </c>
-      <c r="B5" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
         <v>385</v>
-      </c>
-      <c r="B6" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" t="s">
         <v>531</v>
-      </c>
-      <c r="B8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
         <v>533</v>
-      </c>
-      <c r="B11" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>776</v>
+      </c>
+      <c r="B13" t="s">
         <v>777</v>
-      </c>
-      <c r="B13" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" t="s">
         <v>536</v>
-      </c>
-      <c r="B14" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" t="s">
         <v>538</v>
-      </c>
-      <c r="B17" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
         <v>273</v>
-      </c>
-      <c r="B19" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" t="s">
         <v>275</v>
-      </c>
-      <c r="B22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" t="s">
         <v>543</v>
-      </c>
-      <c r="B24" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
         <v>277</v>
-      </c>
-      <c r="B30" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" t="s">
         <v>279</v>
-      </c>
-      <c r="B31" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" t="s">
         <v>546</v>
-      </c>
-      <c r="B32" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" t="s">
         <v>548</v>
-      </c>
-      <c r="B34" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B35" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" t="s">
         <v>281</v>
-      </c>
-      <c r="B36" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39" t="s">
         <v>551</v>
-      </c>
-      <c r="B39" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>855</v>
+      </c>
+      <c r="B40" t="s">
         <v>856</v>
-      </c>
-      <c r="B40" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B41" t="s">
         <v>425</v>
-      </c>
-      <c r="B41" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" t="s">
         <v>284</v>
-      </c>
-      <c r="B43" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>794</v>
+      </c>
+      <c r="B44" t="s">
         <v>795</v>
-      </c>
-      <c r="B44" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s">
         <v>286</v>
-      </c>
-      <c r="B45" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46" t="s">
         <v>553</v>
-      </c>
-      <c r="B46" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
         <v>217</v>
-      </c>
-      <c r="B50" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" t="s">
         <v>290</v>
-      </c>
-      <c r="B52" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>555</v>
+      </c>
+      <c r="B53" t="s">
         <v>556</v>
-      </c>
-      <c r="B53" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
         <v>292</v>
-      </c>
-      <c r="B55" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>427</v>
+      </c>
+      <c r="B56" t="s">
         <v>428</v>
-      </c>
-      <c r="B56" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" t="s">
         <v>294</v>
-      </c>
-      <c r="B57" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" t="s">
         <v>296</v>
-      </c>
-      <c r="B58" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" t="s">
         <v>238</v>
-      </c>
-      <c r="B59" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
         <v>430</v>
-      </c>
-      <c r="B62" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
         <v>300</v>
-      </c>
-      <c r="B63" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" t="s">
         <v>298</v>
-      </c>
-      <c r="B65" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>431</v>
+      </c>
+      <c r="B69" t="s">
         <v>432</v>
-      </c>
-      <c r="B69" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>863</v>
+      </c>
+      <c r="B70" t="s">
         <v>864</v>
-      </c>
-      <c r="B70" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" t="s">
         <v>302</v>
-      </c>
-      <c r="B72" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>787</v>
+      </c>
+      <c r="B73" t="s">
         <v>788</v>
-      </c>
-      <c r="B73" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B74" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
         <v>219</v>
-      </c>
-      <c r="B77" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>558</v>
+      </c>
+      <c r="B80" t="s">
         <v>559</v>
-      </c>
-      <c r="B80" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
         <v>115</v>
-      </c>
-      <c r="B83" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B84" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B87" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
         <v>240</v>
-      </c>
-      <c r="B88" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" t="s">
         <v>242</v>
-      </c>
-      <c r="B90" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>391</v>
+      </c>
+      <c r="B93" t="s">
         <v>392</v>
-      </c>
-      <c r="B93" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" t="s">
         <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
         <v>171</v>
-      </c>
-      <c r="B98" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>562</v>
+      </c>
+      <c r="B99" t="s">
         <v>563</v>
-      </c>
-      <c r="B99" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
         <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B102" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>566</v>
+      </c>
+      <c r="B103" t="s">
         <v>567</v>
-      </c>
-      <c r="B103" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B104" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B105" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B106" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" t="s">
         <v>390</v>
-      </c>
-      <c r="B107" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B110" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>570</v>
+      </c>
+      <c r="B111" t="s">
         <v>571</v>
-      </c>
-      <c r="B111" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B112" t="s">
-        <v>393</v>
+        <v>784</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B113" t="s">
-        <v>785</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>768</v>
+        <v>439</v>
       </c>
       <c r="B114" t="s">
-        <v>903</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="B115" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>395</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>804</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>804</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
-        <v>805</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>520</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>521</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>438</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>515</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>525</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B126" t="s">
-        <v>443</v>
+        <v>890</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>444</v>
+        <v>848</v>
       </c>
       <c r="B127" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>849</v>
+        <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>850</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>814</v>
       </c>
       <c r="B129" t="s">
-        <v>510</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -5073,162 +5253,162 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>848</v>
+        <v>572</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>573</v>
+        <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>574</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>503</v>
-      </c>
-      <c r="B136" t="s">
-        <v>504</v>
+        <v>802</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>803</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>802</v>
+        <v>73</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>574</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>575</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>575</v>
+        <v>764</v>
       </c>
       <c r="B139" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>766</v>
+      </c>
+      <c r="B140" t="s">
         <v>765</v>
-      </c>
-      <c r="B140" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>767</v>
+        <v>576</v>
       </c>
       <c r="B141" t="s">
-        <v>766</v>
+        <v>577</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>577</v>
+        <v>751</v>
       </c>
       <c r="B142" t="s">
-        <v>578</v>
+        <v>846</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>752</v>
+        <v>247</v>
       </c>
       <c r="B143" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>846</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>399</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>578</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>579</v>
+        <v>399</v>
       </c>
       <c r="B148" t="s">
-        <v>580</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>401</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>843</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -5236,55 +5416,55 @@
         <v>844</v>
       </c>
       <c r="B151" t="s">
-        <v>892</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>845</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" t="s">
         <v>119</v>
-      </c>
-      <c r="B153" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>402</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>895</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>896</v>
+        <v>842</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>580</v>
       </c>
       <c r="B156" t="s">
-        <v>843</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>581</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s">
-        <v>523</v>
+        <v>842</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -5292,207 +5472,207 @@
         <v>403</v>
       </c>
       <c r="B158" t="s">
-        <v>843</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>404</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>523</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" t="s">
         <v>249</v>
-      </c>
-      <c r="B160" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="B162" t="s">
-        <v>180</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>445</v>
+        <v>581</v>
       </c>
       <c r="B163" t="s">
-        <v>446</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>582</v>
+        <v>841</v>
       </c>
       <c r="B164" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>842</v>
+        <v>583</v>
       </c>
       <c r="B165" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>584</v>
+        <v>752</v>
       </c>
       <c r="B166" t="s">
-        <v>585</v>
+        <v>840</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>753</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>841</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>585</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>586</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>586</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>587</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="B170" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>73</v>
+        <v>587</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>588</v>
       </c>
       <c r="B172" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>903</v>
+      </c>
+      <c r="B173" t="s">
         <v>589</v>
-      </c>
-      <c r="B173" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>904</v>
+        <v>404</v>
       </c>
       <c r="B174" t="s">
-        <v>590</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>405</v>
+        <v>590</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>592</v>
+      </c>
+      <c r="B176" t="s">
         <v>591</v>
-      </c>
-      <c r="B176" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>593</v>
+        <v>904</v>
       </c>
       <c r="B177" t="s">
-        <v>592</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>905</v>
+        <v>446</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>447</v>
+        <v>812</v>
       </c>
       <c r="B179" t="s">
-        <v>448</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>813</v>
+        <v>154</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B181" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>155</v>
+        <v>448</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>449</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>925</v>
+      </c>
+      <c r="B183" t="s">
         <v>449</v>
-      </c>
-      <c r="B183" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,143 +5680,143 @@
         <v>926</v>
       </c>
       <c r="B184" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B185" t="s">
-        <v>450</v>
+        <v>929</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>929</v>
+        <v>406</v>
       </c>
       <c r="B186" t="s">
-        <v>930</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>407</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>408</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="B188" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B189" t="s">
-        <v>410</v>
+        <v>763</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>409</v>
+        <v>158</v>
       </c>
       <c r="B190" t="s">
-        <v>764</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>160</v>
+        <v>839</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B192" t="s">
-        <v>840</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B193" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>838</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>221</v>
+      </c>
+      <c r="B195" t="s">
         <v>222</v>
-      </c>
-      <c r="B195" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>593</v>
       </c>
       <c r="B196" t="s">
-        <v>223</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>594</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>595</v>
+        <v>997</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="B198" t="s">
-        <v>998</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>451</v>
+        <v>595</v>
       </c>
       <c r="B199" t="s">
-        <v>452</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B200" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>599</v>
+      </c>
+      <c r="B201" t="s">
         <v>598</v>
-      </c>
-      <c r="B201" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5644,23 +5824,23 @@
         <v>600</v>
       </c>
       <c r="B202" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>601</v>
+        <v>308</v>
       </c>
       <c r="B203" t="s">
-        <v>602</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>309</v>
+        <v>602</v>
       </c>
       <c r="B204" t="s">
-        <v>310</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5668,39 +5848,39 @@
         <v>603</v>
       </c>
       <c r="B205" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>604</v>
+        <v>452</v>
       </c>
       <c r="B206" t="s">
-        <v>605</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B207" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>455</v>
+        <v>606</v>
       </c>
       <c r="B208" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>607</v>
+        <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>606</v>
+        <v>837</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5708,175 +5888,175 @@
         <v>252</v>
       </c>
       <c r="B210" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="B211" t="s">
-        <v>838</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="B212" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" t="s">
         <v>226</v>
-      </c>
-      <c r="B213" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>226</v>
+        <v>456</v>
       </c>
       <c r="B214" t="s">
-        <v>227</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>457</v>
+        <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>458</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>136</v>
+        <v>762</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>763</v>
+        <v>19</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>836</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>837</v>
+        <v>188</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="B221" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B223" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>607</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B225" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>611</v>
+      </c>
+      <c r="B226" t="s">
         <v>610</v>
-      </c>
-      <c r="B226" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>612</v>
+        <v>866</v>
       </c>
       <c r="B227" t="s">
-        <v>611</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>867</v>
+        <v>612</v>
       </c>
       <c r="B228" t="s">
-        <v>21</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B229" t="s">
-        <v>614</v>
+        <v>811</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B230" t="s">
-        <v>812</v>
+        <v>615</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B231" t="s">
-        <v>616</v>
+        <v>909</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5884,343 +6064,343 @@
         <v>617</v>
       </c>
       <c r="B232" t="s">
-        <v>910</v>
+        <v>613</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B233" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B234" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B235" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B236" t="s">
-        <v>623</v>
+        <v>905</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>624</v>
+        <v>63</v>
       </c>
       <c r="B237" t="s">
-        <v>906</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>64</v>
+        <v>624</v>
       </c>
       <c r="B238" t="s">
-        <v>65</v>
+        <v>625</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B239" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>627</v>
+        <v>139</v>
       </c>
       <c r="B240" t="s">
-        <v>628</v>
+        <v>140</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>754</v>
+      </c>
+      <c r="B241" t="s">
         <v>140</v>
-      </c>
-      <c r="B241" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>755</v>
+        <v>630</v>
       </c>
       <c r="B242" t="s">
-        <v>141</v>
+        <v>629</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>631</v>
+        <v>136</v>
       </c>
       <c r="B243" t="s">
-        <v>630</v>
+        <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>137</v>
+        <v>628</v>
       </c>
       <c r="B244" t="s">
-        <v>138</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B245" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>629</v>
+        <v>131</v>
       </c>
       <c r="B246" t="s">
-        <v>632</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>132</v>
+        <v>412</v>
       </c>
       <c r="B247" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>413</v>
+        <v>632</v>
       </c>
       <c r="B248" t="s">
-        <v>412</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>633</v>
+        <v>410</v>
       </c>
       <c r="B249" t="s">
-        <v>634</v>
+        <v>411</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>634</v>
       </c>
       <c r="B250" t="s">
-        <v>412</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>636</v>
+      </c>
+      <c r="B251" t="s">
         <v>635</v>
-      </c>
-      <c r="B251" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>637</v>
+        <v>782</v>
       </c>
       <c r="B252" t="s">
-        <v>636</v>
+        <v>783</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>783</v>
+        <v>186</v>
       </c>
       <c r="B253" t="s">
-        <v>784</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>187</v>
+        <v>835</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>834</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>836</v>
+        <v>458</v>
       </c>
       <c r="B255" t="s">
-        <v>835</v>
+        <v>459</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B256" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>461</v>
+        <v>190</v>
       </c>
       <c r="B257" t="s">
-        <v>462</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>191</v>
+        <v>637</v>
       </c>
       <c r="B258" t="s">
-        <v>192</v>
+        <v>638</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>638</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s">
-        <v>639</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>254</v>
+        <v>462</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B261" t="s">
-        <v>464</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>255</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>3</v>
+        <v>313</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="B264" t="s">
-        <v>315</v>
+        <v>833</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="B265" t="s">
-        <v>834</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="B266" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>468</v>
+        <v>315</v>
       </c>
       <c r="B267" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>316</v>
+        <v>807</v>
       </c>
       <c r="B268" t="s">
-        <v>317</v>
+        <v>806</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>806</v>
+        <v>317</v>
       </c>
       <c r="B270" t="s">
-        <v>807</v>
+        <v>318</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>318</v>
+        <v>639</v>
       </c>
       <c r="B271" t="s">
-        <v>319</v>
+        <v>640</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>640</v>
+        <v>465</v>
       </c>
       <c r="B272" t="s">
-        <v>641</v>
+        <v>466</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>466</v>
+        <v>257</v>
       </c>
       <c r="B273" t="s">
-        <v>467</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="B274" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -6233,42 +6413,42 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>321</v>
+        <v>641</v>
       </c>
       <c r="B276" t="s">
-        <v>323</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B277" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B278" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>646</v>
+        <v>796</v>
       </c>
       <c r="B279" t="s">
-        <v>647</v>
+        <v>797</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>797</v>
+        <v>647</v>
       </c>
       <c r="B280" t="s">
-        <v>798</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -6276,47 +6456,47 @@
         <v>648</v>
       </c>
       <c r="B281" t="s">
-        <v>22</v>
+        <v>649</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>649</v>
+        <v>323</v>
       </c>
       <c r="B282" t="s">
-        <v>650</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B283" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B284" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="B285" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="B286" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -6324,71 +6504,71 @@
         <v>70</v>
       </c>
       <c r="B287" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="B288" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="B289" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>163</v>
+        <v>756</v>
       </c>
       <c r="B290" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>757</v>
+        <v>68</v>
       </c>
       <c r="B291" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>69</v>
+        <v>755</v>
       </c>
       <c r="B292" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>756</v>
+        <v>468</v>
       </c>
       <c r="B293" t="s">
-        <v>68</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>469</v>
+        <v>768</v>
       </c>
       <c r="B294" t="s">
-        <v>470</v>
+        <v>769</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>769</v>
+        <v>329</v>
       </c>
       <c r="B295" t="s">
-        <v>770</v>
+        <v>321</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -6401,63 +6581,63 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="B297" t="s">
-        <v>323</v>
+        <v>875</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B298" t="s">
-        <v>876</v>
+        <v>228</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="B299" t="s">
-        <v>229</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B300" t="s">
-        <v>472</v>
+        <v>650</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>471</v>
+        <v>651</v>
       </c>
       <c r="B301" t="s">
-        <v>651</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>652</v>
+        <v>201</v>
       </c>
       <c r="B302" t="s">
-        <v>23</v>
+        <v>830</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="B303" t="s">
-        <v>831</v>
+        <v>332</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B304" t="s">
         <v>333</v>
@@ -6465,135 +6645,135 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>335</v>
+        <v>831</v>
       </c>
       <c r="B305" t="s">
-        <v>334</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>832</v>
+        <v>472</v>
       </c>
       <c r="B306" t="s">
-        <v>27</v>
+        <v>473</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>473</v>
+        <v>195</v>
       </c>
       <c r="B307" t="s">
-        <v>474</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="B308" t="s">
-        <v>197</v>
+        <v>336</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>336</v>
+        <v>652</v>
       </c>
       <c r="B309" t="s">
-        <v>337</v>
+        <v>197</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>653</v>
+        <v>198</v>
       </c>
       <c r="B310" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="B311" t="s">
-        <v>200</v>
+        <v>338</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>339</v>
+      </c>
+      <c r="B312" t="s">
         <v>338</v>
-      </c>
-      <c r="B312" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>340</v>
+        <v>829</v>
       </c>
       <c r="B313" t="s">
-        <v>339</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>830</v>
+        <v>516</v>
       </c>
       <c r="B314" t="s">
-        <v>24</v>
+        <v>517</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>517</v>
+        <v>200</v>
       </c>
       <c r="B315" t="s">
-        <v>518</v>
+        <v>828</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="B316" t="s">
-        <v>829</v>
+        <v>262</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B317" t="s">
-        <v>263</v>
+        <v>474</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="B318" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>476</v>
+        <v>654</v>
       </c>
       <c r="B319" t="s">
-        <v>477</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>654</v>
+        <v>832</v>
       </c>
       <c r="B321" t="s">
         <v>25</v>
@@ -6601,143 +6781,143 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>833</v>
+        <v>655</v>
       </c>
       <c r="B322" t="s">
-        <v>26</v>
+        <v>656</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>656</v>
+        <v>27</v>
       </c>
       <c r="B323" t="s">
-        <v>657</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>28</v>
+        <v>657</v>
       </c>
       <c r="B324" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B325" t="s">
-        <v>659</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>660</v>
+        <v>930</v>
       </c>
       <c r="B326" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>931</v>
+        <v>662</v>
       </c>
       <c r="B327" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B328" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B329" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>664</v>
+        <v>477</v>
       </c>
       <c r="B330" t="s">
-        <v>665</v>
+        <v>478</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>478</v>
+        <v>202</v>
       </c>
       <c r="B331" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="B332" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>92</v>
+        <v>913</v>
       </c>
       <c r="B333" t="s">
-        <v>93</v>
+        <v>914</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>914</v>
+        <v>666</v>
       </c>
       <c r="B334" t="s">
-        <v>915</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>667</v>
+        <v>116</v>
       </c>
       <c r="B335" t="s">
-        <v>668</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="B336" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B337" t="s">
-        <v>208</v>
+        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B338" t="s">
-        <v>666</v>
+        <v>898</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B339" t="s">
         <v>899</v>
@@ -6745,23 +6925,23 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>207</v>
+        <v>668</v>
       </c>
       <c r="B340" t="s">
-        <v>900</v>
+        <v>669</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B341" t="s">
-        <v>670</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B342" t="s">
         <v>30</v>
@@ -6772,12 +6952,12 @@
         <v>671</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>672</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B344" t="s">
         <v>673</v>
@@ -6785,58 +6965,58 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>672</v>
+        <v>798</v>
       </c>
       <c r="B345" t="s">
-        <v>674</v>
+        <v>799</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>799</v>
+        <v>479</v>
       </c>
       <c r="B346" t="s">
-        <v>800</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>481</v>
+        <v>341</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="B348" t="s">
-        <v>342</v>
+        <v>827</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>209</v>
+        <v>910</v>
       </c>
       <c r="B349" t="s">
-        <v>828</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>911</v>
+        <v>342</v>
       </c>
       <c r="B350" t="s">
-        <v>912</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>343</v>
+        <v>674</v>
       </c>
       <c r="B351" t="s">
-        <v>344</v>
+        <v>882</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6844,151 +7024,151 @@
         <v>675</v>
       </c>
       <c r="B352" t="s">
-        <v>883</v>
+        <v>31</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>676</v>
+        <v>883</v>
       </c>
       <c r="B353" t="s">
-        <v>32</v>
+        <v>884</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>884</v>
+        <v>676</v>
       </c>
       <c r="B354" t="s">
-        <v>885</v>
+        <v>677</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>677</v>
+        <v>209</v>
       </c>
       <c r="B355" t="s">
-        <v>678</v>
+        <v>826</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B356" t="s">
-        <v>827</v>
+        <v>230</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B357" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B358" t="s">
-        <v>345</v>
+        <v>679</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="B359" t="s">
-        <v>680</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>346</v>
+        <v>678</v>
       </c>
       <c r="B360" t="s">
-        <v>347</v>
+        <v>679</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>679</v>
+        <v>141</v>
       </c>
       <c r="B361" t="s">
-        <v>680</v>
+        <v>142</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="B362" t="s">
-        <v>143</v>
+        <v>348</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B363" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>350</v>
+        <v>680</v>
       </c>
       <c r="B364" t="s">
-        <v>351</v>
+        <v>681</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>681</v>
+        <v>481</v>
       </c>
       <c r="B365" t="s">
-        <v>682</v>
+        <v>482</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B366" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="B367" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B368" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B369" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>687</v>
+      </c>
+      <c r="B370" t="s">
         <v>686</v>
-      </c>
-      <c r="B370" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6996,151 +7176,151 @@
         <v>688</v>
       </c>
       <c r="B371" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>689</v>
+        <v>815</v>
       </c>
       <c r="B372" t="s">
-        <v>687</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>816</v>
+        <v>95</v>
       </c>
       <c r="B373" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B374" t="s">
-        <v>97</v>
+        <v>513</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B375" t="s">
-        <v>514</v>
+        <v>97</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>99</v>
+        <v>689</v>
       </c>
       <c r="B376" t="s">
-        <v>98</v>
+        <v>690</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>690</v>
+        <v>107</v>
       </c>
       <c r="B377" t="s">
-        <v>691</v>
+        <v>108</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>108</v>
+        <v>691</v>
       </c>
       <c r="B378" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>692</v>
+        <v>867</v>
       </c>
       <c r="B379" t="s">
-        <v>34</v>
+        <v>885</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>868</v>
+        <v>692</v>
       </c>
       <c r="B380" t="s">
-        <v>886</v>
+        <v>693</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>693</v>
+        <v>504</v>
       </c>
       <c r="B381" t="s">
-        <v>694</v>
+        <v>505</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>505</v>
+        <v>694</v>
       </c>
       <c r="B382" t="s">
-        <v>506</v>
+        <v>695</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="B383" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>771</v>
+        <v>103</v>
       </c>
       <c r="B384" t="s">
-        <v>772</v>
+        <v>104</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B385" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="B386" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>211</v>
+        <v>757</v>
       </c>
       <c r="B387" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>758</v>
+        <v>212</v>
       </c>
       <c r="B388" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="B389" t="s">
-        <v>214</v>
+        <v>917</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -7148,79 +7328,79 @@
         <v>486</v>
       </c>
       <c r="B390" t="s">
-        <v>918</v>
+        <v>416</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>487</v>
+        <v>696</v>
       </c>
       <c r="B391" t="s">
-        <v>417</v>
+        <v>697</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>697</v>
+        <v>88</v>
       </c>
       <c r="B392" t="s">
-        <v>698</v>
+        <v>89</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>90</v>
+      </c>
+      <c r="B393" t="s">
         <v>89</v>
-      </c>
-      <c r="B393" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>91</v>
+        <v>487</v>
       </c>
       <c r="B394" t="s">
-        <v>90</v>
+        <v>488</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="B395" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="B396" t="s">
-        <v>513</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>76</v>
+        <v>758</v>
       </c>
       <c r="B397" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>759</v>
+        <v>918</v>
       </c>
       <c r="B398" t="s">
-        <v>79</v>
+        <v>919</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>919</v>
+        <v>698</v>
       </c>
       <c r="B399" t="s">
-        <v>920</v>
+        <v>700</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -7228,103 +7408,103 @@
         <v>699</v>
       </c>
       <c r="B400" t="s">
-        <v>701</v>
+        <v>886</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>700</v>
+        <v>76</v>
       </c>
       <c r="B401" t="s">
-        <v>887</v>
+        <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B402" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>165</v>
+        <v>868</v>
       </c>
       <c r="B403" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>869</v>
+        <v>701</v>
       </c>
       <c r="B404" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>702</v>
+        <v>130</v>
       </c>
       <c r="B405" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>131</v>
+        <v>702</v>
       </c>
       <c r="B406" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>703</v>
+        <v>915</v>
       </c>
       <c r="B407" t="s">
-        <v>36</v>
+        <v>916</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>916</v>
+        <v>825</v>
       </c>
       <c r="B408" t="s">
-        <v>917</v>
+        <v>35</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>826</v>
+        <v>523</v>
       </c>
       <c r="B409" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="B410" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>78</v>
+        <v>703</v>
       </c>
       <c r="B411" t="s">
-        <v>81</v>
+        <v>704</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>704</v>
+        <v>922</v>
       </c>
       <c r="B412" t="s">
-        <v>705</v>
+        <v>921</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -7332,28 +7512,28 @@
         <v>923</v>
       </c>
       <c r="B413" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>924</v>
+        <v>705</v>
       </c>
       <c r="B414" t="s">
-        <v>925</v>
+        <v>81</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B415" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B416" t="s">
         <v>37</v>
@@ -7361,103 +7541,103 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>706</v>
+        <v>255</v>
       </c>
       <c r="B417" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="B418" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>5</v>
+        <v>351</v>
       </c>
       <c r="B419" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="B420" t="s">
-        <v>353</v>
+        <v>129</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="B421" t="s">
-        <v>130</v>
+        <v>416</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>416</v>
+        <v>920</v>
       </c>
       <c r="B422" t="s">
-        <v>417</v>
+        <v>921</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>921</v>
+        <v>99</v>
       </c>
       <c r="B423" t="s">
-        <v>922</v>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B424" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B425" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B426" t="s">
-        <v>113</v>
+        <v>912</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
+        <v>113</v>
+      </c>
+      <c r="B427" t="s">
         <v>112</v>
-      </c>
-      <c r="B427" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>114</v>
+        <v>706</v>
       </c>
       <c r="B428" t="s">
-        <v>113</v>
+        <v>707</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B429" t="s">
         <v>708</v>
@@ -7465,138 +7645,138 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>709</v>
+      </c>
+      <c r="B430" t="s">
         <v>707</v>
-      </c>
-      <c r="B430" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>710</v>
+        <v>789</v>
       </c>
       <c r="B431" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="B432" t="s">
-        <v>791</v>
+        <v>878</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>817</v>
+        <v>127</v>
       </c>
       <c r="B433" t="s">
-        <v>879</v>
+        <v>126</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>128</v>
+        <v>489</v>
       </c>
       <c r="B434" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B435" t="s">
-        <v>491</v>
+        <v>354</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>522</v>
+        <v>355</v>
       </c>
       <c r="B436" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>356</v>
+        <v>759</v>
       </c>
       <c r="B437" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>760</v>
+        <v>166</v>
       </c>
       <c r="B438" t="s">
-        <v>354</v>
+        <v>167</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B439" t="s">
-        <v>168</v>
+        <v>896</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>167</v>
+        <v>491</v>
       </c>
       <c r="B440" t="s">
-        <v>897</v>
+        <v>492</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>492</v>
+        <v>357</v>
       </c>
       <c r="B441" t="s">
-        <v>493</v>
+        <v>358</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>358</v>
+        <v>710</v>
       </c>
       <c r="B442" t="s">
-        <v>359</v>
+        <v>711</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B443" t="s">
-        <v>712</v>
+        <v>38</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>711</v>
+        <v>493</v>
       </c>
       <c r="B444" t="s">
-        <v>39</v>
+        <v>494</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>494</v>
+        <v>824</v>
       </c>
       <c r="B445" t="s">
-        <v>495</v>
+        <v>231</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>825</v>
+        <v>712</v>
       </c>
       <c r="B446" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7604,52 +7784,52 @@
         <v>713</v>
       </c>
       <c r="B447" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>714</v>
+        <v>359</v>
       </c>
       <c r="B448" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>760</v>
+      </c>
+      <c r="B449" t="s">
         <v>360</v>
-      </c>
-      <c r="B449" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>761</v>
+        <v>361</v>
       </c>
       <c r="B450" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>362</v>
+        <v>714</v>
       </c>
       <c r="B451" t="s">
-        <v>363</v>
+        <v>715</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B452" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B453" t="s">
         <v>718</v>
@@ -7657,170 +7837,170 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B454" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>720</v>
+        <v>54</v>
       </c>
       <c r="B455" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
+        <v>721</v>
+      </c>
+      <c r="B456" t="s">
         <v>55</v>
-      </c>
-      <c r="B456" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>55</v>
+        <v>518</v>
       </c>
       <c r="B457" t="s">
-        <v>811</v>
+        <v>519</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
       <c r="B458" t="s">
-        <v>56</v>
+        <v>887</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>519</v>
+        <v>808</v>
       </c>
       <c r="B459" t="s">
-        <v>520</v>
+        <v>809</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>870</v>
+        <v>84</v>
       </c>
       <c r="B460" t="s">
-        <v>888</v>
+        <v>85</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>809</v>
+        <v>84</v>
       </c>
       <c r="B461" t="s">
-        <v>810</v>
+        <v>495</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B462" t="s">
-        <v>86</v>
+        <v>778</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>85</v>
+        <v>791</v>
       </c>
       <c r="B463" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>85</v>
+        <v>722</v>
       </c>
       <c r="B464" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="B465" t="s">
-        <v>496</v>
+        <v>724</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>723</v>
+        <v>282</v>
       </c>
       <c r="B466" t="s">
-        <v>724</v>
+        <v>40</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>723</v>
+        <v>817</v>
       </c>
       <c r="B467" t="s">
-        <v>725</v>
+        <v>40</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="B468" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>818</v>
+        <v>363</v>
       </c>
       <c r="B469" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="B470" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="B471" t="s">
-        <v>365</v>
+        <v>44</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>43</v>
+        <v>870</v>
       </c>
       <c r="B472" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>43</v>
+        <v>725</v>
       </c>
       <c r="B473" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>871</v>
+        <v>818</v>
       </c>
       <c r="B474" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7828,143 +8008,143 @@
         <v>726</v>
       </c>
       <c r="B475" t="s">
-        <v>42</v>
+        <v>727</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>819</v>
+        <v>729</v>
       </c>
       <c r="B476" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B477" t="s">
-        <v>728</v>
+        <v>43</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>730</v>
+        <v>105</v>
       </c>
       <c r="B478" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>729</v>
+        <v>105</v>
       </c>
       <c r="B479" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>106</v>
+        <v>496</v>
       </c>
       <c r="B480" t="s">
-        <v>107</v>
+        <v>497</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>106</v>
+        <v>730</v>
       </c>
       <c r="B481" t="s">
-        <v>511</v>
+        <v>731</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>497</v>
+        <v>732</v>
       </c>
       <c r="B482" t="s">
-        <v>498</v>
+        <v>731</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>731</v>
+        <v>263</v>
       </c>
       <c r="B483" t="s">
-        <v>732</v>
+        <v>264</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>733</v>
+        <v>365</v>
       </c>
       <c r="B484" t="s">
-        <v>732</v>
+        <v>366</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="B485" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B486" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>368</v>
+        <v>906</v>
       </c>
       <c r="B487" t="s">
-        <v>369</v>
+        <v>907</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>370</v>
+        <v>733</v>
       </c>
       <c r="B488" t="s">
-        <v>371</v>
+        <v>734</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>907</v>
+        <v>735</v>
       </c>
       <c r="B489" t="s">
-        <v>908</v>
+        <v>736</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B490" t="s">
-        <v>735</v>
+        <v>779</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B491" t="s">
-        <v>737</v>
+        <v>45</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>736</v>
+        <v>785</v>
       </c>
       <c r="B492" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7977,50 +8157,50 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>786</v>
+        <v>739</v>
       </c>
       <c r="B494" t="s">
-        <v>787</v>
+        <v>46</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="B495" t="s">
-        <v>47</v>
+        <v>874</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>740</v>
+        <v>371</v>
       </c>
       <c r="B496" t="s">
-        <v>47</v>
+        <v>372</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>820</v>
+        <v>373</v>
       </c>
       <c r="B497" t="s">
-        <v>875</v>
+        <v>374</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>372</v>
+        <v>234</v>
       </c>
       <c r="B498" t="s">
-        <v>373</v>
+        <v>873</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B499" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -8028,39 +8208,39 @@
         <v>235</v>
       </c>
       <c r="B500" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>376</v>
+        <v>498</v>
       </c>
       <c r="B501" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="B502" t="s">
-        <v>873</v>
+        <v>378</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
       <c r="B503" t="s">
-        <v>500</v>
+        <v>47</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>378</v>
+        <v>820</v>
       </c>
       <c r="B504" t="s">
-        <v>379</v>
+        <v>47</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -8068,559 +8248,559 @@
         <v>134</v>
       </c>
       <c r="B505" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>821</v>
+        <v>908</v>
       </c>
       <c r="B506" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="B507" t="s">
-        <v>48</v>
+        <v>823</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>909</v>
+        <v>214</v>
       </c>
       <c r="B508" t="s">
-        <v>48</v>
+        <v>379</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="B509" t="s">
-        <v>824</v>
+        <v>381</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>215</v>
+        <v>792</v>
       </c>
       <c r="B510" t="s">
-        <v>380</v>
+        <v>793</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>381</v>
+        <v>742</v>
       </c>
       <c r="B511" t="s">
-        <v>382</v>
+        <v>743</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>793</v>
+        <v>740</v>
       </c>
       <c r="B512" t="s">
-        <v>794</v>
+        <v>741</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>743</v>
+        <v>265</v>
       </c>
       <c r="B513" t="s">
-        <v>744</v>
+        <v>266</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>741</v>
+        <v>267</v>
       </c>
       <c r="B514" t="s">
-        <v>742</v>
+        <v>266</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>266</v>
+        <v>506</v>
       </c>
       <c r="B515" t="s">
-        <v>267</v>
+        <v>507</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="B516" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>507</v>
+        <v>821</v>
       </c>
       <c r="B517" t="s">
-        <v>508</v>
+        <v>48</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>121</v>
+        <v>822</v>
       </c>
       <c r="B518" t="s">
-        <v>122</v>
+        <v>879</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="B519" t="s">
-        <v>49</v>
+        <v>781</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>823</v>
+        <v>93</v>
       </c>
       <c r="B520" t="s">
-        <v>880</v>
+        <v>94</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>781</v>
+        <v>382</v>
       </c>
       <c r="B521" t="s">
-        <v>782</v>
+        <v>383</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="B522" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>383</v>
+        <v>236</v>
       </c>
       <c r="B523" t="s">
-        <v>384</v>
+        <v>871</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>271</v>
+        <v>761</v>
       </c>
       <c r="B524" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>237</v>
+        <v>417</v>
       </c>
       <c r="B525" t="s">
-        <v>872</v>
+        <v>418</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>762</v>
+        <v>417</v>
       </c>
       <c r="B526" t="s">
-        <v>421</v>
+        <v>747</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>418</v>
+        <v>748</v>
       </c>
       <c r="B527" t="s">
-        <v>419</v>
+        <v>749</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>418</v>
+        <v>748</v>
       </c>
       <c r="B528" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>749</v>
+        <v>419</v>
       </c>
       <c r="B529" t="s">
-        <v>750</v>
+        <v>420</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>749</v>
+        <v>56</v>
       </c>
       <c r="B530" t="s">
-        <v>745</v>
+        <v>57</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>420</v>
+        <v>268</v>
       </c>
       <c r="B531" t="s">
-        <v>421</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>57</v>
+        <v>500</v>
       </c>
       <c r="B532" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>269</v>
+        <v>745</v>
       </c>
       <c r="B533" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>501</v>
+        <v>746</v>
       </c>
       <c r="B534" t="s">
-        <v>502</v>
+        <v>50</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>746</v>
-      </c>
-      <c r="B535" t="s">
-        <v>50</v>
+        <v>931</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>747</v>
+        <v>933</v>
       </c>
       <c r="B536" t="s">
-        <v>51</v>
+        <v>934</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>932</v>
-      </c>
-      <c r="B537" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
+      </c>
+      <c r="B537" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B538" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B539" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B540" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B541" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>942</v>
+        <v>609</v>
       </c>
       <c r="B542" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B543" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B544" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B545" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B546" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B547" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B548" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B549" t="s">
-        <v>955</v>
+        <v>177</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B550" t="s">
-        <v>957</v>
+        <v>177</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B551" t="s">
-        <v>178</v>
+        <v>960</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B552" t="s">
-        <v>178</v>
+        <v>962</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B553" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B554" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="B555" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="B556" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="B557" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="B558" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B559" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B560" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="B561" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
-        <v>975</v>
-      </c>
-      <c r="B562" t="s">
-        <v>976</v>
+      <c r="A562" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B563" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B564" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="B565" s="5" t="s">
-        <v>978</v>
+      <c r="A565" t="s">
+        <v>984</v>
+      </c>
+      <c r="B565" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="B566" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="B567" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B568" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="B569" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="B570" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B571" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B572" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="B573" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B574" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -8628,276 +8808,516 @@
         <v>997</v>
       </c>
       <c r="B575" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B576" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>768</v>
+        <v>1007</v>
       </c>
       <c r="B577" t="s">
-        <v>785</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B578" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1004</v>
+        <v>689</v>
       </c>
       <c r="B579" t="s">
-        <v>1005</v>
+        <v>108</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="B580" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="B581" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="B582" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="B583" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>690</v>
+        <v>1019</v>
       </c>
       <c r="B584" t="s">
-        <v>109</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="B585" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="B586" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="B587" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="B588" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="B589" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="B590" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B591" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B592" t="s">
-        <v>1019</v>
+        <v>779</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B593" t="s">
-        <v>1021</v>
+        <v>779</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B594" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1031</v>
+        <v>54</v>
       </c>
       <c r="B595" t="s">
-        <v>1003</v>
+        <v>55</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="B596" t="s">
-        <v>1023</v>
+        <v>281</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B597" t="s">
-        <v>780</v>
+        <v>954</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B598" t="s">
-        <v>780</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="B599" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>104</v>
+        <v>1041</v>
       </c>
       <c r="B600" t="s">
-        <v>105</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>55</v>
+        <v>1043</v>
       </c>
       <c r="B601" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="B602" t="s">
-        <v>282</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="B603" t="s">
-        <v>955</v>
+        <v>882</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>997</v>
+        <v>1047</v>
       </c>
       <c r="B604" t="s">
-        <v>999</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="B605" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1040</v>
+        <v>436</v>
       </c>
       <c r="B606" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1018</v>
+        <v>1053</v>
       </c>
       <c r="B607" t="s">
-        <v>1019</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
       <c r="B608" t="s">
-        <v>1043</v>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B610" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B612" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>427</v>
+      </c>
+      <c r="B616" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B536">
-    <sortCondition ref="A1:A536"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B534">
+    <sortCondition ref="A1:A534"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
